--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,25 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Title</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Category</t>
         </is>
@@ -448,11 +463,26 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>Are Protection Payments the Future of Ransomware? How Businesses Can 
 Protect Themselves</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://www.tripwire.com/state-of-security/security-data-protection/protection-payments-ransomware-businesses/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/Are-Protection-Payments-the-Future-of-Ransomware-How-Businesses-Can-Protect-Themselves-200x113.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -461,10 +491,25 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>Cybersecurity Experts Warn of Emerging Threat of "Black Basta" Ransomware</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/2022/06/cybersecurity-experts-warn-of-emerging.html</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEjCYB-8ZAsSijLSXQ_z4mmq8d3nOdEZPULCRp23pGdO1D3xx-7QtBjDk-wRK1ehA-9IQkQjQ9auAnlQsGw1yU9c22oqjhiYtqUUFW5WgMSDyqQIAnwAp3S_NYGi0bzMs-GIabEn7chvsUQkCXugHP2zHnX8GAv8RfwkqluD_LQDDfqkgU8X65zPshOp/s728-e100/ransomware.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
@@ -473,10 +518,25 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Critical Security Flaws Identified in CODESYS ICS Automation Software</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/2022/06/critical-security-flaws-identified-in.html</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEjQlL2gmnA9AJLVGRg0sIkZ9fanAWBjFLl5jOdEDiGFS4V3YEyA2GPaXbJEr_-RxV-izgVvpuO-QQeuA1NFTDtUOO2jdfBCRpJOkMheYvDtcMjSxgRxm5NEodcxnVG5zj4u6L8lSgHfOAPZIVd7SRu7qPxcVWFJIM66qsWlQw_saVv2_wtAdFriqs0v/s728-e100/plc-hacking.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -485,10 +545,25 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Italy Data Protection Authority Warns Websites Against Use of Google Analytics</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/2022/06/italy-data-protection-authority-warns.html</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEg1qlTTs72OMHd9p6FSVatPyWT73q33IQVN3d5ttolVjrlRACiDmdyPHf2c1UiXDq3uQ3COiPokWwsCbq3941aDuxc2RViAMLHKnY4vErnCDqd0WHNobpC2GCo6DQwCK_S9IotgeVk7-ZdLu68Wx5rzH8EhJ5rmzFuR8dSisXtmbNyOXuIqroXGbt5s/s728-e100/google-analytics.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -497,10 +572,25 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>What Are Shadow IDs, and How Are They Crucial in 2022?</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/2022/06/what-are-shadow-ids-and-how-are-they.html</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEhTwVaKksn7B1IlZgUJEv8O220kTLKHqgXbNvrG6oZbeVThtDzOxxxNouaPZnloEEm5PYOawwKxrG3FEHBnUj4Lou2NBd77XhZ3VFiNa7i_WrPKDkzo_uYpdKoCTymzu07bwjj8pY8HWS7PDkgDrQeXnGeF7GDFtRGnwKBJpfYl5IBRZCGWRycjbivI/s728-e100/attack-surface.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -509,10 +599,25 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>How to Use Microsoft Defender on All Your Devices</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/how-to-use-microsoft-defender/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62b6006ecf5463e00aca58f7/master/pass/Use-Microsoft-Defender-Security-GettyImages-892790768.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -521,10 +626,25 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Researchers Warn of 'Matanbuchus' Malware Campaign Dropping Cobalt Strike Beacons</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/2022/06/researchers-warn-of-matanbuchus-malware.html</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEjVm8ljcLoWlHoUlmb_WzqChL0vj2qzq2E9aYaOViPaZf03ya6LqRdh5_fQhiNle_XK8D7ILIJEAbEqqLkNglEqCdV4dUNKnANCJadf0pbnduZ1uWI9EQedv913nImFTRWD7C-fvMebaXoEVKsm39_QM7DXhfZ44BojS0VYECMmYID3BcEgi3jT6xpk/s728-e100/hacked.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -533,10 +653,25 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>Harmony blockchain loses nearly $100M due to hacked private keys</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/27/harmony-blockchain-loses-nearly-100m-due-to-hacked-private-keys/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/2xlock-1200.jpg?w=780&amp;h=408&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -545,10 +680,25 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>FTC warns of LGBTQ+ extortion scams – be aware before you share!</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/27/ftc-warns-of-lgbtq-extortion-scams-be-aware-before-you-share/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/rainbow-1200-1.jpg?w=780&amp;h=408&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -557,11 +707,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>June 27, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>Extra, Extra, VERT Reads All About It: Cybersecurity News for the Week of 
 June 20, 2022</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.tripwire.com/state-of-security/vert/vert-news/vert-cybersecurity-news-june-20-2022/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/VERT-NEWS30-Jun-2020-200x113.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -570,10 +735,25 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>June 25, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>The Post-Roe Privacy Nightmare Has Arrived</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/post-roe-privacy-russia-ukraine-hacks/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62b62069403df153e6760342/master/pass/Roe-v-Wade-Security-Roundup-Security-GettyImages-1404920017.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -582,10 +762,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>June 25, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>How to Move Your WhatsApp Chats Across Devices and Apps</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/move-whatsapp-chats-backups-ios-android-signal-telegram/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62b664b42d121fa443291b2b/master/pass/Move-WhatsApp-Messages-Security.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -594,10 +789,25 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>June 24, 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>Google Warns Spyware Being Deployed Against Android, iOS Users</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/google-hermit-spyware-android-ios/180062/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/02173641/mobile-malware-scaled-e1646260625640.jpeg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Hacking</t>
         </is>
@@ -606,10 +816,25 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>June 24, 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>A conversation with Jim Dolce, CEO of Lookout</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/2022/06/24/a-conversation-with-jim-dolce-ceo-of-lookout/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=a-conversation-with-jim-dolce-ceo-of-lookout</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/61129cbea3495cb8d72c18ae_Leadership_Jim-Dolce_CEO-Quote_488x474-p-800.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -618,10 +843,25 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>June 24, 2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>5 ways cybercriminals steal credit card details</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -630,10 +870,25 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>June 24, 2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
           <t>OpenSSL issues a bugfix for the previous bugfix</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/24/openssl-issues-a-bugfix-for-the-previous-bugfix/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=780&amp;h=408&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -642,10 +897,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>Biden signs cyber bills into law</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/2022/06/23/biden-signs-cyber-bills-into-law/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=biden-signs-cyber-bills-into-law</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/joshua-sukoff-SYHi8oX0JC8-unsplash-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -654,10 +924,25 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>Instagram’s new age verification tool – Week in security with Tony Anscombe</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/instagrams-new-age-verification-tool-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-23.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -666,10 +951,25 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>Microsoft Office 365 Feature Could Help Ransomware Attackers Infiltrate Cloud Files</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/2022/06/23/microsoft-office-365-feature-could-help-ransomware-attackers-infiltrate-cloud-files/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=microsoft-office-365-feature-could-help-ransomware-attackers-infiltrate-cloud-files</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/christina-wocintechchat-com-F75IfIWSqRY-unsplash-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -678,10 +978,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>Virtual private networks: 5 common questions about VPNs answered</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/23/virtual-private-networks-5-common-questions-vpns-answered/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/vpn-faq-common-questions-answered.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -690,10 +1005,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>Fancy Bear Uses Nuke Threat Lure to Exploit 1-Click Bug</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/fancy-bear-nuke-threat-lure/180056/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/06/23082043/abstract-bomb-scull-sad-cross-scull.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -702,10 +1032,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>Chinese Hackers Distributing SMS Bomber Tool with Malware Hidden Inside</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/2022/06/23/chinese-hackers-distributing-sms-bomber-tool-with-malware-hidden-inside/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=chinese-hackers-distributing-sms-bomber-tool-with-malware-hidden-inside</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/sigmund-2qd9noyeuRE-unsplash-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -714,10 +1059,25 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
           <t>Phishing awareness training: Help your employees avoid the hook</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/21/phishing-awareness-training-help-employees-avoid-hook/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/phishing-awareness-training.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -726,10 +1086,25 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Google Warns of New Spyware Targeting iOS and Android Users</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/hermit-spyware-rcs-labs/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62b490f0cf5463e00aca58a3/master/pass/GettyImages-1256969622.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -738,10 +1113,25 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>June 26, 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>How to Protect Your Remote Workforce from a Cyberattack</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.tripwire.com/state-of-security/security-data-protection/cyber-security/how-to-protect-remote-workforce-from-cyberattack/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/How-to-Protect-Your-Remote-Workforce-from-a-Cyberattack-200x113.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -750,10 +1140,25 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
           <t>Parents Need to Know What’s Going On Inside Their Day Care Apps</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/daycare-app-privacy-security/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62b3a4dc403df153e676029d/master/pass/ideas-daycare-app.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -762,10 +1167,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>S3 Ep88: Phone scammers, hacking bust, and data breach fines [Podcast + Transcript]</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/23/s3-ep88-phone-scammers-hacking-bust-and-data-breach-fines-podcast/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=780&amp;h=408&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
@@ -774,10 +1194,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>Gamification of Ethical Hacking and Hacking Esports</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/gamification-of-ethical-hacking-and-hacking-esports/180039/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/08/30125154/gamification2-e1567183927140.jpg</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -786,10 +1221,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -798,10 +1248,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>A Straw-by-Straw Analysis: The Zero-Trust Approach for Your Alert Haystack</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.intezer.com/blog/alert-triage/the-zero-trust-approach-for-your-alert-haystack/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2019/05/threats-in-an-alert-overload-haystack.png</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -810,10 +1275,25 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
           <t>Ukrainian cybersecurity officials disclose two new hacking campaigns</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/2022/06/22/ukrainian-cybersecurity-officials-disclose-two-new-hacking-campaigns/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=ukrainian-cybersecurity-officials-disclose-two-new-hacking-campaigns</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/max-kukurudziak-qbc3Zmxw0G8-unsplash-1-scaled.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -822,10 +1302,25 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>Crypto mixers: What are they and how are they used?</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/20/crypto-mixers-what-are-they-how-are-they-used/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/04/que-es-cripto-mixer-servicio-aninomato-transacciones.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -834,10 +1329,25 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>Discovery of 56 OT Device Flaws Blamed on Lackluster Security Culture</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/discovery-of-56-ot-device-flaws-blamed-on-lackluster-security-culture/180035/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/09/25150114/Bug-Bounty-Code_small.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -846,10 +1356,25 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
           <t>Elusive ToddyCat APT Targets Microsoft Exchange Servers</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/elusive-toddycat-apt-targets-microsoft-exchange-servers/180031/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/01/01155844/cat-and-mouse-scaled-e1643749142516.jpeg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>Crypto Currency</t>
         </is>
@@ -858,10 +1383,25 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>June 23, 2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>NHS warns of scam COVID-19 text messages</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.tripwire.com/state-of-security/featured/nhs-warns-scam-covid-19-text-messages/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/nhs-text-warning-200x113.jpg</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -870,10 +1410,25 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>What you need to know about PCI 4.0: Requirements 5, 6, 7, 8 and 9</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://www.tripwire.com/state-of-security/regulatory-compliance/pci/what-you-need-to-know-about-pci-requirements-5-6-7-8-9/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/What-you-need-to-know-about-PCI-4-Requirements-5-6-7-8-and-9-200x113.jpg</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -882,10 +1437,25 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>June 21, 2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>Capital One identity theft hacker finally gets convicted</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/21/capital-one-identity-theft-hacker-finally-gets-convicted/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/c1-1200.png.png?w=780&amp;h=408&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -894,10 +1464,25 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>June 20, 2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>Why Paper Receipts are Money at the Drive-Thru</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -906,10 +1491,25 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>June 15, 2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>Microsoft Patch Tuesday, June 2022 Edition</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -918,10 +1518,25 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>June 14, 2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>Ransomware Group Debuts Searchable Victim Data</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
@@ -930,10 +1545,25 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>June 14, 2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -942,10 +1572,25 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>June 9, 2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>Summary of Symbiote Research (A New, Nearly-Impossible-to-Detect Linux Threat)</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://www.intezer.com/blog/malware-analysis/summary-of-symbiote-research-a-new-nearly-impossible-to-detect-linux-threat/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/06/symbiote-linux-threat-blog-graphic-summary.png</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -954,10 +1599,25 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>June 9, 2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>Symbiote Deep-Dive: Analysis of a New, Nearly-Impossible-to-Detect Linux Threat</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.intezer.com/blog/research/new-linux-threat-symbiote/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/06/symbiote-linux-threat-intezer-blog-graphic-1024x475px.png</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
@@ -966,10 +1626,25 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>May 31, 2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>Stay Ahead of the Latest Threats with Threat Family Tracking</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.intezer.com/blog/threat-hunting/track-threat-families-detect-and-hunt/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/05/track-threat-family-blog-graphic.png</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -978,10 +1653,25 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>May 24, 2022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>Detecting Phishing Emails with Email Headers, Attachments, and URLs</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.intezer.com/blog/incident-response/automate-analysis-phishing-email-files/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/05/email-phishing-investigation-pipeline-blog-graphic-1.png</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -990,10 +1680,25 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>September 2, 2021</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>It’s time to talk about conversational customer service</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/editorial/its-time-to-talk-about-conversational-customer-service/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2021/09/shutterstock_1705078873-750x375_1.jpg</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -1002,10 +1707,25 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>September 2, 2021</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>In most cases, paying the ransom is the obvious way out – experts</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/editorial/in-most-cases-paying-the-ransom-is-the-obvious-way-out-experts/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2021/09/JBS_1.jpg</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
@@ -1014,10 +1734,25 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>September 2, 2021</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>‘Amazon’s Choice’ best-selling TP-Link router ships with vulnerable firmware</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/security/amazon-tp-link-router-ships-with-vulnerable-firmware/</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2021/09/tp-link-vulnerable-firmware.jpg</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>
@@ -1026,10 +1761,25 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>Why does the U.S. want ‘white hats’ hacking satellites</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/security/why-does-the-u-s-want-white-hats-hacking-satellites/</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2021/09/Farther_together.jpg</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>Hacking</t>
         </is>
@@ -1038,10 +1788,79 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>The rise of digital currency and a world of e-money</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/crypto/the-rise-of-digital-currency-and-a-world-of-e-money/</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2021/09/shutterstock_1233990421.jpg</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Why does the U.S. want ‘white hats’ hacking satellites</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/security/why-does-the-u-s-want-white-hats-hacking-satellites/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2021/09/Farther_together.jpg</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>September 1, 2021</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>The rise of digital currency and a world of e-money</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/crypto/the-rise-of-digital-currency-and-a-world-of-e-money/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2021/09/shutterstock_1233990421.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,267 +463,271 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Are Protection Payments the Future of Ransomware? How Businesses Can 
-Protect Themselves</t>
+          <t>Microsoft Warns About Evolving Capabilities of Toll Fraud Android Malware Apps</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.tripwire.com/state-of-security/security-data-protection/protection-payments-ransomware-businesses/</t>
+          <t>https://thehackernews.com/2022/07/microsoft-warns-about-evolving.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/Are-Protection-Payments-the-Future-of-Ransomware-How-Businesses-Can-Protect-Themselves-200x113.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj36Wz8FPLgDMYg86C4q6DBBzmivooP2G_B96G3z-oiYNkQS_U77Mt2MNKF2ekO6cjyMgdoAKipryi37zMUGGu-U6h5WQSP514B97ZiQkWJcaA7A6aMvQyBVKEpkTUdyADXiFd2PaP-LJlT0EQWKPosS3ypgiXl3RcFfHPhSDp1VPI_GAb4Cvo4LODj/s260-e100/android.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cybersecurity Experts Warn of Emerging Threat of "Black Basta" Ransomware</t>
+          <t>New 'SessionManager' Backdoor Targeting Microsoft IIS Servers in the Wild</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/cybersecurity-experts-warn-of-emerging.html</t>
+          <t>https://thehackernews.com/2022/07/new-sessionmanager-backdoor-targeting.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEjCYB-8ZAsSijLSXQ_z4mmq8d3nOdEZPULCRp23pGdO1D3xx-7QtBjDk-wRK1ehA-9IQkQjQ9auAnlQsGw1yU9c22oqjhiYtqUUFW5WgMSDyqQIAnwAp3S_NYGi0bzMs-GIabEn7chvsUQkCXugHP2zHnX8GAv8RfwkqluD_LQDDfqkgU8X65zPshOp/s728-e100/ransomware.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj96E6Nc-uFcyKCw15Hq3QBwDakTl-hyqpqBpmksCbkIQA8ZjSKGGv7-JrpJHutb3RKNF2vt2tEdYAgJPEystG9OT4Aok82WvD-vaKgxWORnecDBkVM98iS7DYoGbmd4fBo0UfwKy-B3_pvW9qjTEtyN3ZBxtK0CRizbA2jRHQeHFiXh_v_4X-LLl91/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Critical Security Flaws Identified in CODESYS ICS Automation Software</t>
+          <t>Solving the indirect vulnerability enigma - fixing indirect vulnerabilities without breaking your dependency tree</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/critical-security-flaws-identified-in.html</t>
+          <t>https://thehackernews.com/2022/07/solving-indirect-vulnerability-enigma.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEjQlL2gmnA9AJLVGRg0sIkZ9fanAWBjFLl5jOdEDiGFS4V3YEyA2GPaXbJEr_-RxV-izgVvpuO-QQeuA1NFTDtUOO2jdfBCRpJOkMheYvDtcMjSxgRxm5NEodcxnVG5zj4u6L8lSgHfOAPZIVd7SRu7qPxcVWFJIM66qsWlQw_saVv2_wtAdFriqs0v/s728-e100/plc-hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhBz3IT6BU8eGspTJ_mqNmAFNjrhqryniEtc2585T1nSMNZzcIX730qaA1HrO7NlWBPSd9946O_RYaOEEx11UzzP-b6t8rLK5ZWhTw7jkND7kr6vypFg2t697iyhy074_yos1kdBx_0Z_4Vh9RkUrBr2zprivIXxJ4oDamfBrNoUJo2v7a2iDu-iohH/s260-e100/flaw.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Italy Data Protection Authority Warns Websites Against Use of Google Analytics</t>
+          <t>Amazon Quietly Patches 'High Severity' Vulnerability in Android Photos App</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/italy-data-protection-authority-warns.html</t>
+          <t>https://thehackernews.com/2022/07/amazon-quietly-patches-high-severity.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEg1qlTTs72OMHd9p6FSVatPyWT73q33IQVN3d5ttolVjrlRACiDmdyPHf2c1UiXDq3uQ3COiPokWwsCbq3941aDuxc2RViAMLHKnY4vErnCDqd0WHNobpC2GCo6DQwCK_S9IotgeVk7-ZdLu68Wx5rzH8EhJ5rmzFuR8dSisXtmbNyOXuIqroXGbt5s/s728-e100/google-analytics.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjzQVlonJf_XqhWGctqBadliStgZ5BfPcXrV2M5NMVhbx55llKoFb7y5LJNOQAXGesOZEbTU_tWzesgNJVO3WxklVO0_XospeR23Hm7CFyt3ymBVCrAOj0K5Unwn5j32ppll-VKr-gn3ahUJhOqUdkQtpZJIfXZxMvrI1CL5ShIOpzbZ6-xxnkbvkST/s260-e100/amazon.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What Are Shadow IDs, and How Are They Crucial in 2022?</t>
+          <t>Microsoft Warns of Cryptomining Malware Campaign Targeting Linux Servers</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/what-are-shadow-ids-and-how-are-they.html</t>
+          <t>https://thehackernews.com/2022/06/microsoft-warns-of-cryptomining-malware.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEhTwVaKksn7B1IlZgUJEv8O220kTLKHqgXbNvrG6oZbeVThtDzOxxxNouaPZnloEEm5PYOawwKxrG3FEHBnUj4Lou2NBd77XhZ3VFiNa7i_WrPKDkzo_uYpdKoCTymzu07bwjj8pY8HWS7PDkgDrQeXnGeF7GDFtRGnwKBJpfYl5IBRZCGWRycjbivI/s728-e100/attack-surface.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiYAJVYh7pU2b-Cxud9O1OpqsSwZ8YbSRc4HT6Cl84UE1B0y7nA6w78v6G2gfrH0CgQlYIfu0sypoAedPhkg5IjEPSr4btJnWbRlNUVivoYBtop-pya2puoyFdfhMSBEHez9B2xUru68Zv-DLxNWbxFad3b5mVOAcpQY8lBe_JBMpXEgmBFN0ec7z-R/s260-e100/linux.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>How to Use Microsoft Defender on All Your Devices</t>
+          <t>Google Improves Its Password Manager to Boost Security Across All Platforms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-use-microsoft-defender/</t>
+          <t>https://thehackernews.com/2022/07/google-improves-its-password-manager-to.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b6006ecf5463e00aca58f7/master/pass/Use-Microsoft-Defender-Security-GettyImages-892790768.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiYr6cqg4CdilR2DrKsHfLTeV3VlkWAaQSRTWmFOYpcVpTE02QZSoY5EY4kPbzpH9qLoUEPPTyCj2gpUcTDFYUFicWl3BMg9CUGwPTa3UXiDbQQ9Ne4PWCyIBaBHavXv-R2lmwuLdVD5yxAlPe5dA1i-EnJnOD_fiK-COLwV1O8KO_LfpTX0n7WxKJ3/s260-e100/google.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Researchers Warn of 'Matanbuchus' Malware Campaign Dropping Cobalt Strike Beacons</t>
+          <t xml:space="preserve">
+Semiconductor company is investigating a potential data breach
+</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/researchers-warn-of-matanbuchus-malware.html</t>
+          <t>https://cybernews.com/news/semiconductor-company-is-investigating-a-potential-data-breach/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/new-images/img/b/R29vZ2xl/AVvXsEjVm8ljcLoWlHoUlmb_WzqChL0vj2qzq2E9aYaOViPaZf03ya6LqRdh5_fQhiNle_XK8D7ILIJEAbEqqLkNglEqCdV4dUNKnANCJadf0pbnduZ1uWI9EQedv913nImFTRWD7C-fvMebaXoEVKsm39_QM7DXhfZ44BojS0VYECMmYID3BcEgi3jT6xpk/s728-e100/hacked.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/AMDbreach.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Harmony blockchain loses nearly $100M due to hacked private keys</t>
+          <t xml:space="preserve">
+California DOJ exposes personal data of the state’s concealed-carry weapon permit holders
+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/27/harmony-blockchain-loses-nearly-100m-due-to-hacked-private-keys/</t>
+          <t>https://cybernews.com/news/california-doj-exposes-personal-data-of-the-states-concealed-carry-weapon-permit-holders/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/2xlock-1200.jpg?w=780&amp;h=408&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_580473913.png</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-07-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FTC warns of LGBTQ+ extortion scams – be aware before you share!</t>
+          <t>Is Your New Car a Threat to National Security?</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/27/ftc-warns-of-lgbtq-extortion-scams-be-aware-before-you-share/</t>
+          <t>https://www.wired.com/story/china-cars-surveillance-national-security/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/rainbow-1200-1.jpg?w=780&amp;h=408&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62b64c4379907f238941ad6e/master/pass/ChinaElectric-03.png</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Extra, Extra, VERT Reads All About It: Cybersecurity News for the Week of 
-June 20, 2022</t>
+          <t xml:space="preserve">
+Google faces action for “subjecting users to surveillance by default”
+</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://www.tripwire.com/state-of-security/vert/vert-news/vert-cybersecurity-news-june-20-2022/</t>
+          <t>https://cybernews.com/news/pro-russian-hackers-blamed-for-a-cyberattack-on-norways-data-network/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/VERT-NEWS30-Jun-2020-200x113.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_624905408.png</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -735,22 +739,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>June 25, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>The Post-Roe Privacy Nightmare Has Arrived</t>
+          <t>You Need to Update Windows and Chrome Right Now</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/post-roe-privacy-russia-ukraine-hacks/</t>
+          <t>https://www.wired.com/story/you-need-to-update-windows-and-chrome-right-now/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b62069403df153e6760342/master/pass/Roe-v-Wade-Security-Roundup-Security-GettyImages-1404920017.jpg</t>
+          <t>https://media.wired.com/photos/62bce4ecb3e9d5fb1d49e1dd/master/pass/critical-update-security-june.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -762,22 +766,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>June 25, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>How to Move Your WhatsApp Chats Across Devices and Apps</t>
+          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/move-whatsapp-chats-backups-ios-android-signal-telegram/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b664b42d121fa443291b2b/master/pass/Move-WhatsApp-Messages-Security.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -789,76 +793,78 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>June 24, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Google Warns Spyware Being Deployed Against Android, iOS Users</t>
+          <t>Costco 40th anniversary scam targets WhatsApp users</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://threatpost.com/google-hermit-spyware-android-ios/180062/</t>
+          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/02173641/mobile-malware-scaled-e1646260625640.jpeg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>June 24, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A conversation with Jim Dolce, CEO of Lookout</t>
+          <t>A Guide to Surviving a Ransomware Attack</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/2022/06/24/a-conversation-with-jim-dolce-ceo-of-lookout/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=a-conversation-with-jim-dolce-ceo-of-lookout</t>
+          <t>https://threatpost.com/a-guide-to-surviving-a-ransomware-attack/180110/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/61129cbea3495cb8d72c18ae_Leadership_Jim-Dolce_CEO-Quote_488x474-p-800.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/03/06141757/Robot.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>June 24, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5 ways cybercriminals steal credit card details</t>
+          <t xml:space="preserve">
+Posts offering abortion pills removed on Facebook and Instagram
+</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
+          <t>https://cybernews.com/news/google-faces-action-for-subjecting-users-to-surveillance-by-default/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_746561158.png</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -870,22 +876,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>June 24, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>OpenSSL issues a bugfix for the previous bugfix</t>
+          <t>ZuoRAT Can Take Over Widely Used SOHO Routers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/24/openssl-issues-a-bugfix-for-the-previous-bugfix/</t>
+          <t>https://threatpost.com/zuorat-soho-routers/180113/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=780&amp;h=408&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/03/02102431/ObliqueRAT-.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -897,76 +903,78 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Biden signs cyber bills into law</t>
+          <t xml:space="preserve">
+Pro-Russian hackers blamed for a cyberattack on Norway’s data network
+</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/2022/06/23/biden-signs-cyber-bills-into-law/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=biden-signs-cyber-bills-into-law</t>
+          <t>https://cybernews.com/news/opensea-suffers-a-massive-email-data-breach/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/joshua-sukoff-SYHi8oX0JC8-unsplash-scaled.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_2095329262.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Instagram’s new age verification tool – Week in security with Tony Anscombe</t>
+          <t>Ex-Canadian Government Employee Pleads Guilty Over NetWalker Ransomware Attacks</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/instagrams-new-age-verification-tool-week-security-tony-anscombe/</t>
+          <t>https://thehackernews.com/2022/06/ex-canadian-government-employee-pleads.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-23.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgvU3q7X3xLhMAnaj2JJxXV2uEeRgxO9vXmRZULNFHvZznmnjRw6t0FFLgP5h7Ie3tEHBJVF7mKiC_2Cae49DB8ZzjkZzxAHTfiv4yyaqbQJksYUv54cwAk0ZvdHtQq52kQNolwyB0n2Jx9KcJ4P4gQ_qG8NHKma3VccSNvknUWWf85oLlCT0mTi7KF/s260-e100/hacker-arrested.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Microsoft Office 365 Feature Could Help Ransomware Attackers Infiltrate Cloud Files</t>
+          <t>Google Blocks Dozens of Malicious Domains Operated by Hack-for-Hire Groups</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/2022/06/23/microsoft-office-365-feature-could-help-ransomware-attackers-infiltrate-cloud-files/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=microsoft-office-365-feature-could-help-ransomware-attackers-infiltrate-cloud-files</t>
+          <t>https://thehackernews.com/2022/06/google-blocks-dozens-of-malicious.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/christina-wocintechchat-com-F75IfIWSqRY-unsplash-scaled.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh8m9yPyQTROHzU6yaOfRCvvE1ttZtSWBt7zSs32eXcUBO-f2bI4BWxc5kijrdg3PkPXX-auqTUQK3SOMjcMTJFPZMoFCrVmdJgIbi-lkxlxA6KHu-Yp4t_olUhadq8pdCBhv5tYwFXop_2xUh7z_Te7GLeysZgBDfFf6DCXnLWU1rgtMVzLlHy2IXB/s260-e100/hacker.jpg</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -978,22 +986,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Virtual private networks: 5 common questions about VPNs answered</t>
+          <t>U.S. FCC Commissioner Asks Apple and Google to Remove TikTok from App Stores</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/23/virtual-private-networks-5-common-questions-vpns-answered/</t>
+          <t>https://thehackernews.com/2022/06/us-fcc-commissioner-asks-apple-and.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/vpn-faq-common-questions-answered.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj61FmX6_u3S0fEP6oPMrtn0pOZ7lnT_YRxa9l7uNdxCcalQFbGV1quXeIYGW29_PfT3PNm2-U9P_azW-5-CODA5vpvskGzbNIdy5Ivh1n4V5O5WNIFxwbWZACoD-qcxdZxjJfgLHUDfa7gboldijaZWZDeXPY3EoUod28cgnZF1g0siD00N0dEdXz8/s260-e100/tiktok.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1005,49 +1013,49 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Fancy Bear Uses Nuke Threat Lure to Exploit 1-Click Bug</t>
+          <t>What is Shadow IT and why is it so risky?</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://threatpost.com/fancy-bear-nuke-threat-lure/180056/</t>
+          <t>https://thehackernews.com/2022/06/what-is-shadow-it-and-why-is-it-so-risky.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/06/23082043/abstract-bomb-scull-sad-cross-scull.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjapHvUaPykNYz0IhvJcpinsGdurISUFh3XeqRQGuvrh5GbOD_HoTlAs6XNHPhd9lg8gQivAht7HsOd0_hi81trWkdD3y4MESsrr30BRXpW7-qain1_PAuUTbPpFyHA2YkCdf0vOh9tqEbKUsPDnXOZ-ehAicNMZYL5M7kCVaFZLxIeda1g3WsqApQ-/s260-e100/shadow-it.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Chinese Hackers Distributing SMS Bomber Tool with Malware Hidden Inside</t>
+          <t>A New, Remarkably Sophisticated Malware Is Attacking Routers</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/2022/06/23/chinese-hackers-distributing-sms-bomber-tool-with-malware-hidden-inside/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=chinese-hackers-distributing-sms-bomber-tool-with-malware-hidden-inside</t>
+          <t>https://www.wired.com/story/zuorat-trojan-malware-hacking-routers/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/sigmund-2qd9noyeuRE-unsplash-scaled.jpg</t>
+          <t>https://media.wired.com/photos/62bcb32a9c301780cc32969d/master/pass/Router-Hacks-Security-GettyImages-1264656210.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1059,22 +1067,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Phishing awareness training: Help your employees avoid the hook</t>
+          <t xml:space="preserve">
+The UK steps up to protect Georgia attacked by Russia “to test its cyber capabilities”
+</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/21/phishing-awareness-training-help-employees-avoid-hook/</t>
+          <t>https://cybernews.com/news/the-uk-steps-up-to-protect-georgia-attacked-by-russia-to-test-its-cyber-capabilities/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/phishing-awareness-training.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_96565948.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1086,49 +1096,51 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Google Warns of New Spyware Targeting iOS and Android Users</t>
+          <t xml:space="preserve">
+OpenSea suffers a massive email data breach
+</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/hermit-spyware-rcs-labs/</t>
+          <t>https://cybernews.com/news/the-uk-steps-up-to-protect-georgia-attacked-by-russia-to-test-its-cyber-capabilities/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b490f0cf5463e00aca58a3/master/pass/GettyImages-1256969622.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_96565948.png</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>June 26, 2022</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>How to Protect Your Remote Workforce from a Cyberattack</t>
+          <t>Leaky Access Tokens Exposed Amazon Photos of Users</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.tripwire.com/state-of-security/security-data-protection/cyber-security/how-to-protect-remote-workforce-from-cyberattack/</t>
+          <t>https://threatpost.com/exposed-amazon-photos/180105/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/How-to-Protect-Your-Remote-Workforce-from-a-Cyberattack-200x113.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/09125858/5-Steps-For-Securing-Your-Remote-Work-Space.jpeg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1140,22 +1152,24 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Parents Need to Know What’s Going On Inside Their Day Care Apps</t>
+          <t xml:space="preserve">
+Three individuals accused of selling $88m of pirated software
+</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/daycare-app-privacy-security/</t>
+          <t>https://cybernews.com/news/messenger-chatbot-used-to-hunt-for-facebook-credentials/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b3a4dc403df153e676029d/master/pass/ideas-daycare-app.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/Facebook-Messenger-Shutterstock.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1167,49 +1181,51 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>S3 Ep88: Phone scammers, hacking bust, and data breach fines [Podcast + Transcript]</t>
+          <t xml:space="preserve">
+US-Iranian man convicted of illegal tech exports
+</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/23/s3-ep88-phone-scammers-hacking-bust-and-data-breach-fines-podcast/</t>
+          <t>https://cybernews.com/news/three-individuals-accused-of-selling-88m-of-pirated-software/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=780&amp;h=408&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/logoavaya.png</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Gamification of Ethical Hacking and Hacking Esports</t>
+          <t>Firefox 102 fixes address bar spoofing security hole (and helps with Follina!)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://threatpost.com/gamification-of-ethical-hacking-and-hacking-esports/180039/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/29/firefox-102-fixes-address-bar-spoofing-security-hole/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/08/30125154/gamification2-e1567183927140.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/04/ff-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1221,22 +1237,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>Patchable and Preventable Security Issues Lead Causes of Q1 Attacks</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://threatpost.com/lead-causes-of-q1-attacks/180096/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/09/27164619/Perimeter-Defenses.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1248,49 +1264,51 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A Straw-by-Straw Analysis: The Zero-Trust Approach for Your Alert Haystack</t>
+          <t>Do back offices mean backdoors?</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.intezer.com/blog/alert-triage/the-zero-trust-approach-for-your-alert-haystack/</t>
+          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2019/05/threats-in-an-alert-overload-haystack.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Ukrainian cybersecurity officials disclose two new hacking campaigns</t>
+          <t xml:space="preserve">
+Messenger chatbot used to hunt for Facebook credentials
+</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/2022/06/22/ukrainian-cybersecurity-officials-disclose-two-new-hacking-campaigns/?utm_source=rss&amp;utm_medium=rss&amp;utm_campaign=ukrainian-cybersecurity-officials-disclose-two-new-hacking-campaigns</t>
+          <t>https://cybernews.com/news/posts-offering-abortion-pills-removed-on-facebook-and-instagram/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.itsecurityguru.org/wp-content/uploads/2022/06/max-kukurudziak-qbc3Zmxw0G8-unsplash-1-scaled.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/abortion_choice.png</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1302,22 +1320,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Crypto mixers: What are they and how are they used?</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/20/crypto-mixers-what-are-they-how-are-they-used/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/04/que-es-cripto-mixer-servicio-aninomato-transacciones.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1329,103 +1347,103 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Discovery of 56 OT Device Flaws Blamed on Lackluster Security Culture</t>
+          <t>Log4Shell Vulnerability Targeted in VMware Servers to Exfiltrate Data</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://threatpost.com/discovery-of-56-ot-device-flaws-blamed-on-lackluster-security-culture/180035/</t>
+          <t>https://threatpost.com/log4shell-targeted-vmware-data/180072/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/09/25150114/Bug-Bounty-Code_small.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/12/13082913/log4shell-logo-e1639402166277.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Elusive ToddyCat APT Targets Microsoft Exchange Servers</t>
+          <t>‘Killnet’ Adversary Pummels Lithuania with DDoS Attacks Over Blockade</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://threatpost.com/elusive-toddycat-apt-targets-microsoft-exchange-servers/180031/</t>
+          <t>https://threatpost.com/killnet-pummels-lithuania/180075/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/01/01155844/cat-and-mouse-scaled-e1643749142516.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/06094902/Railway.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>June 23, 2022</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>NHS warns of scam COVID-19 text messages</t>
+          <t>Mitel VoIP Bug Exploited in Ransomware Attacks</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.tripwire.com/state-of-security/featured/nhs-warns-scam-covid-19-text-messages/</t>
+          <t>https://threatpost.com/mitel-voip-bug-exploited/180079/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/nhs-text-warning-200x113.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/10/04101706/VoIP.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>What you need to know about PCI 4.0: Requirements 5, 6, 7, 8 and 9</t>
+          <t>‘Supercookies’ Have Privacy Experts Sounding the Alarm</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.tripwire.com/state-of-security/regulatory-compliance/pci/what-you-need-to-know-about-pci-requirements-5-6-7-8-9/</t>
+          <t>https://www.wired.com/story/trustpid-digital-token-supercookie/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://3b6xlt3iddqmuq5vy2w0s5d3-wpengine.netdna-ssl.com/state-of-security/wp-content/uploads/sites/3/What-you-need-to-know-about-PCI-4-Requirements-5-6-7-8-and-9-200x113.jpg</t>
+          <t>https://media.wired.com/photos/62bb25b22d121fa443291b7f/master/pass/Supercookies_Science_GettyImages-1194303228.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1437,22 +1455,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>June 21, 2022</t>
+          <t>2022-06-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Capital One identity theft hacker finally gets convicted</t>
+          <t>Top Six Security Bad Habits, and How to Break Them</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/21/capital-one-identity-theft-hacker-finally-gets-convicted/</t>
+          <t>https://threatpost.com/six-bad-habits-break/180082/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/c1-1200.png.png?w=780&amp;h=408&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/12/06162635/Bad-business-practice-e1638826008203.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1464,22 +1482,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>June 20, 2022</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>Harmony blockchain loses nearly $100M due to hacked private keys</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/27/harmony-blockchain-loses-nearly-100m-due-to-hacked-private-keys/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/2xlock-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1491,22 +1509,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>June 15, 2022</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+          <t>How to Use Microsoft Defender on All Your Devices</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+          <t>https://www.wired.com/story/how-to-use-microsoft-defender/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+          <t>https://media.wired.com/photos/62b6006ecf5463e00aca58f7/master/pass/Use-Microsoft-Defender-Security-GettyImages-892790768.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1518,49 +1536,49 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>June 14, 2022</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Ransomware Group Debuts Searchable Victim Data</t>
+          <t>FTC warns of LGBTQ+ extortion scams – be aware before you share!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/27/ftc-warns-of-lgbtq-extortion-scams-be-aware-before-you-share/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/rainbow-1200-1.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>June 14, 2022</t>
+          <t>2022-06-27</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
+          <t>5 ways cybercriminals steal credit card details</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
+          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1572,22 +1590,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>June 9, 2022</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Summary of Symbiote Research (A New, Nearly-Impossible-to-Detect Linux Threat)</t>
+          <t>The Post-Roe Privacy Nightmare Has Arrived</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.intezer.com/blog/malware-analysis/summary-of-symbiote-research-a-new-nearly-impossible-to-detect-linux-threat/</t>
+          <t>https://www.wired.com/story/post-roe-privacy-russia-ukraine-hacks/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/06/symbiote-linux-threat-blog-graphic-summary.png</t>
+          <t>https://media.wired.com/photos/62b62069403df153e6760342/master/pass/Roe-v-Wade-Security-Roundup-Security-GettyImages-1404920017.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1599,49 +1617,49 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>June 9, 2022</t>
+          <t>2022-06-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Symbiote Deep-Dive: Analysis of a New, Nearly-Impossible-to-Detect Linux Threat</t>
+          <t>How to Move Your WhatsApp Chats Across Devices and Apps</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.intezer.com/blog/research/new-linux-threat-symbiote/</t>
+          <t>https://www.wired.com/story/move-whatsapp-chats-backups-ios-android-signal-telegram/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/06/symbiote-linux-threat-intezer-blog-graphic-1024x475px.png</t>
+          <t>https://media.wired.com/photos/62b664b42d121fa443291b2b/master/pass/Move-WhatsApp-Messages-Security.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>May 31, 2022</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Stay Ahead of the Latest Threats with Threat Family Tracking</t>
+          <t>Instagram’s new age verification tool – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.intezer.com/blog/threat-hunting/track-threat-families-detect-and-hunt/</t>
+          <t>https://www.welivesecurity.com/videos/instagrams-new-age-verification-tool-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/05/track-threat-family-blog-graphic.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-23.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1653,49 +1671,49 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>May 24, 2022</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Detecting Phishing Emails with Email Headers, Attachments, and URLs</t>
+          <t>Google Warns Spyware Being Deployed Against Android, iOS Users</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.intezer.com/blog/incident-response/automate-analysis-phishing-email-files/</t>
+          <t>https://threatpost.com/google-hermit-spyware-android-ios/180062/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://149520725.v2.pressablecdn.com/wp-content/uploads/2022/05/email-phishing-investigation-pipeline-blog-graphic-1.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/02173641/mobile-malware-scaled-e1646260625640.jpeg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>September 2, 2021</t>
+          <t>2022-06-24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>It’s time to talk about conversational customer service</t>
+          <t>OpenSSL issues a bugfix for the previous bugfix</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://cybernews.com/editorial/its-time-to-talk-about-conversational-customer-service/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/24/openssl-issues-a-bugfix-for-the-previous-bugfix/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2021/09/shutterstock_1705078873-750x375_1.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1707,103 +1725,103 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>September 2, 2021</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>In most cases, paying the ransom is the obvious way out – experts</t>
+          <t>Virtual private networks: 5 common questions about VPNs answered</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://cybernews.com/editorial/in-most-cases-paying-the-ransom-is-the-obvious-way-out-experts/</t>
+          <t>https://www.welivesecurity.com/2022/06/23/virtual-private-networks-5-common-questions-vpns-answered/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2021/09/JBS_1.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/vpn-faq-common-questions-answered.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>September 2, 2021</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>‘Amazon’s Choice’ best-selling TP-Link router ships with vulnerable firmware</t>
+          <t>Fancy Bear Uses Nuke Threat Lure to Exploit 1-Click Bug</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://cybernews.com/security/amazon-tp-link-router-ships-with-vulnerable-firmware/</t>
+          <t>https://threatpost.com/fancy-bear-nuke-threat-lure/180056/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2021/09/tp-link-vulnerable-firmware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/06/23082043/abstract-bomb-scull-sad-cross-scull.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>September 1, 2021</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Why does the U.S. want ‘white hats’ hacking satellites</t>
+          <t>Google Warns of New Spyware Targeting iOS and Android Users</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://cybernews.com/security/why-does-the-u-s-want-white-hats-hacking-satellites/</t>
+          <t>https://www.wired.com/story/hermit-spyware-rcs-labs/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2021/09/Farther_together.jpg</t>
+          <t>https://media.wired.com/photos/62b490f0cf5463e00aca58a3/master/pass/GettyImages-1256969622.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>September 1, 2021</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The rise of digital currency and a world of e-money</t>
+          <t>Parents Need to Know What’s Going On Inside Their Day Care Apps</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://cybernews.com/crypto/the-rise-of-digital-currency-and-a-world-of-e-money/</t>
+          <t>https://www.wired.com/story/daycare-app-privacy-security/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2021/09/shutterstock_1233990421.jpg</t>
+          <t>https://media.wired.com/photos/62b3a4dc403df153e676029d/master/pass/ideas-daycare-app.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1815,54 +1833,540 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>September 1, 2021</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Why does the U.S. want ‘white hats’ hacking satellites</t>
+          <t>S3 Ep88: Phone scammers, hacking bust, and data breach fines [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://cybernews.com/security/why-does-the-u-s-want-white-hats-hacking-satellites/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/23/s3-ep88-phone-scammers-hacking-bust-and-data-breach-fines-podcast/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2021/09/Farther_together.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>September 1, 2021</t>
+          <t>2022-06-22</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>The rise of digital currency and a world of e-money</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://cybernews.com/crypto/the-rise-of-digital-currency-and-a-world-of-e-money/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2021/09/shutterstock_1233990421.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Brave Now Lets You Customize Search Results—for Better or Worse</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/brave-search-goggles-algorithm-vs-google/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62b33522ec87e408fbf152ee/master/pass/Brave-Search-Goggles-Security.jpg</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Phishing awareness training: Help your employees avoid the hook</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/21/phishing-awareness-training-help-employees-avoid-hook/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/phishing-awareness-training.jpg</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Capital One identity theft hacker finally gets convicted</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/21/capital-one-identity-theft-hacker-finally-gets-convicted/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/c1-1200.png.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Interpol busts 2000 suspects in phone scamming takedown</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/20/interpol-busts-2000-suspects-in-phone-scamming-takedown/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ph-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Crypto mixers: What are they and how are they used?</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/20/crypto-mixers-what-are-they-how-are-they-used/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/04/que-es-cripto-mixer-servicio-aninomato-transacciones.jpg</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2022-06-20</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>How to spot malicious spam – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/how-spot-malicious-spam-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-15.jpg</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>How Emotet is changing tactics in response to Microsoft’s tightening of Office macro security</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/16/how-emotet-is-changing-tactics-microsoft-tightening-office-macro-security/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/emotet-malware-botnet-macros-mark-web.jpg</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>S3 Ep87: Follina, AirTags, ID theft and the Law of Big Numbers [Podcast]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/16/s3-ep87-follina-airtags-id-theft-and-the-law-of-big-numbers-podcast/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/bn-1200-2.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2022-06-15</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Follina gets fixed – but it’s not listed in the Patch Tuesday patches!</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/06/15/follina-gets-fixed-but-its-not-listed-in-the-patch-tuesday-patches/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ms-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2022-06-14</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Ransomware Group Debuts Searchable Victim Data</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2022-06-13</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Industroyer: A cyber‑weapon that brought down a power grid</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/06/13/industroyer-cyber-weapon-brought-down-power-grid/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/industroyer-blackout-anniverary-fifth.jpg</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2022-06-11</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2022-06-07</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>KrebsOnSecurity in New Netflix Series on Cybercrime</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/krebsonsecurity-in-new-netflix-series-on-cybercrime/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/netflixseries.png</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2022-06-03</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>What Counts as “Good Faith Security Research?”</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/what-counts-as-good-faith-security-research/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/cyberjustice.png</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2022-05-31</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Costa Rica May Be Pawn in Conti Ransomware Group’s Bid to Rebrand, Evade Sanctions</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/05/costa-rica-may-be-pawn-in-conti-ransomware-groups-bid-to-rebrand-evade-sanctions/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/05/crflag-abstract.png</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,76 +463,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 10, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microsoft Warns About Evolving Capabilities of Toll Fraud Android Malware Apps</t>
+          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-warns-about-evolving.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj36Wz8FPLgDMYg86C4q6DBBzmivooP2G_B96G3z-oiYNkQS_U77Mt2MNKF2ekO6cjyMgdoAKipryi37zMUGGu-U6h5WQSP514B97ZiQkWJcaA7A6aMvQyBVKEpkTUdyADXiFd2PaP-LJlT0EQWKPosS3ypgiXl3RcFfHPhSDp1VPI_GAb4Cvo4LODj/s260-e100/android.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 10, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New 'SessionManager' Backdoor Targeting Microsoft IIS Servers in the Wild</t>
+          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-sessionmanager-backdoor-targeting.html</t>
+          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj96E6Nc-uFcyKCw15Hq3QBwDakTl-hyqpqBpmksCbkIQA8ZjSKGGv7-JrpJHutb3RKNF2vt2tEdYAgJPEystG9OT4Aok82WvD-vaKgxWORnecDBkVM98iS7DYoGbmd4fBo0UfwKy-B3_pvW9qjTEtyN3ZBxtK0CRizbA2jRHQeHFiXh_v_4X-LLl91/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Solving the indirect vulnerability enigma - fixing indirect vulnerabilities without breaking your dependency tree</t>
+          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/solving-indirect-vulnerability-enigma.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhBz3IT6BU8eGspTJ_mqNmAFNjrhqryniEtc2585T1nSMNZzcIX730qaA1HrO7NlWBPSd9946O_RYaOEEx11UzzP-b6t8rLK5ZWhTw7jkND7kr6vypFg2t697iyhy074_yos1kdBx_0Z_4Vh9RkUrBr2zprivIXxJ4oDamfBrNoUJo2v7a2iDu-iohH/s260-e100/flaw.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,76 +544,76 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Amazon Quietly Patches 'High Severity' Vulnerability in Android Photos App</t>
+          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/amazon-quietly-patches-high-severity.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjzQVlonJf_XqhWGctqBadliStgZ5BfPcXrV2M5NMVhbx55llKoFb7y5LJNOQAXGesOZEbTU_tWzesgNJVO3WxklVO0_XospeR23Hm7CFyt3ymBVCrAOj0K5Unwn5j32ppll-VKr-gn3ahUJhOqUdkQtpZJIfXZxMvrI1CL5ShIOpzbZ6-xxnkbvkST/s260-e100/amazon.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Microsoft Warns of Cryptomining Malware Campaign Targeting Linux Servers</t>
+          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/microsoft-warns-of-cryptomining-malware.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiYAJVYh7pU2b-Cxud9O1OpqsSwZ8YbSRc4HT6Cl84UE1B0y7nA6w78v6G2gfrH0CgQlYIfu0sypoAedPhkg5IjEPSr4btJnWbRlNUVivoYBtop-pya2puoyFdfhMSBEHez9B2xUru68Zv-DLxNWbxFad3b5mVOAcpQY8lBe_JBMpXEgmBFN0ec7z-R/s260-e100/linux.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Google Improves Its Password Manager to Boost Security Across All Platforms</t>
+          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/google-improves-its-password-manager-to.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiYr6cqg4CdilR2DrKsHfLTeV3VlkWAaQSRTWmFOYpcVpTE02QZSoY5EY4kPbzpH9qLoUEPPTyCj2gpUcTDFYUFicWl3BMg9CUGwPTa3UXiDbQQ9Ne4PWCyIBaBHavXv-R2lmwuLdVD5yxAlPe5dA1i-EnJnOD_fiK-COLwV1O8KO_LfpTX0n7WxKJ3/s260-e100/google.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,136 +625,133 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Semiconductor company is investigating a potential data breach
-</t>
+          <t>Why Developers Hate Changing Language Versions</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/semiconductor-company-is-investigating-a-potential-data-breach/</t>
+          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/AMDbreach.png</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-California DOJ exposes personal data of the state’s concealed-carry weapon permit holders
-</t>
+          <t>Experts Uncover 350 Browser Extension Variants Used in ABCsoup Adware Campaign</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/california-doj-exposes-personal-data-of-the-states-concealed-carry-weapon-permit-holders/</t>
+          <t>https://thehackernews.com/2022/07/experts-uncover-350-browser-extension.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_580473913.png</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgEWZGI-3AkCTULazUF08NpQz7WLB21Qlhfazahgk5fSej2Oe3-5puE55-YSYTaVEq1CkW0kVyiMvPo9nyQ5i8zd5W6W8Q14Uz0mf8IWRBSMliyIEdv3ZLZLQXSUWoMGmZUUqfXSUkyWCxDAuwgdO6GKS-UqLz7BDIHlukBBT1sJ7JofyO-K6Y2WUUC/s260-e100/code.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2022-07-01</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Is Your New Car a Threat to National Security?</t>
+          <t>TrickBot Gang Shifted its Focus on "Systematically" Targeting Ukraine</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/china-cars-surveillance-national-security/</t>
+          <t>https://thehackernews.com/2022/07/trickbot-malware-shifted-its-focus-on.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b64c4379907f238941ad6e/master/pass/ChinaElectric-03.png</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgnRIShm8RNuRNjD42XnhHAzm8eneXnyWirL3jJpP3-MUDuGZ42jXe-2jldE6FteEIzRFk7yGJANXGGNNroyyQM5JMbhb024h9SURqlb_NGkxpfoOolPb6RTfIvt_jpatUyNr_7ouKZhcgcBb1O8i-7WihnZMqqF1mEQothRRubI5WBr-RN7XR4A4Cj/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Google faces action for “subjecting users to surveillance by default”
-</t>
+          <t>North Korean Maui Ransomware Actively Targeting U.S. Healthcare Organizations</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/pro-russian-hackers-blamed-for-a-cyberattack-on-norways-data-network/</t>
+          <t>https://thehackernews.com/2022/07/north-korean-maui-ransomware-actively.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_624905408.png</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi5s4MlchMuG-cAewPLwfhZFF0JtM7nW02pww32xdHfJfSfxr4KpXTqV6ViThv1pP2W6mGtd-1BB9WSGqZaXMJKYVzu8UBUSwaGYvKs2tPKE4FRIWoQeXOyXOaCiIb4GB3GlA6EEPVw_OPBTaL5rCVqvdEl9ZbBXd4UPOC1CBCHdXBLdgabwoljRFPr/s260-e100/malware-code.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">
+11 July 2022  </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>You Need to Update Windows and Chrome Right Now</t>
+          <t xml:space="preserve">
+Human rights activists call for action against Big Tech
+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/you-need-to-update-windows-and-chrome-right-now/</t>
+          <t>https://cybernews.com/news/human-rights-activists-call-for-action-against-big-tech/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bce4ecb3e9d5fb1d49e1dd/master/pass/critical-update-security-june.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/bigtechbrands.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -766,22 +763,25 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">
+11 July 2022  </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
+          <t xml:space="preserve">
+AI-written academic paper submitted to peer review
+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
+          <t>https://cybernews.com/news/ai-written-academic-paper-submitted-to-peer-review/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/ai_learning.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -793,22 +793,24 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Costco 40th anniversary scam targets WhatsApp users</t>
+          <t xml:space="preserve">
+Honda plays down key fob bug report
+</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
+          <t>https://cybernews.com/news/honda-plays-down-key-fob-bug-report/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Honda.png</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -820,22 +822,24 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A Guide to Surviving a Ransomware Attack</t>
+          <t xml:space="preserve">
+Millions affected as ransomware knocks out French telecom firm
+</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://threatpost.com/a-guide-to-surviving-a-ransomware-attack/180110/</t>
+          <t>https://cybernews.com/news/honda-plays-down-key-fob-bug-report/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/03/06141757/Robot.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Honda.png</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -847,24 +851,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Posts offering abortion pills removed on Facebook and Instagram
+Disneyland's Instagram hacked to display racist and homophobic slurs
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/google-faces-action-for-subjecting-users-to-surveillance-by-default/</t>
+          <t>https://cybernews.com/news/millions-affected-as-ransomware-knocks-out-french-telecom-firm/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_746561158.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/French-Post-LaPoste.png</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -876,22 +880,24 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ZuoRAT Can Take Over Widely Used SOHO Routers</t>
+          <t xml:space="preserve">
+Twitter vows legal fight after Musk pulls out of $44 billion deal
+</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://threatpost.com/zuorat-soho-routers/180113/</t>
+          <t>https://cybernews.com/news/disneylands-instagram-hacked-to-display-racist-and-homophobic-slurs/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/03/02102431/ObliqueRAT-.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2021/11/mickey mouse.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -903,78 +909,82 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">09 July 2022 </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Pro-Russian hackers blamed for a cyberattack on Norway’s data network
+Meta rolls out new login system for entering the metaverse
 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/opensea-suffers-a-massive-email-data-breach/</t>
+          <t>https://cybernews.com/news/twitter-vows-legal-fight-after-musk-pulls-out-of-44-billion-deal/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_2095329262.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/04/ElonMuskbuysTwitter.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">08 July 2022 </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ex-Canadian Government Employee Pleads Guilty Over NetWalker Ransomware Attacks</t>
+          <t xml:space="preserve">
+Meta sues data scrapers with China and Turkey ties
+</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/ex-canadian-government-employee-pleads.html</t>
+          <t>https://cybernews.com/news/meta-rolls-out-new-login-system-for-entering-the-metaverse/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgvU3q7X3xLhMAnaj2JJxXV2uEeRgxO9vXmRZULNFHvZznmnjRw6t0FFLgP5h7Ie3tEHBJVF7mKiC_2Cae49DB8ZzjkZzxAHTfiv4yyaqbQJksYUv54cwAk0ZvdHtQq52kQNolwyB0n2Jx9KcJ4P4gQ_qG8NHKma3VccSNvknUWWf85oLlCT0mTi7KF/s260-e100/hacker-arrested.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_2081740117.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">08 July 2022 </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Google Blocks Dozens of Malicious Domains Operated by Hack-for-Hire Groups</t>
+          <t xml:space="preserve">
+TikTok sued for Blackout Challenge after child deaths
+</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/google-blocks-dozens-of-malicious.html</t>
+          <t>https://cybernews.com/news/meta-sues-data-scrapers-with-china-and-turkey-ties/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh8m9yPyQTROHzU6yaOfRCvvE1ttZtSWBt7zSs32eXcUBO-f2bI4BWxc5kijrdg3PkPXX-auqTUQK3SOMjcMTJFPZMoFCrVmdJgIbi-lkxlxA6KHu-Yp4t_olUhadq8pdCBhv5tYwFXop_2xUh7z_Te7GLeysZgBDfFf6DCXnLWU1rgtMVzLlHy2IXB/s260-e100/hacker.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/metasuesscrapers.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -986,22 +996,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t xml:space="preserve">08 July 2022 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>U.S. FCC Commissioner Asks Apple and Google to Remove TikTok from App Stores</t>
+          <t xml:space="preserve">
+China ramps up its cyber espionage efforts against Russia
+</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/us-fcc-commissioner-asks-apple-and.html</t>
+          <t>https://cybernews.com/news/tiktok-sued-for-blackout-challenge-after-child-tragedy/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj61FmX6_u3S0fEP6oPMrtn0pOZ7lnT_YRxa9l7uNdxCcalQFbGV1quXeIYGW29_PfT3PNm2-U9P_azW-5-CODA5vpvskGzbNIdy5Ivh1n4V5O5WNIFxwbWZACoD-qcxdZxjJfgLHUDfa7gboldijaZWZDeXPY3EoUod28cgnZF1g0siD00N0dEdXz8/s260-e100/tiktok.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/TikTokEvil.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1013,22 +1025,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>What is Shadow IT and why is it so risky?</t>
+          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/06/what-is-shadow-it-and-why-is-it-so-risky.html</t>
+          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjapHvUaPykNYz0IhvJcpinsGdurISUFh3XeqRQGuvrh5GbOD_HoTlAs6XNHPhd9lg8gQivAht7HsOd0_hi81trWkdD3y4MESsrr30BRXpW7-qain1_PAuUTbPpFyHA2YkCdf0vOh9tqEbKUsPDnXOZ-ehAicNMZYL5M7kCVaFZLxIeda1g3WsqApQ-/s260-e100/shadow-it.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1040,22 +1052,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>A New, Remarkably Sophisticated Malware Is Attacking Routers</t>
+          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/zuorat-trojan-malware-hacking-routers/</t>
+          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bcb32a9c301780cc32969d/master/pass/Router-Hacks-Security-GettyImages-1264656210.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1067,24 +1079,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-The UK steps up to protect Georgia attacked by Russia “to test its cyber capabilities”
-</t>
+          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/the-uk-steps-up-to-protect-georgia-attacked-by-russia-to-test-its-cyber-capabilities/</t>
+          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_96565948.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1096,163 +1106,157 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2022-06-30</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-OpenSea suffers a massive email data breach
-</t>
+          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/the-uk-steps-up-to-protect-georgia-attacked-by-russia-to-test-its-cyber-capabilities/</t>
+          <t>https://threatpost.com/hbillion-records/180125/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/shutterstock_96565948.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Leaky Access Tokens Exposed Amazon Photos of Users</t>
+          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/exposed-amazon-photos/180105/</t>
+          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/09125858/5-Steps-For-Securing-Your-Remote-Work-Space.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Three individuals accused of selling $88m of pirated software
-</t>
+          <t>Google Patches Actively Exploited Chrome Bug</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/messenger-chatbot-used-to-hunt-for-facebook-credentials/</t>
+          <t>https://threatpost.com/actively-exploited-chrome-bug/180118/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/Facebook-Messenger-Shutterstock.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/25091849/chrome_bug.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-US-Iranian man convicted of illegal tech exports
-</t>
+          <t>ZuoRAT Can Take Over Widely Used SOHO Routers</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/three-individuals-accused-of-selling-88m-of-pirated-software/</t>
+          <t>https://threatpost.com/zuorat-soho-routers/180113/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/logoavaya.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/03/02102431/ObliqueRAT-.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Firefox 102 fixes address bar spoofing security hole (and helps with Follina!)</t>
+          <t>A Guide to Surviving a Ransomware Attack</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/29/firefox-102-fixes-address-bar-spoofing-security-hole/</t>
+          <t>https://threatpost.com/a-guide-to-surviving-a-ransomware-attack/180110/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/04/ff-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/03/06141757/Robot.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>June 29, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Patchable and Preventable Security Issues Lead Causes of Q1 Attacks</t>
+          <t>Leaky Access Tokens Exposed Amazon Photos of Users</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://threatpost.com/lead-causes-of-q1-attacks/180096/</t>
+          <t>https://threatpost.com/exposed-amazon-photos/180105/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/09/27164619/Perimeter-Defenses.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/09125858/5-Steps-For-Securing-Your-Remote-Work-Space.jpeg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1264,22 +1268,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>June 29, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Do back offices mean backdoors?</t>
+          <t>Patchable and Preventable Security Issues Lead Causes of Q1 Attacks</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
+          <t>https://threatpost.com/lead-causes-of-q1-attacks/180096/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/09/27164619/Perimeter-Defenses.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1291,24 +1295,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2022-06-29</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Messenger chatbot used to hunt for Facebook credentials
-</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/posts-offering-abortion-pills-removed-on-facebook-and-instagram/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/abortion_choice.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1320,7 +1322,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1347,130 +1349,130 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Log4Shell Vulnerability Targeted in VMware Servers to Exfiltrate Data</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://threatpost.com/log4shell-targeted-vmware-data/180072/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/12/13082913/log4shell-logo-e1639402166277.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>June 20, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>‘Killnet’ Adversary Pummels Lithuania with DDoS Attacks Over Blockade</t>
+          <t>Why Paper Receipts are Money at the Drive-Thru</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://threatpost.com/killnet-pummels-lithuania/180075/</t>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/06094902/Railway.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>June 15, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mitel VoIP Bug Exploited in Ransomware Attacks</t>
+          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://threatpost.com/mitel-voip-bug-exploited/180079/</t>
+          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/10/04101706/VoIP.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>June 14, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>‘Supercookies’ Have Privacy Experts Sounding the Alarm</t>
+          <t>Ransomware Group Debuts Searchable Victim Data</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/trustpid-digital-token-supercookie/</t>
+          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bb25b22d121fa443291b7f/master/pass/Supercookies_Science_GettyImages-1194303228.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2022-06-28</t>
+          <t>June 14, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Top Six Security Bad Habits, and How to Break Them</t>
+          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://threatpost.com/six-bad-habits-break/180082/</t>
+          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/12/06162635/Bad-business-practice-e1638826008203.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1482,22 +1484,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>June 11, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Harmony blockchain loses nearly $100M due to hacked private keys</t>
+          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/27/harmony-blockchain-loses-nearly-100m-due-to-hacked-private-keys/</t>
+          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/2xlock-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1509,76 +1511,76 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>June 07, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>How to Use Microsoft Defender on All Your Devices</t>
+          <t>KrebsOnSecurity in New Netflix Series on Cybercrime</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-use-microsoft-defender/</t>
+          <t>https://krebsonsecurity.com/2022/06/krebsonsecurity-in-new-netflix-series-on-cybercrime/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b6006ecf5463e00aca58f7/master/pass/Use-Microsoft-Defender-Security-GettyImages-892790768.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/netflixseries.png</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>June 03, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FTC warns of LGBTQ+ extortion scams – be aware before you share!</t>
+          <t>What Counts as “Good Faith Security Research?”</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/27/ftc-warns-of-lgbtq-extortion-scams-be-aware-before-you-share/</t>
+          <t>https://krebsonsecurity.com/2022/06/what-counts-as-good-faith-security-research/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/rainbow-1200-1.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/cyberjustice.png</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2022-06-27</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>5 ways cybercriminals steal credit card details</t>
+          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
+          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
+          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1590,49 +1592,49 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Post-Roe Privacy Nightmare Has Arrived</t>
+          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/post-roe-privacy-russia-ukraine-hacks/</t>
+          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b62069403df153e6760342/master/pass/Roe-v-Wade-Security-Roundup-Security-GettyImages-1404920017.jpg</t>
+          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2022-06-25</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>How to Move Your WhatsApp Chats Across Devices and Apps</t>
+          <t>Will These Algorithms Save You From Quantum Threats?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/move-whatsapp-chats-backups-ios-android-signal-telegram/</t>
+          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b664b42d121fa443291b2b/master/pass/Move-WhatsApp-Messages-Security.jpg</t>
+          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1644,22 +1646,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Instagram’s new age verification tool – Week in security with Tony Anscombe</t>
+          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/instagrams-new-age-verification-tool-week-security-tony-anscombe/</t>
+          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-23.jpg</t>
+          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1671,49 +1673,49 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Google Warns Spyware Being Deployed Against Android, iOS Users</t>
+          <t>The Danger of License Plate Readers in Post-Roe America</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://threatpost.com/google-hermit-spyware-android-ios/180062/</t>
+          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/02173641/mobile-malware-scaled-e1646260625640.jpeg</t>
+          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2022-06-24</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>OpenSSL issues a bugfix for the previous bugfix</t>
+          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/24/openssl-issues-a-bugfix-for-the-previous-bugfix/</t>
+          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1725,22 +1727,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Virtual private networks: 5 common questions about VPNs answered</t>
+          <t>How to Avoid the Worst Instagram Scams</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/23/virtual-private-networks-5-common-questions-vpns-answered/</t>
+          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/vpn-faq-common-questions-answered.jpg</t>
+          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1752,49 +1754,49 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Fancy Bear Uses Nuke Threat Lure to Exploit 1-Click Bug</t>
+          <t>End-to-End Encryption's Central Role in Modern Self-Defense</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://threatpost.com/fancy-bear-nuke-threat-lure/180056/</t>
+          <t>https://www.wired.com/story/end-to-end-encryption-abortion-privacy/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/06/23082043/abstract-bomb-scull-sad-cross-scull.jpg</t>
+          <t>https://media.wired.com/photos/62bca88d9c301780cc329699/master/pass/End-to-End-Encryption-Security-GettyImages-1353088770.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Google Warns of New Spyware Targeting iOS and Android Users</t>
+          <t>The Worst Hacks and Breaches of 2022 So Far</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/hermit-spyware-rcs-labs/</t>
+          <t>https://www.wired.com/story/worst-hacks-breaches-2022/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b490f0cf5463e00aca58a3/master/pass/GettyImages-1256969622.jpg</t>
+          <t>https://media.wired.com/photos/62bf58d55499d31d645ccb8d/master/pass/Worst-Hacks-2022-Security-GettyImages-1395219171.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1806,76 +1808,76 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>July 02, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Parents Need to Know What’s Going On Inside Their Day Care Apps</t>
+          <t>Gun Database Breach Leaks Details on Thousands of Owners</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/daycare-app-privacy-security/</t>
+          <t>https://www.wired.com/story/california-gun-owner-leak-security-roundup/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b3a4dc403df153e676029d/master/pass/ideas-daycare-app.jpg</t>
+          <t>https://media.wired.com/photos/62bf749051f58063018c35bd/master/pass/California-Gun-Owner-Leak-Security-Roundup-Security-GettyImages-185059996.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S3 Ep88: Phone scammers, hacking bust, and data breach fines [Podcast + Transcript]</t>
+          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/23/s3-ep88-phone-scammers-hacking-bust-and-data-breach-fines-podcast/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1887,22 +1889,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2022-06-22</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Brave Now Lets You Customize Search Results—for Better or Worse</t>
+          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/brave-search-goggles-algorithm-vs-google/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62b33522ec87e408fbf152ee/master/pass/Brave-Search-Goggles-Security.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1914,22 +1916,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Phishing awareness training: Help your employees avoid the hook</t>
+          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/21/phishing-awareness-training-help-employees-avoid-hook/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/phishing-awareness-training.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1941,22 +1943,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2022-06-21</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Capital One identity theft hacker finally gets convicted</t>
+          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/21/capital-one-identity-theft-hacker-finally-gets-convicted/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/c1-1200.png.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1968,22 +1970,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Interpol busts 2000 suspects in phone scamming takedown</t>
+          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/20/interpol-busts-2000-suspects-in-phone-scamming-takedown/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ph-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1995,22 +1997,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Crypto mixers: What are they and how are they used?</t>
+          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/20/crypto-mixers-what-are-they-how-are-they-used/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/04/que-es-cripto-mixer-servicio-aninomato-transacciones.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2022,22 +2024,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2022-06-20</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2049,22 +2051,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2022-06-17</t>
+          <t>June 29, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>How to spot malicious spam – Week in security with Tony Anscombe</t>
+          <t>Firefox 102 fixes address bar spoofing security hole (and helps with Follina!)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/how-spot-malicious-spam-week-security-tony-anscombe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/29/firefox-102-fixes-address-bar-spoofing-security-hole/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-15.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/04/ff-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2076,22 +2078,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>June 27, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>How Emotet is changing tactics in response to Microsoft’s tightening of Office macro security</t>
+          <t>Harmony blockchain loses nearly $100M due to hacked private keys</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/16/how-emotet-is-changing-tactics-microsoft-tightening-office-macro-security/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/27/harmony-blockchain-loses-nearly-100m-due-to-hacked-private-keys/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/emotet-malware-botnet-macros-mark-web.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/2xlock-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2103,22 +2105,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2022-06-16</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>S3 Ep87: Follina, AirTags, ID theft and the Law of Big Numbers [Podcast]</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/16/s3-ep87-follina-airtags-id-theft-and-the-law-of-big-numbers-podcast/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/bn-1200-2.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2130,49 +2132,49 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+          <t>Driving to France this summer? Watch out for scam websites before you go</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2022-06-15</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Follina gets fixed – but it’s not listed in the Patch Tuesday patches!</t>
+          <t>8 common Facebook Marketplace scams and how to avoid them</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/15/follina-gets-fixed-but-its-not-listed-in-the-patch-tuesday-patches/</t>
+          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ms-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2184,22 +2186,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
+          <t>Cyberattacks: A very real existential threat to organizations</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
+          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2211,76 +2213,76 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2022-06-14</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Ransomware Group Debuts Searchable Victim Data</t>
+          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2022-06-13</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Industroyer: A cyber‑weapon that brought down a power grid</t>
+          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/13/industroyer-cyber-weapon-brought-down-power-grid/</t>
+          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/industroyer-blackout-anniverary-fifth.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
+          <t>Costco 40th anniversary scam targets WhatsApp users</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
+          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2292,22 +2294,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2022-06-07</t>
+          <t>June 29, 2022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>KrebsOnSecurity in New Netflix Series on Cybercrime</t>
+          <t>Do back offices mean backdoors?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/krebsonsecurity-in-new-netflix-series-on-cybercrime/</t>
+          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/netflixseries.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2319,22 +2321,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2022-06-03</t>
+          <t>June 27, 2022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>What Counts as “Good Faith Security Research?”</t>
+          <t>5 ways cybercriminals steal credit card details</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/what-counts-as-good-faith-security-research/</t>
+          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/cyberjustice.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2346,27 +2348,27 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2022-05-31</t>
+          <t>June 24, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Costa Rica May Be Pawn in Conti Ransomware Group’s Bid to Rebrand, Evade Sanctions</t>
+          <t>Instagram’s new age verification tool – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/05/costa-rica-may-be-pawn-in-conti-ransomware-groups-bid-to-rebrand-evade-sanctions/</t>
+          <t>https://www.welivesecurity.com/videos/instagrams-new-age-verification-tool-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/05/crflag-abstract.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-23.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 10, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
+          <t>What It Takes to Tackle Your SaaS Security</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
+          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiGYq-XqGQpJYE5LRSY8pMtgQU6aVBmag35C3JxKPXh76OHy5HhTpnqhSy7N6KluAnrtnwfOLgd9a-HKKbNu3W4sv7m0wL8rv1iyLvMYQe9bblhT6PrVS5YqX1k-vVzjysjGZ8qFe0NiL1tWPo3U6Cw_e8zD4hvslOlFPOcJ83NW-ygEyy6INj6ekTL/s260-e100/hack-1.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
+          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,76 +517,76 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 10, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
+          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
+          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
+          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
+          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,27 +598,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
+          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Why Developers Hate Changing Language Versions</t>
+          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,49 +657,49 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Experts Uncover 350 Browser Extension Variants Used in ABCsoup Adware Campaign</t>
+          <t>Why Developers Hate Changing Language Versions</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/experts-uncover-350-browser-extension.html</t>
+          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgEWZGI-3AkCTULazUF08NpQz7WLB21Qlhfazahgk5fSej2Oe3-5puE55-YSYTaVEq1CkW0kVyiMvPo9nyQ5i8zd5W6W8Q14Uz0mf8IWRBSMliyIEdv3ZLZLQXSUWoMGmZUUqfXSUkyWCxDAuwgdO6GKS-UqLz7BDIHlukBBT1sJ7JofyO-K6Y2WUUC/s260-e100/code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TrickBot Gang Shifted its Focus on "Systematically" Targeting Ukraine</t>
+          <t>Experts Uncover 350 Browser Extension Variants Used in ABCsoup Adware Campaign</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/trickbot-malware-shifted-its-focus-on.html</t>
+          <t>https://thehackernews.com/2022/07/experts-uncover-350-browser-extension.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgnRIShm8RNuRNjD42XnhHAzm8eneXnyWirL3jJpP3-MUDuGZ42jXe-2jldE6FteEIzRFk7yGJANXGGNNroyyQM5JMbhb024h9SURqlb_NGkxpfoOolPb6RTfIvt_jpatUyNr_7ouKZhcgcBb1O8i-7WihnZMqqF1mEQothRRubI5WBr-RN7XR4A4Cj/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgEWZGI-3AkCTULazUF08NpQz7WLB21Qlhfazahgk5fSej2Oe3-5puE55-YSYTaVEq1CkW0kVyiMvPo9nyQ5i8zd5W6W8Q14Uz0mf8IWRBSMliyIEdv3ZLZLQXSUWoMGmZUUqfXSUkyWCxDAuwgdO6GKS-UqLz7BDIHlukBBT1sJ7JofyO-K6Y2WUUC/s260-e100/code.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>North Korean Maui Ransomware Actively Targeting U.S. Healthcare Organizations</t>
+          <t>TrickBot Gang Shifted its Focus on "Systematically" Targeting Ukraine</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/north-korean-maui-ransomware-actively.html</t>
+          <t>https://thehackernews.com/2022/07/trickbot-malware-shifted-its-focus-on.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi5s4MlchMuG-cAewPLwfhZFF0JtM7nW02pww32xdHfJfSfxr4KpXTqV6ViThv1pP2W6mGtd-1BB9WSGqZaXMJKYVzu8UBUSwaGYvKs2tPKE4FRIWoQeXOyXOaCiIb4GB3GlA6EEPVw_OPBTaL5rCVqvdEl9ZbBXd4UPOC1CBCHdXBLdgabwoljRFPr/s260-e100/malware-code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgnRIShm8RNuRNjD42XnhHAzm8eneXnyWirL3jJpP3-MUDuGZ42jXe-2jldE6FteEIzRFk7yGJANXGGNNroyyQM5JMbhb024h9SURqlb_NGkxpfoOolPb6RTfIvt_jpatUyNr_7ouKZhcgcBb1O8i-7WihnZMqqF1mEQothRRubI5WBr-RN7XR4A4Cj/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiGYq-XqGQpJYE5LRSY8pMtgQU6aVBmag35C3JxKPXh76OHy5HhTpnqhSy7N6KluAnrtnwfOLgd9a-HKKbNu3W4sv7m0wL8rv1iyLvMYQe9bblhT6PrVS5YqX1k-vVzjysjGZ8qFe0NiL1tWPo3U6Cw_e8zD4hvslOlFPOcJ83NW-ygEyy6INj6ekTL/s260-e100/hack-1.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgPxHMLcSa4WRg601fefW0w0Zs5Bt-rwpEX74LRStGPM4otf6xSAdoUTGL2grSomfeKmT-IPqAusfY4X62m76d7OZybhqdWS61ytOXMpfVTxqUl6i-9lnXknAiUzpW7VyFPdCIRpINy80Ir7hHC-OIEgo_EwkfQ_KGcqep1t2EHlC2GgcFW_ahH21Hn2w/s260-e100/adaptive.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -468,44 +468,44 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>What It Takes to Tackle Your SaaS Security</t>
+          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
+          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgPxHMLcSa4WRg601fefW0w0Zs5Bt-rwpEX74LRStGPM4otf6xSAdoUTGL2grSomfeKmT-IPqAusfY4X62m76d7OZybhqdWS61ytOXMpfVTxqUl6i-9lnXknAiUzpW7VyFPdCIRpINy80Ir7hHC-OIEgo_EwkfQ_KGcqep1t2EHlC2GgcFW_ahH21Hn2w/s260-e100/adaptive.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 10, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
+          <t>What It Takes to Tackle Your SaaS Security</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
+          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
+          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,76 +544,76 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 10, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
+          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
+          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
+          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
+          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,27 +625,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
+          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Why Developers Hate Changing Language Versions</t>
+          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,49 +684,49 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Experts Uncover 350 Browser Extension Variants Used in ABCsoup Adware Campaign</t>
+          <t>Why Developers Hate Changing Language Versions</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/experts-uncover-350-browser-extension.html</t>
+          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgEWZGI-3AkCTULazUF08NpQz7WLB21Qlhfazahgk5fSej2Oe3-5puE55-YSYTaVEq1CkW0kVyiMvPo9nyQ5i8zd5W6W8Q14Uz0mf8IWRBSMliyIEdv3ZLZLQXSUWoMGmZUUqfXSUkyWCxDAuwgdO6GKS-UqLz7BDIHlukBBT1sJ7JofyO-K6Y2WUUC/s260-e100/code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TrickBot Gang Shifted its Focus on "Systematically" Targeting Ukraine</t>
+          <t>Experts Uncover 350 Browser Extension Variants Used in ABCsoup Adware Campaign</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/trickbot-malware-shifted-its-focus-on.html</t>
+          <t>https://thehackernews.com/2022/07/experts-uncover-350-browser-extension.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgnRIShm8RNuRNjD42XnhHAzm8eneXnyWirL3jJpP3-MUDuGZ42jXe-2jldE6FteEIzRFk7yGJANXGGNNroyyQM5JMbhb024h9SURqlb_NGkxpfoOolPb6RTfIvt_jpatUyNr_7ouKZhcgcBb1O8i-7WihnZMqqF1mEQothRRubI5WBr-RN7XR4A4Cj/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgEWZGI-3AkCTULazUF08NpQz7WLB21Qlhfazahgk5fSej2Oe3-5puE55-YSYTaVEq1CkW0kVyiMvPo9nyQ5i8zd5W6W8Q14Uz0mf8IWRBSMliyIEdv3ZLZLQXSUWoMGmZUUqfXSUkyWCxDAuwgdO6GKS-UqLz7BDIHlukBBT1sJ7JofyO-K6Y2WUUC/s260-e100/code.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -738,282 +738,282 @@
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Apple Watch Series 8 rumored to go 'pro', feature body temperature sensor
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/apple-watch-series-8-rumored-to-include-pro-model-feature-body-temperature-sensor/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/apple_watch_7.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+11 July 2022  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Man charged for generating millions in selling fraudulent Cisco devices
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/man-charged-for-generating-millions-in-selling-fraudulent-cisco-devices/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1338116366.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 July 2022 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Binance ignored US sanctions by serving crypto traders in Iran, clients say
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/binance-ignored-us-sanctions-by-serving-crypto-traders-in-iran-clients-say/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Binance-crypto-logo.JPG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 July 2022 </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Human rights activists call for action against Big Tech
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/human-rights-activists-call-for-action-against-big-tech/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/bigtechbrands.jpg</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-11 July 2022  </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/binance-ignored-us-sanctions-by-serving-crypto-traders-in-iran-clients-say/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Binance-crypto-logo.JPG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 July 2022 </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 AI-written academic paper submitted to peer review
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ai-written-academic-paper-submitted-to-peer-review/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/ai_learning.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/human-rights-activists-call-for-action-against-big-tech/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/bigtechbrands.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Honda plays down key fob bug report
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/honda-plays-down-key-fob-bug-report/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Honda.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ai-written-academic-paper-submitted-to-peer-review/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/ai_learning.png</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Millions affected as ransomware knocks out French telecom firm
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/honda-plays-down-key-fob-bug-report/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Honda.png</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Disneyland's Instagram hacked to display racist and homophobic slurs
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/millions-affected-as-ransomware-knocks-out-french-telecom-firm/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/French-Post-LaPoste.png</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Twitter vows legal fight after Musk pulls out of $44 billion deal
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/disneylands-instagram-hacked-to-display-racist-and-homophobic-slurs/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2021/11/mickey mouse.jpg</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">09 July 2022 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Meta rolls out new login system for entering the metaverse
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/twitter-vows-legal-fight-after-musk-pulls-out-of-44-billion-deal/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/04/ElonMuskbuysTwitter.jpg</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">08 July 2022 </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Meta sues data scrapers with China and Turkey ties
-</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/meta-rolls-out-new-login-system-for-entering-the-metaverse/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_2081740117.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">08 July 2022 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-TikTok sued for Blackout Challenge after child deaths
-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/meta-sues-data-scrapers-with-china-and-turkey-ties/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/metasuesscrapers.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">08 July 2022 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-China ramps up its cyber espionage efforts against Russia
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-sued-for-blackout-challenge-after-child-tragedy/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/TikTokEvil.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1025,49 +1025,49 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
+          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
+          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
+          <t>Popular NFT Marketplace Phished for $540M</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
+          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1079,22 +1079,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
+          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
+          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1106,22 +1106,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
+          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hbillion-records/180125/</t>
+          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1133,130 +1133,130 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
+          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
+          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Google Patches Actively Exploited Chrome Bug</t>
+          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/actively-exploited-chrome-bug/180118/</t>
+          <t>https://threatpost.com/hbillion-records/180125/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/25091849/chrome_bug.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ZuoRAT Can Take Over Widely Used SOHO Routers</t>
+          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://threatpost.com/zuorat-soho-routers/180113/</t>
+          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/03/02102431/ObliqueRAT-.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>A Guide to Surviving a Ransomware Attack</t>
+          <t>Google Patches Actively Exploited Chrome Bug</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://threatpost.com/a-guide-to-surviving-a-ransomware-attack/180110/</t>
+          <t>https://threatpost.com/actively-exploited-chrome-bug/180118/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/03/06141757/Robot.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/25091849/chrome_bug.png</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>June 29, 2022</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Leaky Access Tokens Exposed Amazon Photos of Users</t>
+          <t>ZuoRAT Can Take Over Widely Used SOHO Routers</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://threatpost.com/exposed-amazon-photos/180105/</t>
+          <t>https://threatpost.com/zuorat-soho-routers/180113/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/09125858/5-Steps-For-Securing-Your-Remote-Work-Space.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/03/02102431/ObliqueRAT-.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1268,27 +1268,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>June 29, 2022</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Patchable and Preventable Security Issues Lead Causes of Q1 Attacks</t>
+          <t>A Guide to Surviving a Ransomware Attack</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://threatpost.com/lead-causes-of-q1-attacks/180096/</t>
+          <t>https://threatpost.com/a-guide-to-surviving-a-ransomware-attack/180110/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/09/27164619/Perimeter-Defenses.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/03/06141757/Robot.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -1570,17 +1570,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
+          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
+          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
+          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1592,54 +1592,54 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
+          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
+          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
+          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Will These Algorithms Save You From Quantum Threats?</t>
+          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
+          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
+          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
+          <t>Will These Algorithms Save You From Quantum Threats?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
+          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
+          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1673,22 +1673,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The Danger of License Plate Readers in Post-Roe America</t>
+          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
+          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
+          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1700,22 +1700,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
+          <t>The Danger of License Plate Readers in Post-Roe America</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
+          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
+          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1732,17 +1732,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>How to Avoid the Worst Instagram Scams</t>
+          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
+          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
+          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1754,22 +1754,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>End-to-End Encryption's Central Role in Modern Self-Defense</t>
+          <t>How to Avoid the Worst Instagram Scams</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/end-to-end-encryption-abortion-privacy/</t>
+          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bca88d9c301780cc329699/master/pass/End-to-End-Encryption-Security-GettyImages-1353088770.jpg</t>
+          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1781,22 +1781,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The Worst Hacks and Breaches of 2022 So Far</t>
+          <t>End-to-End Encryption's Central Role in Modern Self-Defense</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/worst-hacks-breaches-2022/</t>
+          <t>https://www.wired.com/story/end-to-end-encryption-abortion-privacy/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bf58d55499d31d645ccb8d/master/pass/Worst-Hacks-2022-Security-GettyImages-1395219171.jpg</t>
+          <t>https://media.wired.com/photos/62bca88d9c301780cc329699/master/pass/End-to-End-Encryption-Security-GettyImages-1353088770.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1808,49 +1808,49 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 02, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gun Database Breach Leaks Details on Thousands of Owners</t>
+          <t>The Worst Hacks and Breaches of 2022 So Far</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/california-gun-owner-leak-security-roundup/</t>
+          <t>https://www.wired.com/story/worst-hacks-breaches-2022/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bf749051f58063018c35bd/master/pass/California-Gun-Owner-Leak-Security-Roundup-Security-GettyImages-185059996.jpg</t>
+          <t>https://media.wired.com/photos/62bf58d55499d31d645ccb8d/master/pass/Worst-Hacks-2022-Security-GettyImages-1395219171.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
+          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1862,22 +1862,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
+          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1889,22 +1889,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
+          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1916,22 +1916,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
+          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1943,22 +1943,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
+          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1970,22 +1970,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
+          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2002,17 +2002,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
+          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2024,22 +2024,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
+          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2051,22 +2051,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>June 29, 2022</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Firefox 102 fixes address bar spoofing security hole (and helps with Follina!)</t>
+          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/29/firefox-102-fixes-address-bar-spoofing-security-hole/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/04/ff-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2078,22 +2078,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>June 29, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Harmony blockchain loses nearly $100M due to hacked private keys</t>
+          <t>Firefox 102 fixes address bar spoofing security hole (and helps with Follina!)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/27/harmony-blockchain-loses-nearly-100m-due-to-hacked-private-keys/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/29/firefox-102-fixes-address-bar-spoofing-security-hole/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/2xlock-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/04/ff-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
+          <t>Microsoft Windows Autopatch is Now Generally Available for Enterprise Systems</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-windows-autopatch-is-now.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh9KjyGiZkovo9wOo7POBgk_x691SByK9twjr6I_SHLfMHvaOwYzzv6YUuC6sKcH35ek5Vvcf77yRBuSRFI9ltPE7eyia04sl5tMBD_O4jhEjXV3ZbpQ22jrIWzLCdOF4CCd_3UrEo2tIM9zCedgCn0dPk_tVLb-2jAs9hJFojvFk0QCfSjeHsFnpqe/s260-e100/windows-autopatch.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -495,44 +495,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>What It Takes to Tackle Your SaaS Security</t>
+          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
+          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 10, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
+          <t>What It Takes to Tackle Your SaaS Security</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
+          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 10, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
+          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,76 +571,76 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 10, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
+          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
+          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
+          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
+          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,27 +652,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
+          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Why Developers Hate Changing Language Versions</t>
+          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Experts Uncover 350 Browser Extension Variants Used in ABCsoup Adware Campaign</t>
+          <t>Why Developers Hate Changing Language Versions</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/experts-uncover-350-browser-extension.html</t>
+          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgEWZGI-3AkCTULazUF08NpQz7WLB21Qlhfazahgk5fSej2Oe3-5puE55-YSYTaVEq1CkW0kVyiMvPo9nyQ5i8zd5W6W8Q14Uz0mf8IWRBSMliyIEdv3ZLZLQXSUWoMGmZUUqfXSUkyWCxDAuwgdO6GKS-UqLz7BDIHlukBBT1sJ7JofyO-K6Y2WUUC/s260-e100/code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -734,286 +734,286 @@
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-11 July 2022  </t>
+12 July 2022  </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nothing left to imagination ahead of Nothing Phone 1 launch
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/nothing-left-to-imagination-nothing-phone-1-launch/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/nothing_phone.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+12 July 2022  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+UK health officials accused of sharing pandemic-related information over private channels
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/uk-health-officials-accused-of-sharing-pandemic-related-information-over-private-channels/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_2010297977.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 July 2022 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Apple Watch Series 8 rumored to go 'pro', feature body temperature sensor
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/apple-watch-series-8-rumored-to-include-pro-model-feature-body-temperature-sensor/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/apple_watch_7.png</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-11 July 2022  </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/apple_watch_7.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">11 July 2022 </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Man charged for generating millions in selling fraudulent Cisco devices
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/man-charged-for-generating-millions-in-selling-fraudulent-cisco-devices/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1338116366.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/apple-watch-series-8-rumored-to-include-pro-model-feature-body-temperature-sensor/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/apple_watch_7.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Binance ignored US sanctions by serving crypto traders in Iran, clients say
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/binance-ignored-us-sanctions-by-serving-crypto-traders-in-iran-clients-say/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Binance-crypto-logo.JPG</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/man-charged-for-generating-millions-in-selling-fraudulent-cisco-devices/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1338116366.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Human rights activists call for action against Big Tech
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/binance-ignored-us-sanctions-by-serving-crypto-traders-in-iran-clients-say/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Binance-crypto-logo.JPG</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 AI-written academic paper submitted to peer review
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/human-rights-activists-call-for-action-against-big-tech/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/bigtechbrands.jpg</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Honda plays down key fob bug report
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ai-written-academic-paper-submitted-to-peer-review/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/ai_learning.png</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Millions affected as ransomware knocks out French telecom firm
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/honda-plays-down-key-fob-bug-report/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Honda.png</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Disneyland's Instagram hacked to display racist and homophobic slurs
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/millions-affected-as-ransomware-knocks-out-french-telecom-firm/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/French-Post-LaPoste.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Twitter vows legal fight after Musk pulls out of $44 billion deal
-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/disneylands-instagram-hacked-to-display-racist-and-homophobic-slurs/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2021/11/mickey mouse.jpg</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">09 July 2022 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Meta rolls out new login system for entering the metaverse
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/twitter-vows-legal-fight-after-musk-pulls-out-of-44-billion-deal/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/04/ElonMuskbuysTwitter.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,54 +463,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Microsoft Windows Autopatch is Now Generally Available for Enterprise Systems</t>
+          <t>TikTok Postpones Privacy Policy Update in Europe After Italy Warns of GDPR Breach</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-windows-autopatch-is-now.html</t>
+          <t>https://thehackernews.com/2022/07/tiktok-postpones-privacy-policy-update.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh9KjyGiZkovo9wOo7POBgk_x691SByK9twjr6I_SHLfMHvaOwYzzv6YUuC6sKcH35ek5Vvcf77yRBuSRFI9ltPE7eyia04sl5tMBD_O4jhEjXV3ZbpQ22jrIWzLCdOF4CCd_3UrEo2tIM9zCedgCn0dPk_tVLb-2jAs9hJFojvFk0QCfSjeHsFnpqe/s260-e100/windows-autopatch.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi2QnzBXssO-V8X8EmHlkV-iSmpePPKUGUi88suysnAq1qfCqAtn7IJp60yPeTEyatczygEAwO_msXwzgPrqI64L2yMmHZKaDWl01IoQiMVh3GSziIGOuV4LUzMLWoKRCWfZHQkkre-codX12ltderr0u6I9yQJxAbOsGg2Jk1oeEVEwSseZgCtJ2CF/s260-e100/tiktok.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
+          <t>Avoiding Death by a Thousand Scripts: Using Automated Content Security Policies</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
+          <t>https://thehackernews.com/2022/07/avoiding-death-by-thousand-scripts.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiKaOGmbeT0oS2MDjYoIbq4H7ksZ-N2W3F9S_EqefumLKqFc8pe6bxo-x-FtkJX81cUTzmdON9iVa5v2IZ7YAaZBZba1ObVnPKNX3RTHj8rAUdwl8ZVDGQmUZvAam0XTQk4-PWmSm6eLzZOVxYNLcdU22BCnDimyeQd8tp92o-QsmTegIc0adEckNOC/s260-e100/csp.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>What It Takes to Tackle Your SaaS Security</t>
+          <t>Microsoft Windows Autopatch is Now Generally Available for Enterprise Systems</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-windows-autopatch-is-now.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh9KjyGiZkovo9wOo7POBgk_x691SByK9twjr6I_SHLfMHvaOwYzzv6YUuC6sKcH35ek5Vvcf77yRBuSRFI9ltPE7eyia04sl5tMBD_O4jhEjXV3ZbpQ22jrIWzLCdOF4CCd_3UrEo2tIM9zCedgCn0dPk_tVLb-2jAs9hJFojvFk0QCfSjeHsFnpqe/s260-e100/windows-autopatch.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -549,44 +549,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
+          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
+          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 10, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
+          <t>What It Takes to Tackle Your SaaS Security</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
+          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,76 +603,76 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
+          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 10, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
+          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
+          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
+          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -684,49 +684,49 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Microsoft Temporarily Rolls Back Plan to Block Office VBA Macros by Default</t>
+          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-quietly-rolls-back-plan-to.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj1d84epDv4jgHnm-m03FayWvFIKm2Ed6cgfOfjJoaza0WC0Pn8mX-HPBjJyej-DSFK5XKbQ8rViQut9fZfVTdjTjp8OgiLhYur3XJIxGscvdjro-pYY3GxVecFTCp3suYxsMSUZM3UluwuTciSC8dKh4tY7UssVL0HCXk2szm-BdMSS4_hWABKvWW_/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Why Developers Hate Changing Language Versions</t>
+          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/why-developers-hate-changing-language.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg2T_LeUBbsKjXN48gXP4ySosNQDmjrSqqmBT4vqw1e1aHEfDtl0gYMk5uni0txHO3LWQbZBbCOiq8WZTvg_UHb-biK0U5LM98Pgy8NvHWDnkFdwpokpDnMPs-avE9wP9O_Hz8boQyYCmWHQZ2OJzo-fTWET2NVcYGemrj7ztx4g7rHedoZscgrZ2F_/s260-e100/code.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -738,282 +738,282 @@
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Microsoft says Windows Autopatch tool is generally live
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/microsoft-says-windows-autopatch-tool-is-generally-live/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Windows-Micorosft-Autopach.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+12 July 2022  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TikTok halts privacy policy update aimed at tracking users’ behavior without consent
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-halts-privacy-policy-update-aimed-at-tracking-users-behavior-without-consent/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1688057260.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 July 2022 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nothing left to imagination ahead of Nothing Phone 1 launch
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/nothing-left-to-imagination-nothing-phone-1-launch/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/nothing_phone.jpg</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-12 July 2022  </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/nothing_phone.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 July 2022 </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 UK health officials accused of sharing pandemic-related information over private channels
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/uk-health-officials-accused-of-sharing-pandemic-related-information-over-private-channels/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_2010297977.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/nothing-left-to-imagination-nothing-phone-1-launch/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/nothing_phone.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 July 2022 </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Apple Watch Series 8 rumored to go 'pro', feature body temperature sensor
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/apple-watch-series-8-rumored-to-include-pro-model-feature-body-temperature-sensor/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/apple_watch_7.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/uk-health-officials-accused-of-sharing-pandemic-related-information-over-private-channels/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_2010297977.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Man charged for generating millions in selling fraudulent Cisco devices
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/apple-watch-series-8-rumored-to-include-pro-model-feature-body-temperature-sensor/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/apple_watch_7.png</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Binance ignored US sanctions by serving crypto traders in Iran, clients say
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/man-charged-for-generating-millions-in-selling-fraudulent-cisco-devices/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1338116366.png</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Human rights activists call for action against Big Tech
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/binance-ignored-us-sanctions-by-serving-crypto-traders-in-iran-clients-say/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Binance-crypto-logo.JPG</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 AI-written academic paper submitted to peer review
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/human-rights-activists-call-for-action-against-big-tech/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/bigtechbrands.jpg</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Honda plays down key fob bug report
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ai-written-academic-paper-submitted-to-peer-review/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/ai_learning.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Millions affected as ransomware knocks out French telecom firm
-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/honda-plays-down-key-fob-bug-report/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Honda.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Ransomware</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Disneyland's Instagram hacked to display racist and homophobic slurs
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/millions-affected-as-ransomware-knocks-out-french-telecom-firm/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/French-Post-LaPoste.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1025,103 +1025,103 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
+          <t>How War Impacts Cyber Insurance</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
+          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Popular NFT Marketplace Phished for $540M</t>
+          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
+          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
+          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
+          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
+          <t>Popular NFT Marketplace Phished for $540M</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
+          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1133,22 +1133,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
+          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
+          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1160,22 +1160,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
+          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hbillion-records/180125/</t>
+          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1187,108 +1187,108 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
+          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
+          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Google Patches Actively Exploited Chrome Bug</t>
+          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://threatpost.com/actively-exploited-chrome-bug/180118/</t>
+          <t>https://threatpost.com/hbillion-records/180125/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/25091849/chrome_bug.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ZuoRAT Can Take Over Widely Used SOHO Routers</t>
+          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://threatpost.com/zuorat-soho-routers/180113/</t>
+          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/03/02102431/ObliqueRAT-.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A Guide to Surviving a Ransomware Attack</t>
+          <t>Google Patches Actively Exploited Chrome Bug</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://threatpost.com/a-guide-to-surviving-a-ransomware-attack/180110/</t>
+          <t>https://threatpost.com/actively-exploited-chrome-bug/180118/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/03/06141757/Robot.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/25091849/chrome_bug.png</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1565,22 +1565,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
+          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
+          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
+          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1597,17 +1597,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
+          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
+          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
+          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1619,54 +1619,54 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
+          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
+          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
+          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Will These Algorithms Save You From Quantum Threats?</t>
+          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
+          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
+          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1678,17 +1678,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
+          <t>Will These Algorithms Save You From Quantum Threats?</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
+          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
+          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1700,22 +1700,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The Danger of License Plate Readers in Post-Roe America</t>
+          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
+          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
+          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1727,22 +1727,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
+          <t>The Danger of License Plate Readers in Post-Roe America</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
+          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
+          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1759,17 +1759,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>How to Avoid the Worst Instagram Scams</t>
+          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
+          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
+          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1781,22 +1781,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>End-to-End Encryption's Central Role in Modern Self-Defense</t>
+          <t>How to Avoid the Worst Instagram Scams</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/end-to-end-encryption-abortion-privacy/</t>
+          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bca88d9c301780cc329699/master/pass/End-to-End-Encryption-Security-GettyImages-1353088770.jpg</t>
+          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1808,22 +1808,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Worst Hacks and Breaches of 2022 So Far</t>
+          <t>End-to-End Encryption's Central Role in Modern Self-Defense</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/worst-hacks-breaches-2022/</t>
+          <t>https://www.wired.com/story/end-to-end-encryption-abortion-privacy/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bf58d55499d31d645ccb8d/master/pass/Worst-Hacks-2022-Security-GettyImages-1395219171.jpg</t>
+          <t>https://media.wired.com/photos/62bca88d9c301780cc329699/master/pass/End-to-End-Encryption-Security-GettyImages-1353088770.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1835,49 +1835,49 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
+          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
+          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1889,22 +1889,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
+          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1916,22 +1916,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
+          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1943,22 +1943,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
+          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1970,22 +1970,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
+          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1997,22 +1997,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
+          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2029,17 +2029,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
+          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2051,22 +2051,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
+          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2078,22 +2078,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>June 29, 2022</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Firefox 102 fixes address bar spoofing security hole (and helps with Follina!)</t>
+          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/29/firefox-102-fixes-address-bar-spoofing-security-hole/</t>
+          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/04/ff-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TikTok Postpones Privacy Policy Update in Europe After Italy Warns of GDPR Breach</t>
+          <t>Researchers Uncover New Attempts by Qakbot Malware to Evade Detection</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/tiktok-postpones-privacy-policy-update.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-uncover-new-attempts-by.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi2QnzBXssO-V8X8EmHlkV-iSmpePPKUGUi88suysnAq1qfCqAtn7IJp60yPeTEyatczygEAwO_msXwzgPrqI64L2yMmHZKaDWl01IoQiMVh3GSziIGOuV4LUzMLWoKRCWfZHQkkre-codX12ltderr0u6I9yQJxAbOsGg2Jk1oeEVEwSseZgCtJ2CF/s260-e100/tiktok.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiCFlTvwYRkS8v4M8WXuVGXE6Ym1co6dwvAvedhQEyF1Pz4kKdpHIhva_UsuIm9_dv2WDwaNTSUrHPLiymlrHKgIBAsF_MOeP5mHJcpN6Y6aeBhIMHGRsdz-3qBhh7iBCckeZrdXEEecZlLAkVX0iy51l5jc5zxQuEQd8G4VYNyt5DwYTcnWNcrYP13/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -495,76 +495,76 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Avoiding Death by a Thousand Scripts: Using Automated Content Security Policies</t>
+          <t>Microsoft Releases Fix for Zero-Day Flaw in July 2022 Security Patch Rollout</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/avoiding-death-by-thousand-scripts.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-releases-fix-for-zero-day.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiKaOGmbeT0oS2MDjYoIbq4H7ksZ-N2W3F9S_EqefumLKqFc8pe6bxo-x-FtkJX81cUTzmdON9iVa5v2IZ7YAaZBZba1ObVnPKNX3RTHj8rAUdwl8ZVDGQmUZvAam0XTQk4-PWmSm6eLzZOVxYNLcdU22BCnDimyeQd8tp92o-QsmTegIc0adEckNOC/s260-e100/csp.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhMMVV60incjQemAA8K9lAWSescsqjqG2a3UdVc4GiCMmXBd6175xW7cZiTJONSGUB1N9s-MMZARqaZP7h-OdKy4jUdvvT_H-aPCCLF9TKLu1S1Xcj8NZh673Hir7VOwNMNdOLjEU6LSXewzYkJXyX0Y0dpIn7L1WK7IuD61f1iG8uajyHoBwST8KVh/s260-e100/windows-update.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Microsoft Windows Autopatch is Now Generally Available for Enterprise Systems</t>
+          <t>TikTok Postpones Privacy Policy Update in Europe After Italy Warns of GDPR Breach</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-windows-autopatch-is-now.html</t>
+          <t>https://thehackernews.com/2022/07/tiktok-postpones-privacy-policy-update.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh9KjyGiZkovo9wOo7POBgk_x691SByK9twjr6I_SHLfMHvaOwYzzv6YUuC6sKcH35ek5Vvcf77yRBuSRFI9ltPE7eyia04sl5tMBD_O4jhEjXV3ZbpQ22jrIWzLCdOF4CCd_3UrEo2tIM9zCedgCn0dPk_tVLb-2jAs9hJFojvFk0QCfSjeHsFnpqe/s260-e100/windows-autopatch.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi2QnzBXssO-V8X8EmHlkV-iSmpePPKUGUi88suysnAq1qfCqAtn7IJp60yPeTEyatczygEAwO_msXwzgPrqI64L2yMmHZKaDWl01IoQiMVh3GSziIGOuV4LUzMLWoKRCWfZHQkkre-codX12ltderr0u6I9yQJxAbOsGg2Jk1oeEVEwSseZgCtJ2CF/s260-e100/tiktok.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
+          <t>Avoiding Death by a Thousand Scripts: Using Automated Content Security Policies</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
+          <t>https://thehackernews.com/2022/07/avoiding-death-by-thousand-scripts.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiKaOGmbeT0oS2MDjYoIbq4H7ksZ-N2W3F9S_EqefumLKqFc8pe6bxo-x-FtkJX81cUTzmdON9iVa5v2IZ7YAaZBZba1ObVnPKNX3RTHj8rAUdwl8ZVDGQmUZvAam0XTQk4-PWmSm6eLzZOVxYNLcdU22BCnDimyeQd8tp92o-QsmTegIc0adEckNOC/s260-e100/csp.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>What It Takes to Tackle Your SaaS Security</t>
+          <t>Microsoft Windows Autopatch is Now Generally Available for Enterprise Systems</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-windows-autopatch-is-now.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh9KjyGiZkovo9wOo7POBgk_x691SByK9twjr6I_SHLfMHvaOwYzzv6YUuC6sKcH35ek5Vvcf77yRBuSRFI9ltPE7eyia04sl5tMBD_O4jhEjXV3ZbpQ22jrIWzLCdOF4CCd_3UrEo2tIM9zCedgCn0dPk_tVLb-2jAs9hJFojvFk0QCfSjeHsFnpqe/s260-e100/windows-autopatch.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -603,44 +603,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
+          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
+          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 10, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
+          <t>What It Takes to Tackle Your SaaS Security</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
+          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,76 +657,76 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
+          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 10, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Researchers Warn of Raspberry Robin's Worm Targeting Windows Users</t>
+          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-warn-of-raspberry-robins.html</t>
+          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi47_8OVRZZdZZlDfWC2P7MpstPt-XpZ4ZKygowRYnW7DLw73QEaoDbMbnJCtBj7iJCgp3dqVgeURxgVx04odZ4vhc4lA6xto5G5t2j7wbcqWwX6qrNMc4zrr9zLnHK4h8yu2Y5uis4JkWZJdE1hRl30HrrqRrgW6NAVUPg1OKcEGhzIe8udEQhQgjT/s260-e100/windows.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Researchers Detail Techniques LockBit Ransomware Using to Infect its Targets</t>
+          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-detail-techniques-lockbit.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgryrG7LtWH8KcorgIwbRy6BaBSlL9ubfUtk4vkbe36lncIbKnyq7uvmv9zvkP3fM9xH299yYOJsfBWRIDI6SxJKA2XMTl7H-0cj248Vd2V22p0fXYUsdg57-KFH2mfndGDbObfcN1ZJMoVhUHgifUJhrpUAX8NFLYO9DIB5jvez_UwuEj9Glvb2WIz/s260-e100/LOCK.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -734,286 +734,286 @@
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">
+13 July 2022  </t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cyber-college falls for password-hacking scam
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyber-college-falls-for-password-hacking-scam/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/BadPassword.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 12 July 2022  </t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft says Windows Autopatch tool is generally live
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/microsoft-says-windows-autopatch-tool-is-generally-live/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/07/Windows-Micorosft-Autopach.png</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-12 July 2022  </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">12 July 2022 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TikTok halts privacy policy update aimed at tracking users’ behavior without consent
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/tiktok-halts-privacy-policy-update-aimed-at-tracking-users-behavior-without-consent/</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1688057260.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1688057260.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t xml:space="preserve">12 July 2022 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nothing left to imagination ahead of Nothing Phone 1 launch
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/nothing-left-to-imagination-nothing-phone-1-launch/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/nothing_phone.jpg</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-halts-privacy-policy-update-aimed-at-tracking-users-behavior-without-consent/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1688057260.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">12 July 2022 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 UK health officials accused of sharing pandemic-related information over private channels
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/nothing-left-to-imagination-nothing-phone-1-launch/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/nothing_phone.jpg</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">12 July 2022 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Apple Watch Series 8 rumored to go 'pro', feature body temperature sensor
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/uk-health-officials-accused-of-sharing-pandemic-related-information-over-private-channels/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_2010297977.png</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Man charged for generating millions in selling fraudulent Cisco devices
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/apple-watch-series-8-rumored-to-include-pro-model-feature-body-temperature-sensor/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/apple_watch_7.png</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Binance ignored US sanctions by serving crypto traders in Iran, clients say
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/man-charged-for-generating-millions-in-selling-fraudulent-cisco-devices/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1338116366.png</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Human rights activists call for action against Big Tech
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/binance-ignored-us-sanctions-by-serving-crypto-traders-in-iran-clients-say/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Binance-crypto-logo.JPG</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">11 July 2022 </t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 AI-written academic paper submitted to peer review
 </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/human-rights-activists-call-for-action-against-big-tech/</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/bigtechbrands.jpg</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Honda plays down key fob bug report
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ai-written-academic-paper-submitted-to-peer-review/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/ai_learning.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1295,49 +1295,49 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1349,22 +1349,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1376,22 +1376,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>June 20, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1403,54 +1403,54 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>June 15, 2022</t>
+          <t>June 20, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+          <t>Why Paper Receipts are Money at the Drive-Thru</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>June 14, 2022</t>
+          <t>June 15, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ransomware Group Debuts Searchable Victim Data</t>
+          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1462,44 +1462,44 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
+          <t>Ransomware Group Debuts Searchable Victim Data</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
+          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>June 11, 2022</t>
+          <t>June 14, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
+          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
+          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1511,22 +1511,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>June 07, 2022</t>
+          <t>June 11, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>KrebsOnSecurity in New Netflix Series on Cybercrime</t>
+          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/krebsonsecurity-in-new-netflix-series-on-cybercrime/</t>
+          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/netflixseries.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1538,22 +1538,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>June 03, 2022</t>
+          <t>June 07, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>What Counts as “Good Faith Security Research?”</t>
+          <t>KrebsOnSecurity in New Netflix Series on Cybercrime</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/what-counts-as-good-faith-security-research/</t>
+          <t>https://krebsonsecurity.com/2022/06/krebsonsecurity-in-new-netflix-series-on-cybercrime/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/cyberjustice.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/netflixseries.png</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2105,22 +2105,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
+          <t>Play it safe: 5 reasons not to download pirated games</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2137,17 +2137,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Driving to France this summer? Watch out for scam websites before you go</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2159,22 +2159,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>8 common Facebook Marketplace scams and how to avoid them</t>
+          <t>Driving to France this summer? Watch out for scam websites before you go</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
+          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2186,22 +2186,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cyberattacks: A very real existential threat to organizations</t>
+          <t>8 common Facebook Marketplace scams and how to avoid them</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
+          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2213,22 +2213,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
+          <t>Cyberattacks: A very real existential threat to organizations</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2245,71 +2245,71 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
+          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
+          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Costco 40th anniversary scam targets WhatsApp users</t>
+          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
+          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>June 29, 2022</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Do back offices mean backdoors?</t>
+          <t>Costco 40th anniversary scam targets WhatsApp users</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
+          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2321,22 +2321,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>June 29, 2022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5 ways cybercriminals steal credit card details</t>
+          <t>Do back offices mean backdoors?</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
+          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2348,22 +2348,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>June 24, 2022</t>
+          <t>June 27, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Instagram’s new age verification tool – Week in security with Tony Anscombe</t>
+          <t>5 ways cybercriminals steal credit card details</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/instagrams-new-age-verification-tool-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/0-23.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Researchers Uncover New Attempts by Qakbot Malware to Evade Detection</t>
+          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-uncover-new-attempts-by.html</t>
+          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiCFlTvwYRkS8v4M8WXuVGXE6Ym1co6dwvAvedhQEyF1Pz4kKdpHIhva_UsuIm9_dv2WDwaNTSUrHPLiymlrHKgIBAsF_MOeP5mHJcpN6Y6aeBhIMHGRsdz-3qBhh7iBCckeZrdXEEecZlLAkVX0iy51l5jc5zxQuEQd8G4VYNyt5DwYTcnWNcrYP13/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,157 +490,157 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Microsoft Releases Fix for Zero-Day Flaw in July 2022 Security Patch Rollout</t>
+          <t>U.S. FTC Vows to Crack Down on illegal Use and Sharing of Citizens' Sensitive Data</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-releases-fix-for-zero-day.html</t>
+          <t>https://thehackernews.com/2022/07/us-ftc-vows-to-crack-down-on-illegal.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhMMVV60incjQemAA8K9lAWSescsqjqG2a3UdVc4GiCMmXBd6175xW7cZiTJONSGUB1N9s-MMZARqaZP7h-OdKy4jUdvvT_H-aPCCLF9TKLu1S1Xcj8NZh673Hir7VOwNMNdOLjEU6LSXewzYkJXyX0Y0dpIn7L1WK7IuD61f1iG8uajyHoBwST8KVh/s260-e100/windows-update.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYdwe7DHGQVh0FJf-yb-LRLjpzoVOODYsDjcZEwMtrMgMvTNZm3Y5f5LsIWXUY4LUUyrzpWAQanNoq6c6YmOP1QtA_QTyqihbs39viqsBnm0aATqqxel4PGGVyNKmHNahmqAAwWyrst3BmwNdcJAPZgYk4vsHAo_LmwK-b40pH1Ry8-SqQ1BK__YXa/s260-e100/data-security.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TikTok Postpones Privacy Policy Update in Europe After Italy Warns of GDPR Breach</t>
+          <t>New UEFI Firmware Vulnerabilities Impact Several Lenovo Notebook Models</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/tiktok-postpones-privacy-policy-update.html</t>
+          <t>https://thehackernews.com/2022/07/new-uefi-firmware-vulnerabilities.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi2QnzBXssO-V8X8EmHlkV-iSmpePPKUGUi88suysnAq1qfCqAtn7IJp60yPeTEyatczygEAwO_msXwzgPrqI64L2yMmHZKaDWl01IoQiMVh3GSziIGOuV4LUzMLWoKRCWfZHQkkre-codX12ltderr0u6I9yQJxAbOsGg2Jk1oeEVEwSseZgCtJ2CF/s260-e100/tiktok.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiU4KZzypeOJBoJ8yu-1lDpqUgayjqKrmX1n54zjitMm_xPR1SUpkBC2fZkJGhieTwockSWWNN6VXvbSleKFvKSYkUyXc0XQUMtAjTOWvAUrV2Bw7be9JyX6jllNJnu3YNHe40G3jKZVufHd0yor7wfa4uvBRhUy6Ykk2jS_P0R8D36P8w0-5qJ87RG/s260-e100/lenovo.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Avoiding Death by a Thousand Scripts: Using Automated Content Security Policies</t>
+          <t>Microsoft Warns of Large-Scale AiTM Phishing Attacks Against Over 10,000 Organizations</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/avoiding-death-by-thousand-scripts.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-warns-of-large-scale-aitm.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiKaOGmbeT0oS2MDjYoIbq4H7ksZ-N2W3F9S_EqefumLKqFc8pe6bxo-x-FtkJX81cUTzmdON9iVa5v2IZ7YAaZBZba1ObVnPKNX3RTHj8rAUdwl8ZVDGQmUZvAam0XTQk4-PWmSm6eLzZOVxYNLcdU22BCnDimyeQd8tp92o-QsmTegIc0adEckNOC/s260-e100/csp.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhenvBjUnkOSZ4cZJBwuWk5vs1CBI_0KRCA6jkSQNm0nv2_JNWw6AgkTvMDsnjSuWBPqMyvz5ZN6_NIwgcBT2VAlbWwiiF16SFTlplaaVD01VK5sdiekM_hyFi6gBh4SLGSw3e_JkXhr54MTIB9kD94Pow80GiYRuE8bxfgMH-F0Gg0OFFvtuzTBRJP/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Microsoft Windows Autopatch is Now Generally Available for Enterprise Systems</t>
+          <t>5 Questions You Need to Ask About Your Firewall Security</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-windows-autopatch-is-now.html</t>
+          <t>https://thehackernews.com/2022/07/5-questions-you-need-to-ask-about-your.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh9KjyGiZkovo9wOo7POBgk_x691SByK9twjr6I_SHLfMHvaOwYzzv6YUuC6sKcH35ek5Vvcf77yRBuSRFI9ltPE7eyia04sl5tMBD_O4jhEjXV3ZbpQ22jrIWzLCdOF4CCd_3UrEo2tIM9zCedgCn0dPk_tVLb-2jAs9hJFojvFk0QCfSjeHsFnpqe/s260-e100/windows-autopatch.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEio33-PIOhkpFs5xxXoCHCswxyuos9VsKnhwXCbl347BkhJy4ZLQnpdQO9h_CtDzmaEf5BnRBB7Ovb1NzCmlbkq0Y-qn39A5hiSqZpyqo7wlImiibrIqcb9267_BqyY6rmtYUPvHRtsrLYNGG2kuBf8YNMcdywmMH66429YktMUIpta4nItoagADdxz/s260-e100/hacking-2.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cloud-based Cryptocurrency Miners Targeting GitHub Actions and Azure VMs</t>
+          <t>Researchers Uncover New Variants of the ChromeLoader Browser Hijacking Malware</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/cloud-based-cryptocurrency-miners.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-uncover-new-variants-of.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhsScxx5lrEQfbCWFs0LL3YwLbAckiMuNSNVSj4Omh9y7t6hBlaO_A6W3i3-h8DTXr3qLYmgGe6_0Rtcf1r1nr8GhXQymONb3lJx43bcg2JJevnRerCZ0F5hkfiVBkcgDnHVzxOJNTWdsD2PRAAaB1xWgrjGOgK4Hv-fXCtLirQqu2d2suiXccZUxxI/s260-e100/ss.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj-ZarETP9VVbzsFeRsVQ6O3V97eGkRG1wTwKsLEXN8-1Myjp6Sabp1fmLlXRJnr56BhcpJenTOvifHJrCILTjwQ_J9-qudu7h7plTvEcf6NRcAe0CRiQVAQl6lEPJXpEHcd6h5BtLsgx12_5UZJR21fV5BQWWM08qUe4M1PdaWxD9A02J3vKhYvYeM/s260-e100/hackers.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>What It Takes to Tackle Your SaaS Security</t>
+          <t>Researchers Uncover New Attempts by Qakbot Malware to Evade Detection</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/what-it-takes-to-tackle-your-saas.html</t>
+          <t>https://thehackernews.com/2022/07/researchers-uncover-new-attempts-by.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh3vEHIOun6Tw_9GuFL-KDCja1j633fyd2qyewJioJEWdHI43-vgYEe36KKfggeathmKEMI0vJiB_fQEgTf95EZo--HY51CQayzm81HMXDY7IJvn2oYcwT1CCMN7e3qaKv21v5nqpYlFRjBQXVyO8kgAbd7QgtN3e5VsMM2aRuzSAtGLn9e9SRwLzgIQQ/s260-e100/adaptive.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiCFlTvwYRkS8v4M8WXuVGXE6Ym1co6dwvAvedhQEyF1Pz4kKdpHIhva_UsuIm9_dv2WDwaNTSUrHPLiymlrHKgIBAsF_MOeP5mHJcpN6Y6aeBhIMHGRsdz-3qBhh7iBCckeZrdXEEecZlLAkVX0iy51l5jc5zxQuEQd8G4VYNyt5DwYTcnWNcrYP13/s260-e100/hacking.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,81 +652,81 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hackers Used Fake Job Offer to Hack and Steal $540 Million from Axie Infinity</t>
+          <t>Microsoft Releases Fix for Zero-Day Flaw in July 2022 Security Patch Rollout</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-used-fake-job-offer-to-hack-and.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-releases-fix-for-zero-day.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgbs3jHyJvX7UshuM-Svxe92SVkAw9W_glVlWuyitbSosMUAj3ZfDBBpIJHoIQAhhJ3mKhtyYsx7lnsJOW7fV7rY1oc-2ru2j9bSlOjxlkpVthDPDUMZlKjaICUVMFdyLbrYFlSkQ8m9VHXL1Rp5SAfdbNsIXCV5kwVrVVf_ixcMHWtVHWeM---hHXS/s260-e100/hack.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhMMVV60incjQemAA8K9lAWSescsqjqG2a3UdVc4GiCMmXBd6175xW7cZiTJONSGUB1N9s-MMZARqaZP7h-OdKy4jUdvvT_H-aPCCLF9TKLu1S1Xcj8NZh673Hir7VOwNMNdOLjEU6LSXewzYkJXyX0Y0dpIn7L1WK7IuD61f1iG8uajyHoBwST8KVh/s260-e100/windows-update.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 10, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PyPI Repository Makes 2FA Security Mandatory for Critical Python Projects</t>
+          <t>TikTok Postpones Privacy Policy Update in Europe After Italy Warns of GDPR Breach</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pypi-repository-makes-2af-security.html</t>
+          <t>https://thehackernews.com/2022/07/tiktok-postpones-privacy-policy-update.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYc5WPIiioyeQXyRfSBVy4PZB7Dl7u_zFeyqTCAoMMPyaU2x0Q-0CBe6_Wy9wnDwiCgYmMOv2GmFWb5VPI7XMIBsJSrqLQHS2dR6fdxhmz69zWSxeDGPsjdyF6HrKNHYO4cNO6XvBBXFtpH9B3rwJ6wxdBiUtzIeDhFzOsHve0MvhHdGuU3xAlYrJb/s260-e100/python.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi2QnzBXssO-V8X8EmHlkV-iSmpePPKUGUi88suysnAq1qfCqAtn7IJp60yPeTEyatczygEAwO_msXwzgPrqI64L2yMmHZKaDWl01IoQiMVh3GSziIGOuV4LUzMLWoKRCWfZHQkkre-codX12ltderr0u6I9yQJxAbOsGg2Jk1oeEVEwSseZgCtJ2CF/s260-e100/tiktok.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hackers Exploiting Follina Bug to Deploy Rozena Backdoor</t>
+          <t>Avoiding Death by a Thousand Scripts: Using Automated Content Security Policies</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-exploiting-follina-bug-to.html</t>
+          <t>https://thehackernews.com/2022/07/avoiding-death-by-thousand-scripts.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgqkZlda0c2g2igRLTOdrEftzHnVaYPBW5GyWFxmq2gYpwQJC85xMudeBpTILNLmjRqpCEQzJ1BHrUDtlNVaYEIjBIszT-yfr5cd_4eB48Ayxqg8tZogsoHViYpX26Bhq8NdJI9qMvqSr-H6uCMSDiHFlPWqQDWupWrWorWtPcyR3TFN-oXdcQihirY/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiKaOGmbeT0oS2MDjYoIbq4H7ksZ-N2W3F9S_EqefumLKqFc8pe6bxo-x-FtkJX81cUTzmdON9iVa5v2IZ7YAaZBZba1ObVnPKNX3RTHj8rAUdwl8ZVDGQmUZvAam0XTQk4-PWmSm6eLzZOVxYNLcdU22BCnDimyeQd8tp92o-QsmTegIc0adEckNOC/s260-e100/csp.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -738,253 +738,253 @@
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+FTC will “vigorously” enforce the law to protect consumer data
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ftc-will-vigorously-enforce-the-law-to-protect-consumer-data/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/ftcprotectsuserdata.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+13 July 2022  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Over 70 Lenovo notebook models vulnerable to ACE attacks – ESET
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/over-70-lenovo-notebook-models-vulnerable-to-ace-attacks-eset/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Lenovo-laptop-store.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Quantum platform to boost scientific research
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/quantum-platform-to-boost-scientific-research/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/QuantumComputer.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Amazon launches cancer vaccine trial
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/quantum-platform-to-boost-scientific-research/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/QuantumComputer.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Threat actors impersonated Angela Merkel to hack Christine Lagarde
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/amazon-launches-cancer-vaccine-trial/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/amazon_logo.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Microsoft records a phishing campaign targeting over 10k organizations
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/threat-actors-impersonated-angela-merkel-to-hack-christine-lagarde/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Lagarde-Merkal-Hack.png</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyber-college falls for password-hacking scam
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/cyber-college-falls-for-password-hacking-scam/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/BadPassword.png</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-12 July 2022  </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/microsoft-records-a-phishing-campaign-targeting-over-10k-organizations/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/office365phishing.png</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft says Windows Autopatch tool is generally live
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/microsoft-says-windows-autopatch-tool-is-generally-live/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Windows-Micorosft-Autopach.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyber-college-falls-for-password-hacking-scam/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/BadPassword.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">12 July 2022 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TikTok halts privacy policy update aimed at tracking users’ behavior without consent
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-halts-privacy-policy-update-aimed-at-tracking-users-behavior-without-consent/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1688057260.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 July 2022 </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Nothing left to imagination ahead of Nothing Phone 1 launch
-</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-halts-privacy-policy-update-aimed-at-tracking-users-behavior-without-consent/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1688057260.png</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 July 2022 </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-UK health officials accused of sharing pandemic-related information over private channels
-</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/nothing-left-to-imagination-nothing-phone-1-launch/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/nothing_phone.jpg</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 July 2022 </t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Apple Watch Series 8 rumored to go 'pro', feature body temperature sensor
-</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/uk-health-officials-accused-of-sharing-pandemic-related-information-over-private-channels/</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_2010297977.png</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Man charged for generating millions in selling fraudulent Cisco devices
-</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/apple-watch-series-8-rumored-to-include-pro-model-feature-body-temperature-sensor/</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/apple_watch_7.png</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Binance ignored US sanctions by serving crypto traders in Iran, clients say
-</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/man-charged-for-generating-millions-in-selling-fraudulent-cisco-devices/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1338116366.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11 July 2022 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Human rights activists call for action against Big Tech
-</t>
-        </is>
-      </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/binance-ignored-us-sanctions-by-serving-crypto-traders-in-iran-clients-say/</t>
+          <t>https://cybernews.com/news/microsoft-says-windows-autopatch-tool-is-generally-live/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Binance-crypto-logo.JPG</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Windows-Micorosft-Autopach.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -996,24 +996,24 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">11 July 2022 </t>
+          <t xml:space="preserve">12 July 2022 </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-AI-written academic paper submitted to peer review
+Nothing left to imagination as Nothing Phone 1 launches
 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/human-rights-activists-call-for-action-against-big-tech/</t>
+          <t>https://cybernews.com/news/tiktok-halts-privacy-policy-update-aimed-at-tracking-users-behavior-without-consent/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/bigtechbrands.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1688057260.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1025,27 +1025,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>How War Impacts Cyber Insurance</t>
+          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
+          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1057,44 +1057,44 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
+          <t>How War Impacts Cyber Insurance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
+          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
+          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
+          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1111,44 +1111,44 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Popular NFT Marketplace Phished for $540M</t>
+          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
+          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
+          <t>Popular NFT Marketplace Phished for $540M</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
+          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
+          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
+          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1187,22 +1187,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
+          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
+          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1214,22 +1214,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
+          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hbillion-records/180125/</t>
+          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1241,27 +1241,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
+          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
+          <t>https://threatpost.com/hbillion-records/180125/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1273,17 +1273,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Google Patches Actively Exploited Chrome Bug</t>
+          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://threatpost.com/actively-exploited-chrome-bug/180118/</t>
+          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/25091849/chrome_bug.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1565,49 +1565,49 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
+          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
+          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
+          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
+          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
+          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
+          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1624,17 +1624,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
+          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
+          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
+          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1646,54 +1646,54 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
+          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
+          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
+          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Will These Algorithms Save You From Quantum Threats?</t>
+          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
+          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
+          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1705,17 +1705,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
+          <t>Will These Algorithms Save You From Quantum Threats?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
+          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
+          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1727,22 +1727,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>The Danger of License Plate Readers in Post-Roe America</t>
+          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
+          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
+          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1754,22 +1754,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
+          <t>The Danger of License Plate Readers in Post-Roe America</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
+          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
+          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1786,17 +1786,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>How to Avoid the Worst Instagram Scams</t>
+          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
+          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
+          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1808,22 +1808,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>End-to-End Encryption's Central Role in Modern Self-Defense</t>
+          <t>How to Avoid the Worst Instagram Scams</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/end-to-end-encryption-abortion-privacy/</t>
+          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62bca88d9c301780cc329699/master/pass/End-to-End-Encryption-Security-GettyImages-1353088770.jpg</t>
+          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1835,76 +1835,76 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
+          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
+          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
+          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1916,22 +1916,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
+          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1943,22 +1943,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
+          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1970,22 +1970,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
+          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1997,22 +1997,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
+          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2024,22 +2024,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
+          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
+          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2078,22 +2078,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>S3 Ep89: Sextortion, blockchain blunder, and an OpenSSL bugfix [Podcast + Transcript]</t>
+          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/06/30/s3-ep89-sextortion-blockchain-blunder-and-an-openssl-bugfix-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/pod3-89-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -734,291 +734,291 @@
       <c r="A12" t="inlineStr">
         <is>
           <t xml:space="preserve">
-13 July 2022  </t>
+14 July 2022  </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Amazon’s Ring shared data with US police without user permission 11 times this year
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/amazons-ring-shared-data-with-us-police-without-user-permission-11-times-this-year/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/amazonring.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+14 July 2022  </t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Conman used phishing techniques to defraud insurers out of millions
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/conman-used-phishing-techniques-to-defraud-insurers-out-of-millions/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/MedicalInsurance.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 FTC will “vigorously” enforce the law to protect consumer data
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ftc-will-vigorously-enforce-the-law-to-protect-consumer-data/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/ftcprotectsuserdata.png</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/ftcprotectsuserdata.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-13 July 2022  </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">13 July 2022 </t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Over 70 Lenovo notebook models vulnerable to ACE attacks – ESET
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/over-70-lenovo-notebook-models-vulnerable-to-ace-attacks-eset/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Lenovo-laptop-store.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ftc-will-vigorously-enforce-the-law-to-protect-consumer-data/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/ftcprotectsuserdata.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t xml:space="preserve">13 July 2022 </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Quantum platform to boost scientific research
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/quantum-platform-to-boost-scientific-research/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/QuantumComputer.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/over-70-lenovo-notebook-models-vulnerable-to-ace-attacks-eset/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Lenovo-laptop-store.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t xml:space="preserve">13 July 2022 </t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Amazon launches cancer vaccine trial
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/quantum-platform-to-boost-scientific-research/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/QuantumComputer.png</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t xml:space="preserve">13 July 2022 </t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Threat actors impersonated Angela Merkel to hack Christine Lagarde
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/amazon-launches-cancer-vaccine-trial/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/amazon_logo.png</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t xml:space="preserve">13 July 2022 </t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft records a phishing campaign targeting over 10k organizations
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/threat-actors-impersonated-angela-merkel-to-hack-christine-lagarde/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Lagarde-Merkal-Hack.png</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t xml:space="preserve">13 July 2022 </t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyber-college falls for password-hacking scam
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/microsoft-records-a-phishing-campaign-targeting-over-10k-organizations/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/office365phishing.png</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t xml:space="preserve">13 July 2022 </t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft says Windows Autopatch tool is generally live
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/cyber-college-falls-for-password-hacking-scam/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/BadPassword.png</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 July 2022 </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-TikTok halts privacy policy update aimed at tracking users’ behavior without consent
-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/microsoft-says-windows-autopatch-tool-is-generally-live/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Windows-Micorosft-Autopach.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">12 July 2022 </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Nothing left to imagination as Nothing Phone 1 launches
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-halts-privacy-policy-update-aimed-at-tracking-users-behavior-without-consent/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1688057260.png</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -2105,22 +2105,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Play it safe: 5 reasons not to download pirated games</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2132,22 +2132,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
+          <t>Play it safe: 5 reasons not to download pirated games</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2164,17 +2164,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Driving to France this summer? Watch out for scam websites before you go</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2186,22 +2186,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>8 common Facebook Marketplace scams and how to avoid them</t>
+          <t>Driving to France this summer? Watch out for scam websites before you go</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
+          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2213,22 +2213,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Cyberattacks: A very real existential threat to organizations</t>
+          <t>8 common Facebook Marketplace scams and how to avoid them</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
+          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2240,22 +2240,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
+          <t>Cyberattacks: A very real existential threat to organizations</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2272,71 +2272,71 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
+          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
+          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Costco 40th anniversary scam targets WhatsApp users</t>
+          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
+          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>June 29, 2022</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Do back offices mean backdoors?</t>
+          <t>Costco 40th anniversary scam targets WhatsApp users</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
+          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2348,22 +2348,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>June 27, 2022</t>
+          <t>June 29, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>5 ways cybercriminals steal credit card details</t>
+          <t>Do back offices mean backdoors?</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/27/5-ways-cybercriminals-steal-credit-card-details/</t>
+          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/credit-card-theft-hackers.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
+          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to Wikileaks</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
+          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,49 +490,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>U.S. FTC Vows to Crack Down on illegal Use and Sharing of Citizens' Sensitive Data</t>
+          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/us-ftc-vows-to-crack-down-on-illegal.html</t>
+          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYdwe7DHGQVh0FJf-yb-LRLjpzoVOODYsDjcZEwMtrMgMvTNZm3Y5f5LsIWXUY4LUUyrzpWAQanNoq6c6YmOP1QtA_QTyqihbs39viqsBnm0aATqqxel4PGGVyNKmHNahmqAAwWyrst3BmwNdcJAPZgYk4vsHAo_LmwK-b40pH1Ry8-SqQ1BK__YXa/s260-e100/data-security.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New UEFI Firmware Vulnerabilities Impact Several Lenovo Notebook Models</t>
+          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-uefi-firmware-vulnerabilities.html</t>
+          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiU4KZzypeOJBoJ8yu-1lDpqUgayjqKrmX1n54zjitMm_xPR1SUpkBC2fZkJGhieTwockSWWNN6VXvbSleKFvKSYkUyXc0XQUMtAjTOWvAUrV2Bw7be9JyX6jllNJnu3YNHe40G3jKZVufHd0yor7wfa4uvBRhUy6Ykk2jS_P0R8D36P8w0-5qJ87RG/s260-e100/lenovo.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Microsoft Warns of Large-Scale AiTM Phishing Attacks Against Over 10,000 Organizations</t>
+          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-warns-of-large-scale-aitm.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhenvBjUnkOSZ4cZJBwuWk5vs1CBI_0KRCA6jkSQNm0nv2_JNWw6AgkTvMDsnjSuWBPqMyvz5ZN6_NIwgcBT2VAlbWwiiF16SFTlplaaVD01VK5sdiekM_hyFi6gBh4SLGSw3e_JkXhr54MTIB9kD94Pow80GiYRuE8bxfgMH-F0Gg0OFFvtuzTBRJP/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,22 +571,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 Questions You Need to Ask About Your Firewall Security</t>
+          <t>Pakistani Hackers Targeting Indian Students in Latest Malware Campaign</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/5-questions-you-need-to-ask-about-your.html</t>
+          <t>https://thehackernews.com/2022/07/pakistani-hackers-targeting-indian.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEio33-PIOhkpFs5xxXoCHCswxyuos9VsKnhwXCbl347BkhJy4ZLQnpdQO9h_CtDzmaEf5BnRBB7Ovb1NzCmlbkq0Y-qn39A5hiSqZpyqo7wlImiibrIqcb9267_BqyY6rmtYUPvHRtsrLYNGG2kuBf8YNMcdywmMH66429YktMUIpta4nItoagADdxz/s260-e100/hacking-2.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZAH2KaPXSOIJ1y9sH173pY85O1H5tn2mIcal5zmcbIhzA_ANkj9BwUz3SBLlDfLMB0uTsMF9R1wo1M2foKTiSfinmqkGAPtDdYFmhYbmjX9__9dTdnc34yq7-FDFm5xfLJHfDdtF9Bd6DAnHL5TU0OVzGWiDkMxa_-tGcSuMZTx1B87lHbiWODRBS/s260-e100/hackers.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,22 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Researchers Uncover New Variants of the ChromeLoader Browser Hijacking Malware</t>
+          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-uncover-new-variants-of.html</t>
+          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj-ZarETP9VVbzsFeRsVQ6O3V97eGkRG1wTwKsLEXN8-1Myjp6Sabp1fmLlXRJnr56BhcpJenTOvifHJrCILTjwQ_J9-qudu7h7plTvEcf6NRcAe0CRiQVAQl6lEPJXpEHcd6h5BtLsgx12_5UZJR21fV5BQWWM08qUe4M1PdaWxD9A02J3vKhYvYeM/s260-e100/hackers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,103 +625,103 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Researchers Uncover New Attempts by Qakbot Malware to Evade Detection</t>
+          <t>U.S. FTC Vows to Crack Down on illegal Use and Sharing of Citizens' Sensitive Data</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/researchers-uncover-new-attempts-by.html</t>
+          <t>https://thehackernews.com/2022/07/us-ftc-vows-to-crack-down-on-illegal.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiCFlTvwYRkS8v4M8WXuVGXE6Ym1co6dwvAvedhQEyF1Pz4kKdpHIhva_UsuIm9_dv2WDwaNTSUrHPLiymlrHKgIBAsF_MOeP5mHJcpN6Y6aeBhIMHGRsdz-3qBhh7iBCckeZrdXEEecZlLAkVX0iy51l5jc5zxQuEQd8G4VYNyt5DwYTcnWNcrYP13/s260-e100/hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYdwe7DHGQVh0FJf-yb-LRLjpzoVOODYsDjcZEwMtrMgMvTNZm3Y5f5LsIWXUY4LUUyrzpWAQanNoq6c6YmOP1QtA_QTyqihbs39viqsBnm0aATqqxel4PGGVyNKmHNahmqAAwWyrst3BmwNdcJAPZgYk4vsHAo_LmwK-b40pH1Ry8-SqQ1BK__YXa/s260-e100/data-security.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Microsoft Releases Fix for Zero-Day Flaw in July 2022 Security Patch Rollout</t>
+          <t>New UEFI Firmware Vulnerabilities Impact Several Lenovo Notebook Models</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-releases-fix-for-zero-day.html</t>
+          <t>https://thehackernews.com/2022/07/new-uefi-firmware-vulnerabilities.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhMMVV60incjQemAA8K9lAWSescsqjqG2a3UdVc4GiCMmXBd6175xW7cZiTJONSGUB1N9s-MMZARqaZP7h-OdKy4jUdvvT_H-aPCCLF9TKLu1S1Xcj8NZh673Hir7VOwNMNdOLjEU6LSXewzYkJXyX0Y0dpIn7L1WK7IuD61f1iG8uajyHoBwST8KVh/s260-e100/windows-update.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiU4KZzypeOJBoJ8yu-1lDpqUgayjqKrmX1n54zjitMm_xPR1SUpkBC2fZkJGhieTwockSWWNN6VXvbSleKFvKSYkUyXc0XQUMtAjTOWvAUrV2Bw7be9JyX6jllNJnu3YNHe40G3jKZVufHd0yor7wfa4uvBRhUy6Ykk2jS_P0R8D36P8w0-5qJ87RG/s260-e100/lenovo.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TikTok Postpones Privacy Policy Update in Europe After Italy Warns of GDPR Breach</t>
+          <t>Microsoft Warns of Large-Scale AiTM Phishing Attacks Against Over 10,000 Organizations</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/tiktok-postpones-privacy-policy-update.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-warns-of-large-scale-aitm.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi2QnzBXssO-V8X8EmHlkV-iSmpePPKUGUi88suysnAq1qfCqAtn7IJp60yPeTEyatczygEAwO_msXwzgPrqI64L2yMmHZKaDWl01IoQiMVh3GSziIGOuV4LUzMLWoKRCWfZHQkkre-codX12ltderr0u6I9yQJxAbOsGg2Jk1oeEVEwSseZgCtJ2CF/s260-e100/tiktok.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhenvBjUnkOSZ4cZJBwuWk5vs1CBI_0KRCA6jkSQNm0nv2_JNWw6AgkTvMDsnjSuWBPqMyvz5ZN6_NIwgcBT2VAlbWwiiF16SFTlplaaVD01VK5sdiekM_hyFi6gBh4SLGSw3e_JkXhr54MTIB9kD94Pow80GiYRuE8bxfgMH-F0Gg0OFFvtuzTBRJP/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Avoiding Death by a Thousand Scripts: Using Automated Content Security Policies</t>
+          <t>5 Questions You Need to Ask About Your Firewall Security</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/avoiding-death-by-thousand-scripts.html</t>
+          <t>https://thehackernews.com/2022/07/5-questions-you-need-to-ask-about-your.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiKaOGmbeT0oS2MDjYoIbq4H7ksZ-N2W3F9S_EqefumLKqFc8pe6bxo-x-FtkJX81cUTzmdON9iVa5v2IZ7YAaZBZba1ObVnPKNX3RTHj8rAUdwl8ZVDGQmUZvAam0XTQk4-PWmSm6eLzZOVxYNLcdU22BCnDimyeQd8tp92o-QsmTegIc0adEckNOC/s260-e100/csp.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEio33-PIOhkpFs5xxXoCHCswxyuos9VsKnhwXCbl347BkhJy4ZLQnpdQO9h_CtDzmaEf5BnRBB7Ovb1NzCmlbkq0Y-qn39A5hiSqZpyqo7wlImiibrIqcb9267_BqyY6rmtYUPvHRtsrLYNGG2kuBf8YNMcdywmMH66429YktMUIpta4nItoagADdxz/s260-e100/hacking-2.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -733,258 +733,256 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>July 14, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-14 July 2022  </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Amazon’s Ring shared data with US police without user permission 11 times this year
+Twitter down for thousands of users worldwide
 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/amazons-ring-shared-data-with-us-police-without-user-permission-11-times-this-year/</t>
+          <t>https://cybernews.com/news/twitter-down-for-thousands-of-users-worldwide/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/amazonring.png</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/Twitter-down-mobile.png</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>July 14, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t xml:space="preserve">
-14 July 2022  </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Conman used phishing techniques to defraud insurers out of millions
+Chinese hackers targeted US journalists ahead of the Capitol riots
 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/conman-used-phishing-techniques-to-defraud-insurers-out-of-millions/</t>
+          <t>https://cybernews.com/news/chinese-hackers-targeted-us-journalists-ahead-of-the-capitol-riots/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/MedicalInsurance.png</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/US-Capitol-Riot2.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
-FTC will “vigorously” enforce the law to protect consumer data
+Russia takes “coercive” measures against Twitch
 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/ftc-will-vigorously-enforce-the-law-to-protect-consumer-data/</t>
+          <t>https://cybernews.com/news/russia-takes-coercive-measures-against-twitch/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/ftcprotectsuserdata.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/russia-against-twitch.png</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Over 70 Lenovo notebook models vulnerable to ACE attacks – ESET
+Adware campaign steals Google users’ search engine data
 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/ftc-will-vigorously-enforce-the-law-to-protect-consumer-data/</t>
+          <t>https://cybernews.com/news/russia-takes-coercive-measures-against-twitch/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/ftcprotectsuserdata.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/russia-against-twitch.png</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Quantum platform to boost scientific research
+Microsoft uncovered exploit for macOS sandbox escape bug
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/over-70-lenovo-notebook-models-vulnerable-to-ace-attacks-eset/</t>
+          <t>https://cybernews.com/news/adware-campaign-steals-google-users-search-engine-data/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Lenovo-laptop-store.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/GoogleMagnifier.png</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Amazon launches cancer vaccine trial
+Threat actors impersonate Crowdstrike to extort data and deploy ransomware
 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/quantum-platform-to-boost-scientific-research/</t>
+          <t>https://cybernews.com/news/microsoft-uncovered-exploit-for-macos-sandbox-escape-bug/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/QuantumComputer.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Mac-Apple-Macbook.png</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Threat actors impersonated Angela Merkel to hack Christine Lagarde
+UK police arrest three people by using facial recognition in central London
 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/amazon-launches-cancer-vaccine-trial/</t>
+          <t>https://cybernews.com/news/threat-actors-impersonate-crowdstrike-to-extort-data-and-deploy-ransomware/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/amazon_logo.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/crowdstrike-phishing-email.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Microsoft records a phishing campaign targeting over 10k organizations
+Ex-CIA hacker convicted of WikiLeaks data crime
 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/threat-actors-impersonated-angela-merkel-to-hack-christine-lagarde/</t>
+          <t>https://cybernews.com/news/uk-police-arrest-three-people-by-using-facial-recognition-in-central-london/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Lagarde-Merkal-Hack.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/oxfordcircus.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cyber-college falls for password-hacking scam
+Elden Ring publisher Bandai Namco confirms cyberattack
 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/microsoft-records-a-phishing-campaign-targeting-over-10k-organizations/</t>
+          <t>https://cybernews.com/news/ex-cia-hacker-convicted-of-wikileaks-data-crime/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/office365phishing.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/CIApic.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -996,83 +994,83 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">13 July 2022 </t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Microsoft says Windows Autopatch tool is generally live
+Over 1.9m people impacted in one of this year’s biggest medical data breaches
 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/cyber-college-falls-for-password-hacking-scam/</t>
+          <t>https://cybernews.com/news/elden-ring-publisher-bandai-namco-confirms-cyberattack/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/BadPassword.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Bandai-Namco-Logo.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
+          <t>Journalists Emerge as Favored Attack Target for APTs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
+          <t>https://threatpost.com/journalists-target-apts/180224/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>How War Impacts Cyber Insurance</t>
+          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
+          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1084,44 +1082,44 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
+          <t>How War Impacts Cyber Insurance</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
+          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
+          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
+          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1138,44 +1136,44 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Popular NFT Marketplace Phished for $540M</t>
+          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
+          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
+          <t>Popular NFT Marketplace Phished for $540M</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
+          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1192,17 +1190,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
+          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
+          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1214,22 +1212,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
+          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
+          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1241,22 +1239,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
+          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hbillion-records/180125/</t>
+          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1268,27 +1266,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Latest Cyberattack Against Iran Part of Ongoing Campaign</t>
+          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://threatpost.com/cyberattack-iran-campaign/180122/</t>
+          <t>https://threatpost.com/hbillion-records/180125/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/05/02101455/industrial_controls2.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1565,76 +1563,76 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
+          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
+          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
+          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
+          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
+          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
+          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
+          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
+          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
+          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1651,17 +1649,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
+          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
+          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
+          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1673,54 +1671,54 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
+          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
+          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
+          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Will These Algorithms Save You From Quantum Threats?</t>
+          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
+          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
+          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1732,17 +1730,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
+          <t>Will These Algorithms Save You From Quantum Threats?</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
+          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
+          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1754,22 +1752,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The Danger of License Plate Readers in Post-Roe America</t>
+          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
+          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
+          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1781,22 +1779,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
+          <t>The Danger of License Plate Readers in Post-Roe America</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
+          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
+          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1813,17 +1811,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>How to Avoid the Worst Instagram Scams</t>
+          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-avoid-instagram-scams/</t>
+          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4c61642b8e26ab6b1a18b/master/pass/Instagram-Scams-Security-GettyImages-1041568908.jpg</t>
+          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1835,22 +1833,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
+          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs and Office macros [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1862,76 +1860,76 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
+          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
+          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
+          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1943,22 +1941,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
+          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1970,22 +1968,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
+          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1997,22 +1995,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
+          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2024,22 +2022,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
+          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2051,22 +2049,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
+          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2083,17 +2081,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>“Missing Cryptoqueen” hits the FBI’s Ten Most Wanted list</t>
+          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/missing-cryptoqueen-hits-the-fbis-ten-most-wanted-list/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/mcq-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to Wikileaks</t>
+          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
+          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
+          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
+          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
+          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
+          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
+          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
+          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pakistani Hackers Targeting Indian Students in Latest Malware Campaign</t>
+          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pakistani-hackers-targeting-indian.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZAH2KaPXSOIJ1y9sH173pY85O1H5tn2mIcal5zmcbIhzA_ANkj9BwUz3SBLlDfLMB0uTsMF9R1wo1M2foKTiSfinmqkGAPtDdYFmhYbmjX9__9dTdnc34yq7-FDFm5xfLJHfDdtF9Bd6DAnHL5TU0OVzGWiDkMxa_-tGcSuMZTx1B87lHbiWODRBS/s260-e100/hackers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
+          <t>Pakistani Hackers Targeting Indian Students in Latest Malware Campaign</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
+          <t>https://thehackernews.com/2022/07/pakistani-hackers-targeting-indian.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZAH2KaPXSOIJ1y9sH173pY85O1H5tn2mIcal5zmcbIhzA_ANkj9BwUz3SBLlDfLMB0uTsMF9R1wo1M2foKTiSfinmqkGAPtDdYFmhYbmjX9__9dTdnc34yq7-FDFm5xfLJHfDdtF9Bd6DAnHL5TU0OVzGWiDkMxa_-tGcSuMZTx1B87lHbiWODRBS/s260-e100/hackers.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,27 +625,27 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U.S. FTC Vows to Crack Down on illegal Use and Sharing of Citizens' Sensitive Data</t>
+          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/us-ftc-vows-to-crack-down-on-illegal.html</t>
+          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYdwe7DHGQVh0FJf-yb-LRLjpzoVOODYsDjcZEwMtrMgMvTNZm3Y5f5LsIWXUY4LUUyrzpWAQanNoq6c6YmOP1QtA_QTyqihbs39viqsBnm0aATqqxel4PGGVyNKmHNahmqAAwWyrst3BmwNdcJAPZgYk4vsHAo_LmwK-b40pH1Ry8-SqQ1BK__YXa/s260-e100/data-security.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>New UEFI Firmware Vulnerabilities Impact Several Lenovo Notebook Models</t>
+          <t>U.S. FTC Vows to Crack Down on illegal Use and Sharing of Citizens' Sensitive Data</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-uefi-firmware-vulnerabilities.html</t>
+          <t>https://thehackernews.com/2022/07/us-ftc-vows-to-crack-down-on-illegal.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiU4KZzypeOJBoJ8yu-1lDpqUgayjqKrmX1n54zjitMm_xPR1SUpkBC2fZkJGhieTwockSWWNN6VXvbSleKFvKSYkUyXc0XQUMtAjTOWvAUrV2Bw7be9JyX6jllNJnu3YNHe40G3jKZVufHd0yor7wfa4uvBRhUy6Ykk2jS_P0R8D36P8w0-5qJ87RG/s260-e100/lenovo.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYdwe7DHGQVh0FJf-yb-LRLjpzoVOODYsDjcZEwMtrMgMvTNZm3Y5f5LsIWXUY4LUUyrzpWAQanNoq6c6YmOP1QtA_QTyqihbs39viqsBnm0aATqqxel4PGGVyNKmHNahmqAAwWyrst3BmwNdcJAPZgYk4vsHAo_LmwK-b40pH1Ry8-SqQ1BK__YXa/s260-e100/data-security.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -684,334 +684,334 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Microsoft Warns of Large-Scale AiTM Phishing Attacks Against Over 10,000 Organizations</t>
+          <t>New UEFI Firmware Vulnerabilities Impact Several Lenovo Notebook Models</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-warns-of-large-scale-aitm.html</t>
+          <t>https://thehackernews.com/2022/07/new-uefi-firmware-vulnerabilities.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhenvBjUnkOSZ4cZJBwuWk5vs1CBI_0KRCA6jkSQNm0nv2_JNWw6AgkTvMDsnjSuWBPqMyvz5ZN6_NIwgcBT2VAlbWwiiF16SFTlplaaVD01VK5sdiekM_hyFi6gBh4SLGSw3e_JkXhr54MTIB9kD94Pow80GiYRuE8bxfgMH-F0Gg0OFFvtuzTBRJP/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiU4KZzypeOJBoJ8yu-1lDpqUgayjqKrmX1n54zjitMm_xPR1SUpkBC2fZkJGhieTwockSWWNN6VXvbSleKFvKSYkUyXc0XQUMtAjTOWvAUrV2Bw7be9JyX6jllNJnu3YNHe40G3jKZVufHd0yor7wfa4uvBRhUy6Ykk2jS_P0R8D36P8w0-5qJ87RG/s260-e100/lenovo.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>5 Questions You Need to Ask About Your Firewall Security</t>
+          <t>Microsoft Warns of Large-Scale AiTM Phishing Attacks Against Over 10,000 Organizations</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/5-questions-you-need-to-ask-about-your.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-warns-of-large-scale-aitm.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEio33-PIOhkpFs5xxXoCHCswxyuos9VsKnhwXCbl347BkhJy4ZLQnpdQO9h_CtDzmaEf5BnRBB7Ovb1NzCmlbkq0Y-qn39A5hiSqZpyqo7wlImiibrIqcb9267_BqyY6rmtYUPvHRtsrLYNGG2kuBf8YNMcdywmMH66429YktMUIpta4nItoagADdxz/s260-e100/hacking-2.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhenvBjUnkOSZ4cZJBwuWk5vs1CBI_0KRCA6jkSQNm0nv2_JNWw6AgkTvMDsnjSuWBPqMyvz5ZN6_NIwgcBT2VAlbWwiiF16SFTlplaaVD01VK5sdiekM_hyFi6gBh4SLGSw3e_JkXhr54MTIB9kD94Pow80GiYRuE8bxfgMH-F0Gg0OFFvtuzTBRJP/s260-e100/ms.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Meta's ‘Make-A-Scene’ AI will bring imagination to life in the metaverse
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/metas-make-a-scene-ai-will-bring-imagination-to-life-in-the-metaverse/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1494515318.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Imposter immigration officers threaten to have you deported
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/imposter-immigration-officers-threaten-to-have-you-deported/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/imposterimigrationofficers.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Twitter down for thousands of users worldwide
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/twitter-down-for-thousands-of-users-worldwide/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Twitter-down-mobile.png</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Twitter-down-mobile.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chinese hackers targeted US journalists ahead of the Capitol riots
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/chinese-hackers-targeted-us-journalists-ahead-of-the-capitol-riots/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/US-Capitol-Riot2.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/twitter-down-for-thousands-of-users-worldwide/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Twitter-down-mobile.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia takes “coercive” measures against Twitch
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-takes-coercive-measures-against-twitch/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/russia-against-twitch.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/chinese-hackers-targeted-us-journalists-ahead-of-the-capitol-riots/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/US-Capitol-Riot2.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adware campaign steals Google users’ search engine data
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/russia-takes-coercive-measures-against-twitch/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/russia-against-twitch.png</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft uncovered exploit for macOS sandbox escape bug
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/adware-campaign-steals-google-users-search-engine-data/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/GoogleMagnifier.png</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Threat actors impersonate Crowdstrike to extort data and deploy ransomware
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/microsoft-uncovered-exploit-for-macos-sandbox-escape-bug/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Mac-Apple-Macbook.png</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 UK police arrest three people by using facial recognition in central London
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/threat-actors-impersonate-crowdstrike-to-extort-data-and-deploy-ransomware/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/crowdstrike-phishing-email.png</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ex-CIA hacker convicted of WikiLeaks data crime
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/uk-police-arrest-three-people-by-using-facial-recognition-in-central-london/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/oxfordcircus.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>July 14, 2022</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Elden Ring publisher Bandai Namco confirms cyberattack
-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ex-cia-hacker-convicted-of-wikileaks-data-crime/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/CIApic.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>July 14, 2022</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Over 1.9m people impacted in one of this year’s biggest medical data breaches
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/elden-ring-publisher-bandai-namco-confirms-cyberattack/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Bandai-Namco-Logo.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -2103,22 +2103,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2130,22 +2130,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Play it safe: 5 reasons not to download pirated games</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2157,22 +2157,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
+          <t>Play it safe: 5 reasons not to download pirated games</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2189,17 +2189,17 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Driving to France this summer? Watch out for scam websites before you go</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2211,22 +2211,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>8 common Facebook Marketplace scams and how to avoid them</t>
+          <t>Driving to France this summer? Watch out for scam websites before you go</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
+          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2238,22 +2238,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Cyberattacks: A very real existential threat to organizations</t>
+          <t>8 common Facebook Marketplace scams and how to avoid them</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
+          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2265,22 +2265,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
+          <t>Cyberattacks: A very real existential threat to organizations</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2297,71 +2297,71 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
+          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
+          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Costco 40th anniversary scam targets WhatsApp users</t>
+          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
+          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>June 29, 2022</t>
+          <t>June 30, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Do back offices mean backdoors?</t>
+          <t>Costco 40th anniversary scam targets WhatsApp users</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/29/do-back-offices-mean-backdoors/</t>
+          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/shared-service-centers-cybersecurity-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,49 +463,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
+          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
+          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
+          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
+          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,27 +517,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
+          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
+          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
+          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
+          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
+          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
+          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -603,17 +603,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pakistani Hackers Targeting Indian Students in Latest Malware Campaign</t>
+          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pakistani-hackers-targeting-indian.html</t>
+          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZAH2KaPXSOIJ1y9sH173pY85O1H5tn2mIcal5zmcbIhzA_ANkj9BwUz3SBLlDfLMB0uTsMF9R1wo1M2foKTiSfinmqkGAPtDdYFmhYbmjX9__9dTdnc34yq7-FDFm5xfLJHfDdtF9Bd6DAnHL5TU0OVzGWiDkMxa_-tGcSuMZTx1B87lHbiWODRBS/s260-e100/hackers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
+          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
+          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>U.S. FTC Vows to Crack Down on illegal Use and Sharing of Citizens' Sensitive Data</t>
+          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/us-ftc-vows-to-crack-down-on-illegal.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjYdwe7DHGQVh0FJf-yb-LRLjpzoVOODYsDjcZEwMtrMgMvTNZm3Y5f5LsIWXUY4LUUyrzpWAQanNoq6c6YmOP1QtA_QTyqihbs39viqsBnm0aATqqxel4PGGVyNKmHNahmqAAwWyrst3BmwNdcJAPZgYk4vsHAo_LmwK-b40pH1Ry8-SqQ1BK__YXa/s260-e100/data-security.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>New UEFI Firmware Vulnerabilities Impact Several Lenovo Notebook Models</t>
+          <t>Pakistani Hackers Targeting Indian Students in Latest Malware Campaign</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-uefi-firmware-vulnerabilities.html</t>
+          <t>https://thehackernews.com/2022/07/pakistani-hackers-targeting-indian.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEiU4KZzypeOJBoJ8yu-1lDpqUgayjqKrmX1n54zjitMm_xPR1SUpkBC2fZkJGhieTwockSWWNN6VXvbSleKFvKSYkUyXc0XQUMtAjTOWvAUrV2Bw7be9JyX6jllNJnu3YNHe40G3jKZVufHd0yor7wfa4uvBRhUy6Ykk2jS_P0R8D36P8w0-5qJ87RG/s260-e100/lenovo.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZAH2KaPXSOIJ1y9sH173pY85O1H5tn2mIcal5zmcbIhzA_ANkj9BwUz3SBLlDfLMB0uTsMF9R1wo1M2foKTiSfinmqkGAPtDdYFmhYbmjX9__9dTdnc34yq7-FDFm5xfLJHfDdtF9Bd6DAnHL5TU0OVzGWiDkMxa_-tGcSuMZTx1B87lHbiWODRBS/s260-e100/hackers.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Microsoft Warns of Large-Scale AiTM Phishing Attacks Against Over 10,000 Organizations</t>
+          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-warns-of-large-scale-aitm.html</t>
+          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhenvBjUnkOSZ4cZJBwuWk5vs1CBI_0KRCA6jkSQNm0nv2_JNWw6AgkTvMDsnjSuWBPqMyvz5ZN6_NIwgcBT2VAlbWwiiF16SFTlplaaVD01VK5sdiekM_hyFi6gBh4SLGSw3e_JkXhr54MTIB9kD94Pow80GiYRuE8bxfgMH-F0Gg0OFFvtuzTBRJP/s260-e100/ms.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -737,367 +737,367 @@
         </is>
       </c>
       <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cloudflare named the botnet behind record-breaking DDoS attack
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cloudflare-named-the-botnet-behind-the-record-breaking-ddos-attack/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Cloudflare-logo-website.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Meta's ‘Make-A-Scene’ AI will bring imagination to life in the metaverse
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/metas-make-a-scene-ai-will-bring-imagination-to-life-in-the-metaverse/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1494515318.png</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/290601794_1176479646540355_5132798628346215961_n.jpeg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>July 15, 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Imposter immigration officers threaten to have you deported
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/imposter-immigration-officers-threaten-to-have-you-deported/</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/imposterimigrationofficers.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>July 14, 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/imposterimigrationofficers.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Twitter down for thousands of users worldwide
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/twitter-down-for-thousands-of-users-worldwide/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Twitter-down-mobile.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/imposter-immigration-officers-threaten-to-have-you-deported/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/imposterimigrationofficers.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Chinese hackers targeted US journalists ahead of the Capitol riots
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/twitter-down-for-thousands-of-users-worldwide/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Twitter-down-mobile.png</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia takes “coercive” measures against Twitch
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/chinese-hackers-targeted-us-journalists-ahead-of-the-capitol-riots/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/US-Capitol-Riot2.png</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Adware campaign steals Google users’ search engine data
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/russia-takes-coercive-measures-against-twitch/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/russia-against-twitch.png</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft uncovered exploit for macOS sandbox escape bug
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/adware-campaign-steals-google-users-search-engine-data/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/GoogleMagnifier.png</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Threat actors impersonate Crowdstrike to extort data and deploy ransomware
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/microsoft-uncovered-exploit-for-macos-sandbox-escape-bug/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Mac-Apple-Macbook.png</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>July 14, 2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 UK police arrest three people by using facial recognition in central London
 </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/threat-actors-impersonate-crowdstrike-to-extort-data-and-deploy-ransomware/</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/crowdstrike-phishing-email.png</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>July 14, 2022</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex-CIA hacker convicted of WikiLeaks data crime
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/uk-police-arrest-three-people-by-using-facial-recognition-in-central-london/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/oxfordcircus.png</t>
-        </is>
-      </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Journalists Emerge as Favored Attack Target for APTs</t>
+          <t>Emerging H0lyGh0st Ransomware Tied to North Korea</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://threatpost.com/journalists-target-apts/180224/</t>
+          <t>https://threatpost.com/h0lygh0st-ransomware-north-korea/180232/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/05/13135843/network-defense.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
+          <t>Journalists Emerge as Favored Attack Target for APTs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
+          <t>https://threatpost.com/journalists-target-apts/180224/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>How War Impacts Cyber Insurance</t>
+          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
+          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1109,44 +1109,44 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
+          <t>How War Impacts Cyber Insurance</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
+          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
+          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
+          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1163,44 +1163,44 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Popular NFT Marketplace Phished for $540M</t>
+          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
+          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
+          <t>Popular NFT Marketplace Phished for $540M</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
+          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
+          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
+          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1239,22 +1239,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
+          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
+          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1266,22 +1266,22 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Human Error Blamed for Leak of 1 Billion Records of Chinese Citizens</t>
+          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hbillion-records/180125/</t>
+          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/03/28142445/oops-scaled-e1648491903225.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1833,22 +1833,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs and Office macros [Podcast + Transcript]</t>
+          <t>7 cybersecurity tips for your summer vacation!</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1860,22 +1860,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
+          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs and Office macros [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1887,76 +1887,76 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
+          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
+          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
+          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1968,22 +1968,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
+          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1995,22 +1995,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
+          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2022,22 +2022,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
+          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2049,22 +2049,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 05, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
+          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2076,22 +2076,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Facebook 2FA phish arrives just 28 minutes after scam domain created</t>
+          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/01/facebook-2fa-phish-arrives-just-28-minutes-after-scam-domain-created/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2103,22 +2103,22 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2130,22 +2130,22 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2157,22 +2157,22 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Play it safe: 5 reasons not to download pirated games</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2184,22 +2184,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
+          <t>Play it safe: 5 reasons not to download pirated games</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2216,17 +2216,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Driving to France this summer? Watch out for scam websites before you go</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2238,22 +2238,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>8 common Facebook Marketplace scams and how to avoid them</t>
+          <t>Driving to France this summer? Watch out for scam websites before you go</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
+          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2265,22 +2265,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Cyberattacks: A very real existential threat to organizations</t>
+          <t>8 common Facebook Marketplace scams and how to avoid them</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
+          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2292,22 +2292,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>July 01, 2022</t>
+          <t>July 04, 2022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
+          <t>Cyberattacks: A very real existential threat to organizations</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2324,49 +2324,49 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
+          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
+          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>June 30, 2022</t>
+          <t>July 01, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Costco 40th anniversary scam targets WhatsApp users</t>
+          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/06/30/costco-40th-anniversary-scam-targets-whatsapp-users/</t>
+          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/costco-40th-anniversary-whatsapp-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
+          <t>Hackers Targeting VoIP Servers By Exploiting Digium Phone Software</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-targeting-voip-servers-by.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi032-DxeAuxNtuKhGxPDFYqv-j-dQONuQvVtPvXvxiKpSO2yBdcjrSnt4-CF-XGBVvxGUoeMo0iOvBe_m9OOxQT9YHJXWO0iPBq7blSQLEe1jmoB1jE2rMQ8N1XHA_xnSrIIiN1JTR19eDohM0d0SmAozqHM1sTLOCnH47l72YFslceiNdSwTYs_Ol/s260-e100/voip-hacking.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
+          <t>New Netwrix Auditor Bug Could Let Attackers Compromise Active Directory Domain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
+          <t>https://thehackernews.com/2022/07/new-netwrix-auditor-bug-could-let.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh39mdEYmuW8U_EwFeKPQ0bC27D1uPPeMZW21mSz7vOVuH86uWmkyysJNm7SWzTbkvZKpQ0oZsEoYHOsxjzrsZ-W8uYM03Ks_pzon6ljSa_MzOhqa3f-bYRKm9SprSz1CTMdKh-HxgxkKN0CIRjxlPRTdprWutb4cEg-8tTniudnyFRMAhVA4aZxNde/s260-e100/netwrix.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -522,76 +522,76 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
+          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
+          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
+          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
+          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
+          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
+          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
+          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
+          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
+          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
+          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
+          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
+          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pakistani Hackers Targeting Indian Students in Latest Malware Campaign</t>
+          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/pakistani-hackers-targeting-indian.html</t>
+          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgZAH2KaPXSOIJ1y9sH173pY85O1H5tn2mIcal5zmcbIhzA_ANkj9BwUz3SBLlDfLMB0uTsMF9R1wo1M2foKTiSfinmqkGAPtDdYFmhYbmjX9__9dTdnc34yq7-FDFm5xfLJHfDdtF9Bd6DAnHL5TU0OVzGWiDkMxa_-tGcSuMZTx1B87lHbiWODRBS/s260-e100/hackers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>New 'Retbleed' Speculative Execution Attack Affects AMD and Intel CPUs</t>
+          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-retbleed-speculative-execution.html</t>
+          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj99hURM7p8UjuvAPRUCPZEYm50BKJ3LJ8CUqoqkTVh28vJ-Sbbgu5VZ5sRZdmw3XxjwNRHVeWSjwiQzJuTzu8vHEQQWoyVAhDO0GxtAYTCybsDVFFDnYWGJteRJlmrv2qcHafQX88lBxzIvl28XHy4aRqIDv6CU-w3qxGkWP0joupgmUhpEc1RVHTM/s260-e100/intel-amd.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1293,76 +1293,76 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1374,22 +1374,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1401,22 +1401,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>June 20, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1428,54 +1428,54 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>June 15, 2022</t>
+          <t>June 20, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+          <t>Why Paper Receipts are Money at the Drive-Thru</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>June 14, 2022</t>
+          <t>June 15, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ransomware Group Debuts Searchable Victim Data</t>
+          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1487,44 +1487,44 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
+          <t>Ransomware Group Debuts Searchable Victim Data</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
+          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>June 11, 2022</t>
+          <t>June 14, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
+          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
+          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1536,22 +1536,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>June 07, 2022</t>
+          <t>June 11, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>KrebsOnSecurity in New Netflix Series on Cybercrime</t>
+          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/krebsonsecurity-in-new-netflix-series-on-cybercrime/</t>
+          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/netflixseries.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hackers Targeting VoIP Servers By Exploiting Digium Phone Software</t>
+          <t>Google Removes "App Permissions" List from Play Store for New "Data Safety" Section</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-targeting-voip-servers-by.html</t>
+          <t>https://thehackernews.com/2022/07/google-removes-app-permissions-list.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi032-DxeAuxNtuKhGxPDFYqv-j-dQONuQvVtPvXvxiKpSO2yBdcjrSnt4-CF-XGBVvxGUoeMo0iOvBe_m9OOxQT9YHJXWO0iPBq7blSQLEe1jmoB1jE2rMQ8N1XHA_xnSrIIiN1JTR19eDohM0d0SmAozqHM1sTLOCnH47l72YFslceiNdSwTYs_Ol/s260-e100/voip-hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhdKufFyMGZC64cnCm_HBsH24fsPQH_gwGTsRT2P17DIbNWhUs9-jt_2XPS9pyViywkRfzCrYugxV87WT7jUIYnYWS3DdkRAt14nH8g6MYdyP_lyBgZ2kwUfr-Xjp2pPAOgbNpmmAIz_SnB0ZOTbXPkIKg4FkAFu2KoZsYnbRbYXijb93OY8jXku_pX/s260-e100/google.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>New Netwrix Auditor Bug Could Let Attackers Compromise Active Directory Domain</t>
+          <t>Hackers Targeting VoIP Servers By Exploiting Digium Phone Software</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-netwrix-auditor-bug-could-let.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-targeting-voip-servers-by.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh39mdEYmuW8U_EwFeKPQ0bC27D1uPPeMZW21mSz7vOVuH86uWmkyysJNm7SWzTbkvZKpQ0oZsEoYHOsxjzrsZ-W8uYM03Ks_pzon6ljSa_MzOhqa3f-bYRKm9SprSz1CTMdKh-HxgxkKN0CIRjxlPRTdprWutb4cEg-8tTniudnyFRMAhVA4aZxNde/s260-e100/netwrix.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi032-DxeAuxNtuKhGxPDFYqv-j-dQONuQvVtPvXvxiKpSO2yBdcjrSnt4-CF-XGBVvxGUoeMo0iOvBe_m9OOxQT9YHJXWO0iPBq7blSQLEe1jmoB1jE2rMQ8N1XHA_xnSrIIiN1JTR19eDohM0d0SmAozqHM1sTLOCnH47l72YFslceiNdSwTYs_Ol/s260-e100/voip-hacking.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
+          <t>New Netwrix Auditor Bug Could Let Attackers Compromise Active Directory Domain</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
+          <t>https://thehackernews.com/2022/07/new-netwrix-auditor-bug-could-let.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh39mdEYmuW8U_EwFeKPQ0bC27D1uPPeMZW21mSz7vOVuH86uWmkyysJNm7SWzTbkvZKpQ0oZsEoYHOsxjzrsZ-W8uYM03Ks_pzon6ljSa_MzOhqa3f-bYRKm9SprSz1CTMdKh-HxgxkKN0CIRjxlPRTdprWutb4cEg-8tTniudnyFRMAhVA4aZxNde/s260-e100/netwrix.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -549,17 +549,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
+          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
+          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,49 +576,49 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
+          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
+          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
+          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
+          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
+          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
+          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
+          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
+          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
+          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
+          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Microsoft Details App Sandbox Escape Bug Impacting Apple iOS, iPadOS, macOS Devices</t>
+          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/microsoft-details-app-sandbox-escape.html</t>
+          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj4-tl9zqLAnUy5YZYE2e-VDWbxFmukKTKiA4cwq-_Otf_EHdMWd8wsOlwgRDPhJZuUTK9glp904SSc0NTx1PpDqksvNQWkFY-LZamHPAsApddS3qcrmCdO7NEFPgHQn3rTISlGh-Z3dSoGFE7_p22YG-qSUMgEe25q7h--slaF7mjRL4nRhtizq8i4/s260-e100/apple.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1563,22 +1563,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 16, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
+          <t>Amazon Handed Ring Videos to Cops Without Warrants</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
+          <t>https://www.wired.com/story/amazon-ring-police-videos-security-roundup/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
+          <t>https://media.wired.com/photos/62d1e18b96c3152eeee90558/master/pass/Ring-Doorbell-Cops-Security-Alamy-PAYKGF.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1590,76 +1590,76 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
+          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
+          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
+          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
+          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
+          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
+          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
+          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
+          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
+          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1676,17 +1676,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
+          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
+          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
+          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1698,54 +1698,54 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
+          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
+          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
+          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 09, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Will These Algorithms Save You From Quantum Threats?</t>
+          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
+          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
+          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1757,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
+          <t>Will These Algorithms Save You From Quantum Threats?</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
+          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
+          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1779,22 +1779,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The Danger of License Plate Readers in Post-Roe America</t>
+          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
+          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
+          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1806,22 +1806,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 07, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple’s Lockdown Mode Aims to Counter Spyware Threats</t>
+          <t>The Danger of License Plate Readers in Post-Roe America</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-16-lockdown-mode/</t>
+          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c4d4d359880327aa662746/master/pass/Apple-Lockdown-Mode-Security-GettyImages-564494353.jpg</t>
+          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,54 +463,54 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 17, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Google Removes "App Permissions" List from Play Store for New "Data Safety" Section</t>
+          <t>Juniper Releases Patches for Critical Flaws in Junos OS and Contrail Networking</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/google-removes-app-permissions-list.html</t>
+          <t>https://thehackernews.com/2022/07/juniper-releases-patches-for-critical.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhdKufFyMGZC64cnCm_HBsH24fsPQH_gwGTsRT2P17DIbNWhUs9-jt_2XPS9pyViywkRfzCrYugxV87WT7jUIYnYWS3DdkRAt14nH8g6MYdyP_lyBgZ2kwUfr-Xjp2pPAOgbNpmmAIz_SnB0ZOTbXPkIKg4FkAFu2KoZsYnbRbYXijb93OY8jXku_pX/s260-e100/google.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg8-VVIS2lxymG5RrXfW4A9rcXCdSCFPFYcWfEQ-Xpf0G4l7dKc6WfZONaHPfyiGLqveNCesv7Ep8KItbQO4BnJuyIvP6PsqVPieQsKuf2H6qVbfpGGXyW9mfDMClzWxqXIdd6O-lazHX18bCzNZj0V2pNZY1fuNq2mSiNU0P27qRJA2ShDFE9nEX_f/s260-e100/juniper.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 17, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hackers Targeting VoIP Servers By Exploiting Digium Phone Software</t>
+          <t>Google Removes "App Permissions" List from Play Store for New "Data Safety" Section</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-targeting-voip-servers-by.html</t>
+          <t>https://thehackernews.com/2022/07/google-removes-app-permissions-list.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi032-DxeAuxNtuKhGxPDFYqv-j-dQONuQvVtPvXvxiKpSO2yBdcjrSnt4-CF-XGBVvxGUoeMo0iOvBe_m9OOxQT9YHJXWO0iPBq7blSQLEe1jmoB1jE2rMQ8N1XHA_xnSrIIiN1JTR19eDohM0d0SmAozqHM1sTLOCnH47l72YFslceiNdSwTYs_Ol/s260-e100/voip-hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhdKufFyMGZC64cnCm_HBsH24fsPQH_gwGTsRT2P17DIbNWhUs9-jt_2XPS9pyViywkRfzCrYugxV87WT7jUIYnYWS3DdkRAt14nH8g6MYdyP_lyBgZ2kwUfr-Xjp2pPAOgbNpmmAIz_SnB0ZOTbXPkIKg4FkAFu2KoZsYnbRbYXijb93OY8jXku_pX/s260-e100/google.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>New Netwrix Auditor Bug Could Let Attackers Compromise Active Directory Domain</t>
+          <t>Hackers Targeting VoIP Servers By Exploiting Digium Phone Software</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-netwrix-auditor-bug-could-let.html</t>
+          <t>https://thehackernews.com/2022/07/hackers-targeting-voip-servers-by.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh39mdEYmuW8U_EwFeKPQ0bC27D1uPPeMZW21mSz7vOVuH86uWmkyysJNm7SWzTbkvZKpQ0oZsEoYHOsxjzrsZ-W8uYM03Ks_pzon6ljSa_MzOhqa3f-bYRKm9SprSz1CTMdKh-HxgxkKN0CIRjxlPRTdprWutb4cEg-8tTniudnyFRMAhVA4aZxNde/s260-e100/netwrix.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi032-DxeAuxNtuKhGxPDFYqv-j-dQONuQvVtPvXvxiKpSO2yBdcjrSnt4-CF-XGBVvxGUoeMo0iOvBe_m9OOxQT9YHJXWO0iPBq7blSQLEe1jmoB1jE2rMQ8N1XHA_xnSrIIiN1JTR19eDohM0d0SmAozqHM1sTLOCnH47l72YFslceiNdSwTYs_Ol/s260-e100/voip-hacking.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
+          <t>New Netwrix Auditor Bug Could Let Attackers Compromise Active Directory Domain</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
+          <t>https://thehackernews.com/2022/07/new-netwrix-auditor-bug-could-let.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh39mdEYmuW8U_EwFeKPQ0bC27D1uPPeMZW21mSz7vOVuH86uWmkyysJNm7SWzTbkvZKpQ0oZsEoYHOsxjzrsZ-W8uYM03Ks_pzon6ljSa_MzOhqa3f-bYRKm9SprSz1CTMdKh-HxgxkKN0CIRjxlPRTdprWutb4cEg-8tTniudnyFRMAhVA4aZxNde/s260-e100/netwrix.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
+          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
+          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -603,49 +603,49 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
+          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
+          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
+          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
+          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
+          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
+          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
+          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
+          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>A Simple Formula for Getting Your IT Security Budget Approved</t>
+          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/a-simple-formula-for-getting-your-it.html</t>
+          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh1VKbNfZUMeaNuQQkQWMxIKq-A7CAgQrNP0zSfEhdOGDhmtHsxQRxWeSRMTQ6nXkIY10_-VSwHF7zjSjz99g0QvzZwMU2xkA4dLuw2iQWXcHQ5JT_jZ5xJO7wHULo41FpA4RBCU0NHdw1mjVAvWkdJi6z_SXwauWPRNqj49NYiMSTpwa7SPb2JrHJE/s260-e100/cybersecurity-budget.jpg</t>
+          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 17, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Juniper Releases Patches for Critical Flaws in Junos OS and Contrail Networking</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/juniper-releases-patches-for-critical.html</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEg8-VVIS2lxymG5RrXfW4A9rcXCdSCFPFYcWfEQ-Xpf0G4l7dKc6WfZONaHPfyiGLqveNCesv7Ep8KItbQO4BnJuyIvP6PsqVPieQsKuf2H6qVbfpGGXyW9mfDMClzWxqXIdd6O-lazHX18bCzNZj0V2pNZY1fuNq2mSiNU0P27qRJA2ShDFE9nEX_f/s260-e100/juniper.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,49 +490,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 17, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Google Removes "App Permissions" List from Play Store for New "Data Safety" Section</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/google-removes-app-permissions-list.html</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhdKufFyMGZC64cnCm_HBsH24fsPQH_gwGTsRT2P17DIbNWhUs9-jt_2XPS9pyViywkRfzCrYugxV87WT7jUIYnYWS3DdkRAt14nH8g6MYdyP_lyBgZ2kwUfr-Xjp2pPAOgbNpmmAIz_SnB0ZOTbXPkIKg4FkAFu2KoZsYnbRbYXijb93OY8jXku_pX/s260-e100/google.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hackers Targeting VoIP Servers By Exploiting Digium Phone Software</t>
+          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/hackers-targeting-voip-servers-by.html</t>
+          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEi032-DxeAuxNtuKhGxPDFYqv-j-dQONuQvVtPvXvxiKpSO2yBdcjrSnt4-CF-XGBVvxGUoeMo0iOvBe_m9OOxQT9YHJXWO0iPBq7blSQLEe1jmoB1jE2rMQ8N1XHA_xnSrIIiN1JTR19eDohM0d0SmAozqHM1sTLOCnH47l72YFslceiNdSwTYs_Ol/s260-e100/voip-hacking.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,49 +544,49 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>New Netwrix Auditor Bug Could Let Attackers Compromise Active Directory Domain</t>
+          <t>Authentication Risks Discovered in Okta Platform</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-netwrix-auditor-bug-could-let.html</t>
+          <t>https://threatpost.com/risks-okta-sso/180249/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEh39mdEYmuW8U_EwFeKPQ0bC27D1uPPeMZW21mSz7vOVuH86uWmkyysJNm7SWzTbkvZKpQ0oZsEoYHOsxjzrsZ-W8uYM03Ks_pzon6ljSa_MzOhqa3f-bYRKm9SprSz1CTMdKh-HxgxkKN0CIRjxlPRTdprWutb4cEg-8tTniudnyFRMAhVA4aZxNde/s260-e100/netwrix.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>5 Key Things We Learned from CISOs of Smaller Enterprises Survey</t>
+          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/5-key-things-we-learned-from-cisos-of.html</t>
+          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhzGYZP3qllmSW2-xnkSbk6MnlWutbFJeuc2-47jQgVdi7YghgpVvR5uTSe1rYN8N5uQSxFEg3d-findrTFD_OTV-pi6Ys8QbQ4dWBaXoCSO8WopZxiCKX56i0LQlbIa2GVQjrBK6N8fzf-kB3DAvK-0TZX3waSzvpVFVNbCsH_uC9tC-Sa3dCTv45i/s260-e100/cisa.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,81 +598,81 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>New Cache Side Channel Attack Can De-Anonymize Targeted Online Users</t>
+          <t>Google Boots Multiple Malware-laced Android Apps from Marketplace</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/new-cache-side-channel-attack-can-de.html</t>
+          <t>https://threatpost.com/google-boots-malware-marketplace/180241/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEgMItEIi4COgRD4RmhFiDCDc6wIjaMUMhWGBuCyAIZwWVKHsayBIs3PlNT0fWR-MWUt6aHGdxAJgmwdaXHCXsauIEwISvoNbXcX6NmcbKzPVIc1dl44afCmVG6xx-MSVZgVttnReHxOBnQVqtJKEvqZ6Yng6eBP_FLCY8cpG5UDG1JFaqEC6JTW8Dwz/s260-e100/anonymous.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/09112156/Joker-malware.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>North Korean Hackers Targeting Small and Midsize Businesses with H0lyGh0st Ransomware</t>
+          <t>CISA Urges Patch of Exploited Windows 11 Bug by Aug. 2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/north-korean-hackers-targeting-small.html</t>
+          <t>https://threatpost.com/cisa-urges-patch-11-bug/180235/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEimLhLP1Zt1Snl0dDCkOpCQHVEVc0MKK1vNfpHTP4LnL9zK47lR_JrLwDP0aQJR9qQyIj7864Mu96aKsNEPgENxfTFDReqWxlrZWmFg_FrWBpqHj_4v7MnI2DAvIwpHZMuSmxlkQrzvOGidOByY-Y7S2HiObEEIPUcxhIkMgxhtEuFH7lO7j8cdw5dT/s260-e100/ransomware-hacking.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/18080631/windows-11.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Mantis Botnet Behind the Largest HTTPS DDoS Attack Targeting Cloudflare Customers</t>
+          <t>Emerging H0lyGh0st Ransomware Tied to North Korea</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/mantis-botnet-behind-largest-https-ddos.html</t>
+          <t>https://threatpost.com/h0lygh0st-ransomware-north-korea/180232/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEj_Ev2onI70xWxN_MNilAjQ09tXWI7VxF9zq9rGGeEpTk3uXA2eYSmHlUFaIeFHQbHyobMDDNErNG53jIxO2_6k1un7ZbxasrCcVO3A_-CkHvhfW81WJAHoD3L-LiUkwtoxYRrCJmoSFc7cziJffM0LqHB8ZkDk8wsOLXEPC18yGgYZN08grQjEdmxx/s260-e100/botnet.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/05/13135843/network-defense.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
@@ -684,102 +684,98 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Former CIA Engineer Convicted of Leaking 'Vault 7' Hacking Secrets to WikiLeaks</t>
+          <t>Journalists Emerge as Favored Attack Target for APTs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/former-cia-engineer-convicted-of.html</t>
+          <t>https://threatpost.com/journalists-target-apts/180224/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEhRFEvgrtXM5HXNORqgmwOkMQ277uaxEwdvfC-u9AFlGjMnZfwdGQ7ewHr7EI4P1lBWU4F3pwSb33xafA9T8grh3TLBtdywjBRJwpaxUujSz__lZ3VYAy4ToMqcMRVm_hV_st72Uzt_Rd4hz_K2a6lhCocU50S8bRUoES_Wer1npA8k52PjZ3mBYEO5/s260-e100/cia.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>State-Backed Hackers Targeting Journalists in Widespread Espionage Campaigns</t>
+          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://thehackernews.com/2022/07/state-backed-hackers-targeting.html</t>
+          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://blogger.googleusercontent.com/img/b/R29vZ2xl/AVvXsEjSa_j9jSSEONCWYw8K7_w9Ie1gg2kqtouKoaWFM0gSB8yH8Q_HUC3QJtjIwOv7GLytKt64Bl_0JI4UX6pYjGCQcsO0cUh-Lzhanv4xVSdpFuU1rNFfTVQ7EuBMmjFpBaEBSNaLifwldcVfz9N5wfTbAL61CdjgtqRrOu00JOT1D2tgltFHFBMoomwO/s260-e100/papers.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Cloudflare named the botnet behind record-breaking DDoS attack
-</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/cloudflare-named-the-botnet-behind-the-record-breaking-ddos-attack/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Cloudflare-logo-website.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Meta's ‘Make-A-Scene’ AI will bring imagination to life in the metaverse
-</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/metas-make-a-scene-ai-will-bring-imagination-to-life-in-the-metaverse/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/290601794_1176479646540355_5132798628346215961_n.jpeg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -796,19 +792,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Imposter immigration officers threaten to have you deported
-</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/imposter-immigration-officers-threaten-to-have-you-deported/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/imposterimigrationofficers.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -820,53 +814,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Twitter down for thousands of users worldwide
-</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/imposter-immigration-officers-threaten-to-have-you-deported/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/imposterimigrationofficers.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Chinese hackers targeted US journalists ahead of the Capitol riots
-</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/twitter-down-for-thousands-of-users-worldwide/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Twitter-down-mobile.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -878,24 +868,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Russia takes “coercive” measures against Twitch
-</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/chinese-hackers-targeted-us-journalists-ahead-of-the-capitol-riots/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/US-Capitol-Riot2.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -907,165 +895,157 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Adware campaign steals Google users’ search engine data
-</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/russia-takes-coercive-measures-against-twitch/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/russia-against-twitch.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>June 20, 2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Microsoft uncovered exploit for macOS sandbox escape bug
-</t>
+          <t>Why Paper Receipts are Money at the Drive-Thru</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/adware-campaign-steals-google-users-search-engine-data/</t>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/GoogleMagnifier.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>June 15, 2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Threat actors impersonate Crowdstrike to extort data and deploy ransomware
-</t>
+          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/microsoft-uncovered-exploit-for-macos-sandbox-escape-bug/</t>
+          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Mac-Apple-Macbook.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>June 14, 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-UK police arrest three people by using facial recognition in central London
-</t>
+          <t>Ransomware Group Debuts Searchable Victim Data</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/threat-actors-impersonate-crowdstrike-to-extort-data-and-deploy-ransomware/</t>
+          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/crowdstrike-phishing-email.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Emerging H0lyGh0st Ransomware Tied to North Korea</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://threatpost.com/h0lygh0st-ransomware-north-korea/180232/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/05/13135843/network-defense.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Journalists Emerge as Favored Attack Target for APTs</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://threatpost.com/journalists-target-apts/180224/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1077,49 +1057,49 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
+          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
+          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>How War Impacts Cyber Insurance</t>
+          <t>Congress Might Pass an Actually Good Privacy Bill</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://threatpost.com/war-impact-cyber-insurance/180185/</t>
+          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/07/19123143/Security_Cyber_Insurance.jpg</t>
+          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1131,76 +1111,76 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>‘Callback’ Phishing Campaign Impersonates Security Firms</t>
+          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/callback-phishing-security-firms/180182/</t>
+          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/02/14094016/mobile-security.jpeg</t>
+          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Rethinking Vulnerability Management in a Heightened Threat Landscape</t>
+          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/rethinking-vulnerability-management/180177/</t>
+          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/08/03142545/Cutting-Through-the-Noise-from-Daily-Alerts.png</t>
+          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Popular NFT Marketplace Phished for $540M</t>
+          <t>Instagram Slow to Tackle Bots Targeting Iranian Women’s Groups</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-nft-marketplace-phished-for-540m/180174/</t>
+          <t>https://www.wired.com/story/iran-women-groups-instagram-bot-battle/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/09151623/phishing-e1636488996585.jpg</t>
+          <t>https://media.wired.com/photos/62d1e6a7c801469017a1167b/master/pass/Iran-Instagram-Bots-Security-GettyImages-1238704914.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1212,22 +1192,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 16, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sneaky Orbit Malware Backdoors Linux Devices</t>
+          <t>Amazon Handed Ring Videos to Cops Without Warrants</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://threatpost.com/sneaky-malware-backdoors-linux/180158/</t>
+          <t>https://www.wired.com/story/amazon-ring-police-videos-security-roundup/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/24125253/Linux_700_420.png</t>
+          <t>https://media.wired.com/photos/62d1e18b96c3152eeee90558/master/pass/Ring-Doorbell-Cops-Security-Alamy-PAYKGF.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1239,22 +1219,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>U.S. Healthcare Orgs Targeted with Maui Ransomware</t>
+          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://threatpost.com/healthcare-maui-ransomware/180154/</t>
+          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/11/05121727/ransomware7-e1636129059903.jpg</t>
+          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1266,49 +1246,49 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hack Allows Drone Takeover Via ‘ExpressLRS’ Protocol</t>
+          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://threatpost.com/drone-hack-expresslrs-hijacked/180133/</t>
+          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/11/08090557/DJI-Drone.jpg</t>
+          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1320,49 +1300,49 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1374,22 +1354,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1401,22 +1381,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1428,22 +1408,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>June 20, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>7 cybersecurity tips for your summer vacation!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1455,103 +1435,103 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>June 15, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>June 14, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ransomware Group Debuts Searchable Victim Data</t>
+          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>June 14, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>“Downthem” DDoS-for-Hire Boss Gets 2 Years in Prison</t>
+          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/downthem-ddos-for-hire-boss-gets-2-years-in-prison/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2018/12/downthempanel2.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>June 11, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Adconion Execs Plead Guilty in Federal Anti-Spam Case</t>
+          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/adconion-execs-plead-guilty-in-federal-anti-spam-case/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2019/05/ips.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1563,22 +1543,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 16, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Amazon Handed Ring Videos to Cops Without Warrants</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/amazon-ring-police-videos-security-roundup/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d1e18b96c3152eeee90558/master/pass/Ring-Doorbell-Cops-Security-Alamy-PAYKGF.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1590,22 +1570,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1617,49 +1597,49 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>A Privacy Panic Flares Up in India After Police Pull Payment Data</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/police-pull-indian-payments-data/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cda89b4847c5414f1e3dd1/master/pass/Alt-News-India-Security-GettyImages-1232704377.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1671,22 +1651,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The January 6 Insurrection Hearings Are Just Heating Up</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/january-6-insurrection-hearings-heating-up/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cc445bd8350505ad2d7c0d/master/pass/Jan6_Hearing_Biz_GettyImages-1241442014.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1698,22 +1678,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Russian ‘Hacktivists’ Are Causing Trouble Far Beyond Ukraine</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-hacking-xaknet-killnet/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c8b45c8bddd2a9edc32d0f/master/pass/Russian-%E2%80%98Hacktivists%E2%80%99-Are-Causing-Trouble-Far-Beyond-Ukraine-Security-GettyImages-1088932190.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1725,27 +1705,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 09, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chinese Police Exposed 1B People's Data in Unprecedented Leak</t>
+          <t>Play it safe: 5 reasons not to download pirated games</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/chinese-police-exposed-1-billion-peoples-data/</t>
+          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c899a1375f678977107d9d/master/pass/Shanghai-Police-Security-Roundup-Security-GettyImages-1399186315-(1).jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1757,17 +1737,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Will These Algorithms Save You From Quantum Threats?</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/quantum-proof-encryption-is-here-but-theres-a-catch/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c847a277d8e218f20555df/master/pass/Quantum-Algorithm-Encryption-Security-GettyImages-1401966979.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1784,17 +1764,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>An ISP Scam Targeted Low-Income People Seeking Government Aid</t>
+          <t>Driving to France this summer? Watch out for scam websites before you go</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/fake-isp-scam-targeted-low-income-victims/</t>
+          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c75c34aab7b6db928fd37a/master/pass/security_isp-scam-1054540526.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1806,22 +1786,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 06, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>The Danger of License Plate Readers in Post-Roe America</t>
+          <t>8 common Facebook Marketplace scams and how to avoid them</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/license-plate-reader-alpr-surveillance-abortion/</t>
+          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62c60481587d2ebb62b8049f/master/pass/Automated-License-Plate-Readers-Security-Alamy-2HBPFXB.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1833,22 +1813,24 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>7 cybersecurity tips for your summer vacation!</t>
+          <t xml:space="preserve">
+Thai pro-democracy activists targeted with Pegasus spyware
+</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
+          <t>https://cybernews.com/news/thai-pro-democracy-activists-targeted-with-pegasus-spyware/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/Shutterstock_2133712661.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1860,22 +1842,24 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs and Office macros [Podcast + Transcript]</t>
+          <t xml:space="preserve">
+NSO Group sold spyware to 14 EU governments
+</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
+          <t>https://cybernews.com/news/nso-group-sold-spyware-to-14-eu-governments/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/featured/2022/07/NSOgrouppegasus.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1887,22 +1871,24 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
+          <t xml:space="preserve">
+PayPal accounts used in phishing scam
+</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
+          <t>https://cybernews.com/news/paypal-accounts-used-in-phishing-scam/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/PayPalDark.png</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1914,49 +1900,53 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
+          <t xml:space="preserve">
+Robot dog with machine gun hints of a dystopian future
+</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
+          <t>https://cybernews.com/news/paypal-accounts-used-in-phishing-scam/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/PayPalDark.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
+          <t xml:space="preserve">
+‘Cyber-merc’ outfit claims to have police insiders
+</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
+          <t>https://cybernews.com/news/robot-dog-with-machine-gun-hints-of-a-dystopian-future/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Robot-Dog-Russia.png</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1968,49 +1958,53 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Apache “Commons Configuration” patches Log4Shell-style bug – what you need to know</t>
+          <t xml:space="preserve">
+European Commission sued for violating data protection laws it created
+</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/08/apache-commons-configuration-toolkit-patches-log4shell-like-bug/</t>
+          <t>https://cybernews.com/news/cyber-merc-outfit-claims-to-have-police-insiders/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/apache-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/CorruptCopper.png</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 07, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S3 Ep90: Chrome 0-day again, True Cybercrime, and a 2FA bypass [Podcast + Transcript]</t>
+          <t xml:space="preserve">
+Meta hit with trademark lawsuit by virtual-reality company
+</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/07/s3-ep90-chrome-0-day-again-true-cybercrime-and-a-2fa-bypass-podcast-transcript/</t>
+          <t>https://cybernews.com/news/european-commission-sued-for-violating-data-protection-laws-it-created/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2021/09/ns-1200-logo-podcast.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/European-Commission-Sued.png</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2022,22 +2016,24 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>OpenSSL fixes two “one-liner” crypto bugs – what you need to know</t>
+          <t xml:space="preserve">
+US seizes $500k from North Korean ransom gangs
+</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/06/openssl-fixes-two-one-liner-crypto-bugs-what-you-need-to-know/</t>
+          <t>https://cybernews.com/news/meta-hit-with-trademark-lawsuit-by-virtual-reality-company/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/06/ossl-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/FacebookMetaEtc.png</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2049,22 +2045,24 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 05, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Google patches “in-the-wild” Chrome zero-day – update now!</t>
+          <t xml:space="preserve">
+Novel CloudMensis spyware targets Apple macOS users
+</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/05/google-patches-in-the-wild-chrome-zero-day-update-now/</t>
+          <t>https://cybernews.com/news/us-seizes-500k-from-north-korean-ransom-gangs/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/chr-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/NorthKoreanHackersransomware.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2076,297 +2074,29 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 04, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Canadian cybercriminal pleads guilty to “NetWalker” attacks in US</t>
+          <t xml:space="preserve">
+Netflix launches “add a home” feature to fight freeloaders
+</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/04/canadian-cybercriminal-pleads-guilty-to-netwalker-attacks-in-us/</t>
+          <t>https://cybernews.com/news/novel-cloudmensis-spyware-targets-apple-macos-users/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/cuffs-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Mac-Device-Apple.png</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>July 15, 2022</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>July 14, 2022</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>API security moves mainstream</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>July 13, 2022</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>July 12, 2022</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Play it safe: 5 reasons not to download pirated games</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>July 08, 2022</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>July 08, 2022</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Driving to France this summer? Watch out for scam websites before you go</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>July 06, 2022</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>8 common Facebook Marketplace scams and how to avoid them</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>July 04, 2022</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>Cyberattacks: A very real existential threat to organizations</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/04/cyberattacks-real-existential-threat-organizations/</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cyberattacks-real-existential-threat.jpg</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>July 01, 2022</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>Watch out for survey scams – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/watch-out-survey-scams-week-security-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-3.jpg</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>July 01, 2022</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>Phishing scam poses as Canadian tax agency before Canada Day</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/01/phishing-scam-posing-canadian-tax-agency-canada-day/</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/canada-phishing-tax-agency-canada-day.jpg</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,54 +1030,54 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Congress Might Pass an Actually Good Privacy Bill</t>
+          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
+          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
+          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,27 +1111,27 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
+          <t>Congress Might Pass an Actually Good Privacy Bill</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
+          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
+          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1143,17 +1143,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
+          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
+          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
+          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,49 +1165,49 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Instagram Slow to Tackle Bots Targeting Iranian Women’s Groups</t>
+          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/iran-women-groups-instagram-bot-battle/</t>
+          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d1e6a7c801469017a1167b/master/pass/Iran-Instagram-Bots-Security-GettyImages-1238704914.jpg</t>
+          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 16, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Amazon Handed Ring Videos to Cops Without Warrants</t>
+          <t>Instagram Slow to Tackle Bots Targeting Iranian Women’s Groups</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/amazon-ring-police-videos-security-roundup/</t>
+          <t>https://www.wired.com/story/iran-women-groups-instagram-bot-battle/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d1e18b96c3152eeee90558/master/pass/Ring-Doorbell-Cops-Security-Alamy-PAYKGF.jpg</t>
+          <t>https://media.wired.com/photos/62d1e6a7c801469017a1167b/master/pass/Iran-Instagram-Bots-Security-GettyImages-1238704914.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1219,22 +1219,22 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 16, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
+          <t>Amazon Handed Ring Videos to Cops Without Warrants</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
+          <t>https://www.wired.com/story/amazon-ring-police-videos-security-roundup/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
+          <t>https://media.wired.com/photos/62d1e18b96c3152eeee90558/master/pass/Ring-Doorbell-Cops-Security-Alamy-PAYKGF.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1246,27 +1246,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>New ‘Retbleed’ Attack Can Swipe Key Data From Intel and AMD CPUs</t>
+          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/retbleed-intel-amd-cpu-attack/</t>
+          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfc248c54375988f181bf/master/pass/Retbleed-Attack-CPU-Security-GettyImages-1016522744.jpg</t>
+          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,22 +490,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Authentication Risks Discovered in Okta Platform</t>
+          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/risks-okta-sso/180249/</t>
+          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,17 +576,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
+          <t>Authentication Risks Discovered in Okta Platform</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
+          <t>https://threatpost.com/risks-okta-sso/180249/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,27 +598,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Google Boots Multiple Malware-laced Android Apps from Marketplace</t>
+          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/google-boots-malware-marketplace/180241/</t>
+          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/09112156/Joker-malware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -630,103 +630,103 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CISA Urges Patch of Exploited Windows 11 Bug by Aug. 2</t>
+          <t>Google Boots Multiple Malware-laced Android Apps from Marketplace</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://threatpost.com/cisa-urges-patch-11-bug/180235/</t>
+          <t>https://threatpost.com/google-boots-malware-marketplace/180241/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/18080631/windows-11.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/09112156/Joker-malware.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Emerging H0lyGh0st Ransomware Tied to North Korea</t>
+          <t>CISA Urges Patch of Exploited Windows 11 Bug by Aug. 2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://threatpost.com/h0lygh0st-ransomware-north-korea/180232/</t>
+          <t>https://threatpost.com/cisa-urges-patch-11-bug/180235/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/05/13135843/network-defense.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/18080631/windows-11.png</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Journalists Emerge as Favored Attack Target for APTs</t>
+          <t>Emerging H0lyGh0st Ransomware Tied to North Korea</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://threatpost.com/journalists-target-apts/180224/</t>
+          <t>https://threatpost.com/h0lygh0st-ransomware-north-korea/180232/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/05/13135843/network-defense.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Large-Scale Phishing Campaign Bypasses MFA</t>
+          <t>Journalists Emerge as Favored Attack Target for APTs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://threatpost.com/large-scale-hishing-bypasses-mfa/180212/</t>
+          <t>https://threatpost.com/journalists-target-apts/180224/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,22 +1030,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,49 +1057,49 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,157 +1111,157 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Congress Might Pass an Actually Good Privacy Bill</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
+          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
+          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
+          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
+          <t>Congress Might Pass an Actually Good Privacy Bill</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
+          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
+          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Instagram Slow to Tackle Bots Targeting Iranian Women’s Groups</t>
+          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/iran-women-groups-instagram-bot-battle/</t>
+          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d1e6a7c801469017a1167b/master/pass/Iran-Instagram-Bots-Security-GettyImages-1238704914.jpg</t>
+          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 16, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Amazon Handed Ring Videos to Cops Without Warrants</t>
+          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/amazon-ring-police-videos-security-roundup/</t>
+          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d1e18b96c3152eeee90558/master/pass/Ring-Doorbell-Cops-Security-Alamy-PAYKGF.jpg</t>
+          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A New Attack Can Unmask Anonymous Users on Any Major Browser</t>
+          <t>Instagram Slow to Tackle Bots Targeting Iranian Women’s Groups</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/web-deanonymization-side-channel-attack-njit/</t>
+          <t>https://www.wired.com/story/iran-women-groups-instagram-bot-battle/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62cdfdd823adf8a37bfae65d/master/pass/Attackers-Could-De-Anonymize-Web-Users-With-Sleight-of-Hand-Security-GettyImages-481812949.jpg</t>
+          <t>https://media.wired.com/photos/62d1e6a7c801469017a1167b/master/pass/Iran-Instagram-Bots-Security-GettyImages-1238704914.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1273,49 +1273,49 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1332,17 +1332,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1354,22 +1354,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1381,22 +1381,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1408,22 +1408,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7 cybersecurity tips for your summer vacation!</t>
+          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1435,22 +1435,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
+          <t>7 cybersecurity tips for your summer vacation!</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1462,22 +1462,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
+          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,76 +1489,76 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
+          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>That didn’t last! Microsoft turns off the Office security it just turned on</t>
+          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/11/that-didnt-last-microsoft-turns-off-the-office-security-it-just-turned-on/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1570,22 +1570,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1597,22 +1597,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1624,22 +1624,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1651,22 +1651,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1678,22 +1678,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1705,22 +1705,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Play it safe: 5 reasons not to download pirated games</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1732,22 +1732,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
+          <t>Play it safe: 5 reasons not to download pirated games</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1764,17 +1764,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Driving to France this summer? Watch out for scam websites before you go</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1786,22 +1786,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 06, 2022</t>
+          <t>July 08, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8 common Facebook Marketplace scams and how to avoid them</t>
+          <t>Driving to France this summer? Watch out for scam websites before you go</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/06/8-common-facebook-marketplace-scams-how-avoid/</t>
+          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/facebook-marketplace-scams-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1813,285 +1813,285 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Hackers claim to have breached Italy’s revenue agency
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/hackers-claim-to-have-breached-italys-revenue-agency/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Agenzia-Entrate-Breach.png</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+T-Mobile to pay $350m for a massive data breach
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/t-mobile-to-pay-350m-for-a-massive-data-breach/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Shutterstock_719314423.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+LockBit targets small Canadian town with extortion
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/lockbit-targets-small-canadian-town-with-extortion/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/Darkweb-hacker-keyboard.png</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Google exploit used against journalists
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/lockbit-targets-small-canadian-town-with-extortion/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/06/Darkweb-hacker-keyboard.png</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Software cracks used to peddle Amadey malware through SmokeLoader
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/google-exploit-used-against-journalists/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/GoogleChromeExploit.png</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Honor among cyber-thieves: a criminal career based on trust
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/software-cracks-used-to-peddle-amadey-malware-through-smokeloader/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Computer-screen-headphones.jpg</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Google booted engineer who deemed AI chatbot sentient
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/honor-among-cyber-thieves-a-criminal-career-based-on-trust/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/HandshakeDark.png</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Rogers to invest C$10bn in AI
+</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/google-booted-engineer-who-deemed-ai-chatbot-sentient/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Google-office-logo.png</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Thai pro-democracy activists targeted with Pegasus spyware
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/thai-pro-democracy-activists-targeted-with-pegasus-spyware/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Shutterstock_2133712661.jpg</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/rogers-to-invest-10bn-ai/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/AIRogers.png</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>July 22, 2022</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 NSO Group sold spyware to 14 EU governments
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/nso-group-sold-spyware-to-14-eu-governments/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/NSOgrouppegasus.jpg</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>July 21, 2022</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-PayPal accounts used in phishing scam
-</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/paypal-accounts-used-in-phishing-scam/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/PayPalDark.png</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>July 21, 2022</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Robot dog with machine gun hints of a dystopian future
-</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/paypal-accounts-used-in-phishing-scam/</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/PayPalDark.png</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>July 21, 2022</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-‘Cyber-merc’ outfit claims to have police insiders
-</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/robot-dog-with-machine-gun-hints-of-a-dystopian-future/</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Robot-Dog-Russia.png</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>July 20, 2022</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-European Commission sued for violating data protection laws it created
-</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/cyber-merc-outfit-claims-to-have-police-insiders/</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/CorruptCopper.png</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>July 20, 2022</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Meta hit with trademark lawsuit by virtual-reality company
-</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/european-commission-sued-for-violating-data-protection-laws-it-created/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/European-Commission-Sued.png</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>July 20, 2022</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-US seizes $500k from North Korean ransom gangs
-</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/meta-hit-with-trademark-lawsuit-by-virtual-reality-company/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/FacebookMetaEtc.png</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>July 19, 2022</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Novel CloudMensis spyware targets Apple macOS users
-</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/us-seizes-500k-from-north-korean-ransom-gangs/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/NorthKoreanHackersransomware.jpg</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>July 19, 2022</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Netflix launches “add a home” feature to fight freeloaders
-</t>
-        </is>
-      </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/novel-cloudmensis-spyware-targets-apple-macos-users/</t>
+          <t>https://cybernews.com/news/thai-pro-democracy-activists-targeted-with-pegasus-spyware/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Mac-Device-Apple.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Shutterstock_2133712661.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,49 +490,49 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,22 +571,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Authentication Risks Discovered in Okta Platform</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://threatpost.com/risks-okta-sso/180249/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,22 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,49 +625,49 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Google Boots Multiple Malware-laced Android Apps from Marketplace</t>
+          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://threatpost.com/google-boots-malware-marketplace/180241/</t>
+          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/09112156/Joker-malware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CISA Urges Patch of Exploited Windows 11 Bug by Aug. 2</t>
+          <t>Authentication Risks Discovered in Okta Platform</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://threatpost.com/cisa-urges-patch-11-bug/180235/</t>
+          <t>https://threatpost.com/risks-okta-sso/180249/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/18080631/windows-11.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,49 +679,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Emerging H0lyGh0st Ransomware Tied to North Korea</t>
+          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://threatpost.com/h0lygh0st-ransomware-north-korea/180232/</t>
+          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/05/13135843/network-defense.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Journalists Emerge as Favored Attack Target for APTs</t>
+          <t>Google Boots Multiple Malware-laced Android Apps from Marketplace</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://threatpost.com/journalists-target-apts/180224/</t>
+          <t>https://threatpost.com/google-boots-malware-marketplace/180241/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/12/19164027/APT-2018-Year-in-review.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/09112156/Joker-malware.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1813,285 +1813,285 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ex school heads jailed for virtual learning fraud
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ex-school-heads-jailed-for-virtual-learning-fraud/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/VirtualSchool.png</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia fines Google additional $34m for abusing its dominant position
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-google-additional-34-m-for-abusing-its-dominant-position/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Shutterstock_2111602964.jpg</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Uber dodges lawsuit by taking blame for data breach
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/uber-dodges-lawsuit-by-taking-blame-for-data-breach/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/UberLawsuit.png</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers exploit PrestaShop vulnerability to steal payment data
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/uber-dodges-lawsuit-by-taking-blame-for-data-breach/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/UberLawsuit.png</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Blockchain boss convicted of $21m crypto fraud
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-prestashop-vulnerability-to-steal-payment-data/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Credit-Card-Theft.png</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hackers claim to have breached Italy’s revenue agency
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/hackers-claim-to-have-breached-italys-revenue-agency/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Agenzia-Entrate-Breach.png</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/blockchain-boss-convicted-of-21m-crypto-fraud/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/CryptoFraudTitanium.png</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>July 25, 2022</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
 T-Mobile to pay $350m for a massive data breach
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/t-mobile-to-pay-350m-for-a-massive-data-breach/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Shutterstock_719314423.jpg</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/hackers-claim-to-have-breached-italys-revenue-agency/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Agenzia-Entrate-Breach.png</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>July 25, 2022</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 LockBit targets small Canadian town with extortion
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/lockbit-targets-small-canadian-town-with-extortion/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/Darkweb-hacker-keyboard.png</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/t-mobile-to-pay-350m-for-a-massive-data-breach/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Shutterstock_719314423.jpg</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>July 25, 2022</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Google exploit used against journalists
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/lockbit-targets-small-canadian-town-with-extortion/</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/06/Darkweb-hacker-keyboard.png</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>July 25, 2022</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Software cracks used to peddle Amadey malware through SmokeLoader
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/google-exploit-used-against-journalists/</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/GoogleChromeExploit.png</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Honor among cyber-thieves: a criminal career based on trust
-</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/software-cracks-used-to-peddle-amadey-malware-through-smokeloader/</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Computer-screen-headphones.jpg</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Google booted engineer who deemed AI chatbot sentient
-</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/honor-among-cyber-thieves-a-criminal-career-based-on-trust/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/HandshakeDark.png</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Rogers to invest C$10bn in AI
-</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/google-booted-engineer-who-deemed-ai-chatbot-sentient/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Google-office-logo.png</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Thai pro-democracy activists targeted with Pegasus spyware
-</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/rogers-to-invest-10bn-ai/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/AIRogers.png</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>July 22, 2022</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-NSO Group sold spyware to 14 EU governments
-</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/thai-pro-democracy-activists-targeted-with-pegasus-spyware/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Shutterstock_2133712661.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -733,49 +733,49 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,22 +787,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,76 +814,76 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -895,22 +895,22 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -922,22 +922,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>June 20, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,54 +949,54 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June 15, 2022</t>
+          <t>June 20, 2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+          <t>Why Paper Receipts are Money at the Drive-Thru</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June 14, 2022</t>
+          <t>June 15, 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ransomware Group Debuts Searchable Victim Data</t>
+          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/ransomware-group-debuts-searchable-victim-data/</t>
+          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/clearwebvictim.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1273,76 +1273,76 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1359,17 +1359,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1381,22 +1381,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1408,22 +1408,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1435,22 +1435,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7 cybersecurity tips for your summer vacation!</t>
+          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1462,22 +1462,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
+          <t>7 cybersecurity tips for your summer vacation!</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,22 +1489,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
+          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,27 +1516,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Paying ransomware crooks won’t reduce your legal risk, warns regulator</t>
+          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/12/paying-ransomware-crooks-wont-reduce-your-legal-risk-warns-regulator/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ico-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -522,44 +522,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,22 +571,22 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,22 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,22 +652,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Authentication Risks Discovered in Okta Platform</t>
+          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://threatpost.com/risks-okta-sso/180249/</t>
+          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
+          <t>Authentication Risks Discovered in Okta Platform</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
+          <t>https://threatpost.com/risks-okta-sso/180249/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,27 +706,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Google Boots Multiple Malware-laced Android Apps from Marketplace</t>
+          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://threatpost.com/google-boots-malware-marketplace/180241/</t>
+          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/09112156/Joker-malware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,22 +1057,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,22 +1084,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,54 +1111,54 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Congress Might Pass an Actually Good Privacy Bill</t>
+          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
+          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
+          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,27 +1192,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
+          <t>Congress Might Pass an Actually Good Privacy Bill</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
+          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
+          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1224,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
+          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
+          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
+          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1246,27 +1246,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Instagram Slow to Tackle Bots Targeting Iranian Women’s Groups</t>
+          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/iran-women-groups-instagram-bot-battle/</t>
+          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d1e6a7c801469017a1167b/master/pass/Iran-Instagram-Bots-Security-GettyImages-1238704914.jpg</t>
+          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1543,22 +1543,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1570,22 +1570,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1597,22 +1597,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1624,22 +1624,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1651,22 +1651,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1678,22 +1678,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1705,22 +1705,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1732,22 +1732,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Play it safe: 5 reasons not to download pirated games</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1759,22 +1759,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 12, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
+          <t>Play it safe: 5 reasons not to download pirated games</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Driving to France this summer? Watch out for scam websites before you go</t>
+          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/08/driving-france-summer-watch-out-scam-websites/</t>
+          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/driving-france-critair-stickers-scam.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1813,290 +1813,290 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>July 27, 2022</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TikTok hints it might have transferred US data to China
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-hints-it-might-have-transferred-us-data-to-china/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/TikTok-China-ByteDance.png</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
           <t>July 26, 2022</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers employ LinkedIn to steal data from Facebook Business users
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-employ-linkedin-to-steal-data-from-facebook-business-users/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Meta-Business-Suite.png</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Microsoft and Facebook top the list of most impersonated brands
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/microsoft-and-facebook-top-the-list-of-most-impersonated-brands/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Meta-Microsoft-logo.png</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ex school heads jailed for virtual learning fraud
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ex-school-heads-jailed-for-virtual-learning-fraud/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/VirtualSchool.png</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/microsoft-and-facebook-top-the-list-of-most-impersonated-brands/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Meta-Microsoft-logo.png</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>July 26, 2022</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia fines Google additional $34m for abusing its dominant position
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-google-additional-34-m-for-abusing-its-dominant-position/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Shutterstock_2111602964.jpg</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ex-school-heads-jailed-for-virtual-learning-fraud/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/VirtualSchool.png</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>July 26, 2022</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Uber dodges lawsuit by taking blame for data breach
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/uber-dodges-lawsuit-by-taking-blame-for-data-breach/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/UberLawsuit.png</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-google-additional-34-m-for-abusing-its-dominant-position/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Shutterstock_2111602964.jpg</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>July 26, 2022</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers exploit PrestaShop vulnerability to steal payment data
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/uber-dodges-lawsuit-by-taking-blame-for-data-breach/</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/UberLawsuit.png</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>July 26, 2022</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Blockchain boss convicted of $21m crypto fraud
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-exploit-prestashop-vulnerability-to-steal-payment-data/</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Credit-Card-Theft.png</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>July 26, 2022</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hackers claim to have breached Italy’s revenue agency
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/blockchain-boss-convicted-of-21m-crypto-fraud/</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/CryptoFraudTitanium.png</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>July 25, 2022</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 T-Mobile to pay $350m for a massive data breach
 </t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/hackers-claim-to-have-breached-italys-revenue-agency/</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Agenzia-Entrate-Breach.png</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-LockBit targets small Canadian town with extortion
-</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/t-mobile-to-pay-350m-for-a-massive-data-breach/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Shutterstock_719314423.jpg</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Google exploit used against journalists
-</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/lockbit-targets-small-canadian-town-with-extortion/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/06/Darkweb-hacker-keyboard.png</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Software cracks used to peddle Amadey malware through SmokeLoader
-</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/google-exploit-used-against-journalists/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/GoogleChromeExploit.png</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -1278,98 +1278,98 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1386,17 +1386,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1408,22 +1408,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1435,22 +1435,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1462,22 +1462,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7 cybersecurity tips for your summer vacation!</t>
+          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,22 +1489,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
+          <t>7 cybersecurity tips for your summer vacation!</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,22 +1516,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Facebook 2FA scammers return – this time in just 21 minutes</t>
+          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/13/facebook-2fa-scammers-return-this-time-in-just-21-minutes/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/fb-21-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,49 +463,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -549,44 +549,44 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,22 +598,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,22 +625,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -657,17 +657,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,22 +679,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Authentication Risks Discovered in Okta Platform</t>
+          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://threatpost.com/risks-okta-sso/180249/</t>
+          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FBI Warns Fake Crypto Apps are Bilking Investors of Millions</t>
+          <t>Authentication Risks Discovered in Okta Platform</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://threatpost.com/fbi-warns-fake-crypto-apps/180245/</t>
+          <t>https://threatpost.com/risks-okta-sso/180249/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/02/06221502/AdobeStock_22333231-680x400.jpeg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,22 +1030,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1062,17 +1062,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,22 +1084,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,22 +1111,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1138,54 +1138,54 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -1197,17 +1197,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Congress Might Pass an Actually Good Privacy Bill</t>
+          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
+          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
+          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1219,27 +1219,27 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
+          <t>Congress Might Pass an Actually Good Privacy Bill</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
+          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
+          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Most Popular Period-Tracking Apps, Ranked by Data Privacy</t>
+          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/period-tracking-apps-flo-clue-stardust-ranked-data-privacy/</t>
+          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d7120a609b1a368c1ff88e/master/pass/Period-Tracking-Apps-Security-GettyImages-1345113321.jpg</t>
+          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1273,27 +1273,27 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1305,98 +1305,98 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1413,17 +1413,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1435,22 +1435,22 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1462,22 +1462,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,22 +1489,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>7 cybersecurity tips for your summer vacation!</t>
+          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,22 +1516,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>S3 Ep91: CodeRed, OpenSSL, Java bugs, Office macros [Audio + Text]</t>
+          <t>7 cybersecurity tips for your summer vacation!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/14/s3-ep91-codered-openssl-java-bugs-and-office-macros-podcast-transcript/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/nsp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1813,290 +1813,290 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>July 28, 2022</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers employ Telegram and Discord to peddle malware
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-employ-telegram-and-discord-to-peddle-malware/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Telegram-Discord-App.png</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>July 28, 2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Shanghai police breach awakens Chinese underground
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/shanghai-police-breach-awakens-chinese-underground/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/China-hacker-screen3.png</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>July 28, 2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Man pleads guilty to using social media in terror campaign against R. Kelly abuse victim
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/man-pleads-guilty-to-social-media-harassment-against-r-kelly-abuse-victim/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/RKellyUnhappy.png</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>July 28, 2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Microsoft says Austrian firm targets banks, law firms with spyware
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/man-pleads-guilty-to-social-media-harassment-against-r-kelly-abuse-victim/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/RKellyUnhappy.png</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>July 28, 2022</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+EU found evidence employee phones compromised with Pegasus spyware
+</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/microsoft-says-austrian-firm-targets-banks-law-firms-with-spyware/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Microsoft-lock-DSIRF.png</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
           <t>July 27, 2022</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers shut down WordFly, siphon arts institutions’ data
+</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/eu-found-evidence-employee-phones-compromised-with-pegasus-spyware/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Pegasus-NSOGroup-Smartphone.png</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>July 27, 2022</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+The US doubles the bounty for North Korean hackers
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-shut-down-wordfly-siphon-arts-institutions-data/</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Toronto-Symphony-Orchestra.png</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>July 27, 2022</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TikTok hints it might have transferred US data to China
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-hints-it-might-have-transferred-us-data-to-china/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/TikTok-China-ByteDance.png</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/the-us-doubles-the-bounty-for-north-korean-hackers/</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DPRK-North-Korea.png</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>July 27, 2022</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers employ LinkedIn to steal data from Facebook Business users
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-employ-linkedin-to-steal-data-from-facebook-business-users/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Meta-Business-Suite.png</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-hints-it-might-have-transferred-us-data-to-china/</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/TikTok-App-Mobile.jpg</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>July 26, 2022</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft and Facebook top the list of most impersonated brands
 </t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/microsoft-and-facebook-top-the-list-of-most-impersonated-brands/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Meta-Microsoft-logo.png</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-employ-linkedin-to-steal-data-from-facebook-business-users/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Meta-Business-Suite.png</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ex school heads jailed for virtual learning fraud
-</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/microsoft-and-facebook-top-the-list-of-most-impersonated-brands/</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Meta-Microsoft-logo.png</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia fines Google additional $34m for abusing its dominant position
-</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ex-school-heads-jailed-for-virtual-learning-fraud/</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/VirtualSchool.png</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Uber dodges lawsuit by taking blame for data breach
-</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-google-additional-34-m-for-abusing-its-dominant-position/</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Shutterstock_2111602964.jpg</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers exploit PrestaShop vulnerability to steal payment data
-</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/uber-dodges-lawsuit-by-taking-blame-for-data-breach/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/UberLawsuit.png</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Blockchain boss convicted of $21m crypto fraud
-</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-exploit-prestashop-vulnerability-to-steal-payment-data/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Credit-Card-Theft.png</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Hackers claim to have breached Italy’s revenue agency
-</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/blockchain-boss-convicted-of-21m-crypto-fraud/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/CryptoFraudTitanium.png</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-T-Mobile to pay $350m for a massive data breach
-</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/hackers-claim-to-have-breached-italys-revenue-agency/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Agenzia-Entrate-Breach.png</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -733,22 +733,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,49 +760,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -814,22 +814,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,76 +841,76 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -922,22 +922,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,22 +949,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June 20, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -976,27 +976,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June 15, 2022</t>
+          <t>June 20, 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, June 2022 Edition</t>
+          <t>Why Paper Receipts are Money at the Drive-Thru</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/microsoft-patch-tuesday-june-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2021/07/windupate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,76 +463,76 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -576,44 +576,44 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,22 +625,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,22 +652,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -684,17 +684,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -706,22 +706,22 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Authentication Risks Discovered in Okta Platform</t>
+          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://threatpost.com/risks-okta-sso/180249/</t>
+          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/05/23160149/identity-access-and-management.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1273,54 +1273,54 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1332,98 +1332,98 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1440,17 +1440,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1462,22 +1462,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,22 +1489,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,22 +1516,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>7 cybersecurity tips for your summer vacation!</t>
+          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/15/7-cybersecurity-tips-for-your-summer-vacation/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/copa-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1813,290 +1813,290 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cyberattack on radiation alert system ends with double arrest
+</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/Spain-nuclear-power.png</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia fines Snapchat owner for data law breach
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1078509770.png</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+US probing federal court records system breach
+</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers employ Telegram and Discord to peddle malware
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-employ-telegram-and-discord-to-peddle-malware/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Telegram-Discord-App.png</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>July 28, 2022</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Shanghai police breach awakens Chinese underground
 </t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-employ-telegram-and-discord-to-peddle-malware/</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Telegram-Discord-App.png</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>July 28, 2022</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Man pleads guilty to using social media to intimidate R. Kelly abuse victim
+</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/shanghai-police-breach-awakens-chinese-underground/</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/China-hacker-screen3.png</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/China-hacker-screen3.png</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>July 28, 2022</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Man pleads guilty to using social media in terror campaign against R. Kelly abuse victim
-</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/man-pleads-guilty-to-social-media-harassment-against-r-kelly-abuse-victim/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/RKellyUnhappy.png</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
+      <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Microsoft says Austrian firm targets banks, law firms with spyware
 </t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C59" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/man-pleads-guilty-to-social-media-harassment-against-r-kelly-abuse-victim/</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/RKellyUnhappy.png</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>July 28, 2022</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B60" t="inlineStr">
         <is>
           <t xml:space="preserve">
 EU found evidence employee phones compromised with Pegasus spyware
 </t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C60" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/microsoft-says-austrian-firm-targets-banks-law-firms-with-spyware/</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Microsoft-lock-DSIRF.png</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>July 27, 2022</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B61" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers shut down WordFly, siphon arts institutions’ data
 </t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="C61" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/eu-found-evidence-employee-phones-compromised-with-pegasus-spyware/</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Pegasus-NSOGroup-Smartphone.png</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-The US doubles the bounty for North Korean hackers
-</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-shut-down-wordfly-siphon-arts-institutions-data/</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Toronto-Symphony-Orchestra.png</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-TikTok hints it might have transferred US data to China
-</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/the-us-doubles-the-bounty-for-north-korean-hackers/</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/DPRK-North-Korea.png</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers employ LinkedIn to steal data from Facebook Business users
-</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-hints-it-might-have-transferred-us-data-to-china/</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/TikTok-App-Mobile.jpg</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Microsoft and Facebook top the list of most impersonated brands
-</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-employ-linkedin-to-steal-data-from-facebook-business-users/</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Meta-Business-Suite.png</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -733,22 +733,22 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -760,22 +760,22 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,49 +787,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -841,22 +841,22 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,76 +868,76 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -949,22 +949,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -976,22 +976,22 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June 20, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Why Paper Receipts are Money at the Drive-Thru</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/why-paper-receipts-are-money-at-the-drive-thru/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/jjclosed.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1543,22 +1543,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1570,22 +1570,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Staying safe online: How to browse the web securely</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1597,22 +1597,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1624,22 +1624,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1651,22 +1651,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1678,22 +1678,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1705,22 +1705,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1732,22 +1732,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1759,22 +1759,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 12, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Play it safe: 5 reasons not to download pirated games</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/12/play-it-safe-5-reasons-not-download-pirated-games/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/pirated-games-cybersecurity-privacy-risks.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1786,22 +1786,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 08, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Avoid travel digital disasters – Week in security with Tony Anscombe</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/avoid-travel-digital-disasters-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-12.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 30, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>You Pay More When Companies Get Hacked</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,22 +1030,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,22 +1057,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,22 +1111,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1138,22 +1138,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,54 +1165,54 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -1224,17 +1224,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Congress Might Pass an Actually Good Privacy Bill</t>
+          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
+          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
+          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1246,27 +1246,27 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The DHS Bought a ‘Shocking Amount’ of Phone-Tracking Data</t>
+          <t>Congress Might Pass an Actually Good Privacy Bill</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/dhs-surveillance-phone-tracking-data/</t>
+          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d759d794f7f03fb5e0c44c/master/pass/DHS-Phone-Data-Security-GettyImages-1227418727.jpg</t>
+          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -2022,7 +2022,7 @@
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Microsoft says Austrian firm targets banks, law firms with spyware
+ Microsoft says Austrian firm targets banks, law firms with spyware
 </t>
         </is>
       </c>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 30, 2022</t>
+          <t>July 31, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>You Pay More When Companies Get Hacked</t>
+          <t>Apple Just Patched 37 iPhone Security Bugs</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,22 +1030,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 30, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>You Pay More When Companies Get Hacked</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,22 +1057,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,22 +1084,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1116,17 +1116,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1138,22 +1138,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,22 +1165,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,54 +1192,54 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -1251,17 +1251,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Congress Might Pass an Actually Good Privacy Bill</t>
+          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/american-data-privacy-protection-act-adppa/</t>
+          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d8828addaaa99a1df8e636/master/pass/Privacy-Bill-Security-GettyImages-1409246062-alt.jpg</t>
+          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Microsoft says Austrian firm targets banks, law firms with spyware
+Microsoft says Austrian firm targets banks, law firms with spyware
 </t>
         </is>
       </c>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+          <t>Securing Your Move to the Hybrid Cloud</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,76 +490,76 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -603,44 +603,44 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,22 +652,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,22 +679,22 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -711,17 +711,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Magecart Serves Up Card Skimmers on Restaurant-Ordering Systems</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://threatpost.com/magecart-restaurant-ordering-systems/180254/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/12/22134736/Magecart.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1003,22 +1003,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 31, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple Just Patched 37 iPhone Security Bugs</t>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+          <t>https://www.wired.com/story/best-password-managers/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,22 +1030,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 30, 2022</t>
+          <t>July 31, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>You Pay More When Companies Get Hacked</t>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,22 +1057,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 30, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>You Pay More When Companies Get Hacked</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,22 +1084,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,22 +1111,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1165,22 +1165,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,22 +1192,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1219,135 +1219,135 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The 2022 US Midterm Elections' Top Security Issue: Death Threats</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/2022-midterms-election-security-election-worker-threats/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d883efddaaa99a1df8e638/master/pass/Midterm-Elections-2022-Security-GettyImages-1241166199.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>How to celebrate SysAdmin Day!</t>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1359,98 +1359,98 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1467,17 +1467,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1489,22 +1489,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,22 +1516,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>8 months on, US says Log4Shell will be around for “a decade or longer”</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/18/8-months-on-us-says-log4shell-will-be-around-for-a-decade-or-longer/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/log4j.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Microsoft says Austrian firm targets banks, law firms with spyware
+Microsoft says Austrian firm targets banks, law firms with spyware
 </t>
         </is>
       </c>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -2022,7 +2022,7 @@
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
- Microsoft says Austrian firm targets banks, law firms with spyware
+Microsoft says Austrian firm targets banks, law firms with spyware
 </t>
         </is>
       </c>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,22 +490,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,49 +517,49 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 31, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 30, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>You Pay More When Companies Get Hacked</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,22 +571,24 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t xml:space="preserve">
+Attackers employ Telegram and Discord to peddle malware
+</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,76 +600,78 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t xml:space="preserve">
+US probing federal court records system breach
+</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -679,49 +683,49 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Staying safe online: How to browse the web securely</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -738,44 +742,48 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
+          <t xml:space="preserve">
+Russia fines Snapchat owner for data law breach
+</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -787,76 +795,76 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -868,130 +876,130 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1003,22 +1011,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1030,22 +1038,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 31, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1057,22 +1065,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 30, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>You Pay More When Companies Get Hacked</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1084,22 +1092,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1111,49 +1119,49 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1170,17 +1178,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1192,22 +1200,22 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1219,238 +1227,238 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>How to celebrate SysAdmin Day!</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1467,17 +1475,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1494,17 +1502,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1516,22 +1524,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1543,22 +1551,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1570,22 +1578,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Staying safe online: How to browse the web securely</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1597,22 +1605,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1624,22 +1632,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1651,22 +1659,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1678,22 +1686,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1705,22 +1713,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1732,22 +1740,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1759,27 +1767,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1813,140 +1821,136 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers claim they hacked European missiles maker MBDA
+</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/Spain-nuclear-power.png</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia fines Snapchat owner for data law breach
-</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/07/shutterstock_1078509770.png</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers exploit Atlassian’s hard-coded password bug
-</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-US probing federal court records system breach
-</t>
-        </is>
-      </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Attackers employ Telegram and Discord to peddle malware
-</t>
+          <t>Securing Your Move to the Hybrid Cloud</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1958,111 +1962,109 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Shanghai police breach awakens Chinese underground
+Russia adds another VPN to its ban list
 </t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/attackers-employ-telegram-and-discord-to-peddle-malware/</t>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Telegram-Discord-App.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Man pleads guilty to using social media to intimidate R. Kelly abuse victim
+Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/shanghai-police-breach-awakens-chinese-underground/</t>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/China-hacker-screen3.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Microsoft says Austrian firm targets banks, law firms with spyware
+Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/man-pleads-guilty-to-social-media-harassment-against-r-kelly-abuse-victim/</t>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/RKellyUnhappy.png</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-EU found evidence employee phones compromised with Pegasus spyware
-</t>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/microsoft-says-austrian-firm-targets-banks-law-firms-with-spyware/</t>
+          <t>https://www.wired.com/story/best-password-managers/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Microsoft-lock-DSIRF.png</t>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2074,29 +2076,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Attackers shut down WordFly, siphon arts institutions’ data
-</t>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/eu-found-evidence-employee-phones-compromised-with-pegasus-spyware/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Pegasus-NSOGroup-Smartphone.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -463,49 +463,51 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>June 22, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+          <t>Securing Your Move to the Hybrid Cloud</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -517,22 +519,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>July 31, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+          <t>https://www.wired.com/story/best-password-managers/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,22 +546,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>July 30, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>You Pay More When Companies Get Hacked</t>
+          <t xml:space="preserve">
+Cyberattack on radiation alert system ends with double arrest
+</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,516 +575,524 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers claim they hacked European missiles maker MBDA
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia adds another VPN to its ban list
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Two billion people affected by internet restrictions
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>July 31, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>July 30, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>You Pay More When Companies Get Hacked</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers employ Telegram and Discord to peddle malware
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Staying safe online: How to browse the web securely</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia fines Snapchat owner for data law breach
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 US probing federal court records system breach
 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>How to celebrate SysAdmin Day!</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Staying safe online: How to browse the web securely</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers exploit Atlassian’s hard-coded password bug
-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia fines Snapchat owner for data law breach
-</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1092,76 +1104,76 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1173,49 +1185,49 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1227,76 +1239,76 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1308,49 +1320,49 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1362,22 +1374,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1389,49 +1401,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1443,49 +1455,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1497,22 +1509,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1524,22 +1536,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1551,22 +1563,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1578,49 +1590,49 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1632,22 +1644,22 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1659,22 +1671,22 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1686,22 +1698,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1713,22 +1725,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1740,22 +1752,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1767,49 +1779,49 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1821,22 +1833,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1848,53 +1860,49 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
-</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Attackers claim they hacked European missiles maker MBDA
-</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1906,24 +1914,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Cyberattack on radiation alert system ends with double arrest
-</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1935,22 +1941,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1962,24 +1968,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Russia adds another VPN to its ban list
-</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1991,53 +1995,49 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
-</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>July 11, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Two billion people affected by internet restrictions
-</t>
+          <t>Experian, You Have Some Explaining to Do</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2049,22 +2049,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>June 28, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2076,27 +2076,27 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>June 22, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,27 +492,29 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -524,17 +526,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
+          <t>Securing Your Move to the Hybrid Cloud</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -550,927 +552,945 @@
         </is>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Two billion people affected by internet restrictions
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia adds another VPN to its ban list
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers claim they hacked European missiles maker MBDA
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/best-password-managers/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/best-password-managers/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cyberattack on radiation alert system ends with double arrest
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers claim they hacked European missiles maker MBDA
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia adds another VPN to its ban list
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>GnuTLS patches memory mismanagement bug – update now!</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Crypto Currency</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Securing Your Move to the Hybrid Cloud</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>July 31, 2022</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>Apple Just Patched 39 iPhone Security Bugs</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>July 31, 2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>July 30, 2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t>You Pay More When Companies Get Hacked</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>July 30, 2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>You Pay More When Companies Get Hacked</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia fines Snapchat owner for data law breach
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+US probing federal court records system breach
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers employ Telegram and Discord to peddle malware
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B28" t="inlineStr">
         <is>
           <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C28" t="inlineStr">
         <is>
           <t>https://threatpost.com/malicious-npm-discord/180327/</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers employ Telegram and Discord to peddle malware
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C32" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>Staying safe online: How to browse the web securely</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Staying safe online: How to browse the web securely</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia fines Snapchat owner for data law breach
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C37" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers exploit Atlassian’s hard-coded password bug
-</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 US probing federal court records system breach
 </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>How to celebrate SysAdmin Day!</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>July 25, 2022</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1482,211 +1502,211 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1698,103 +1718,103 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1806,49 +1826,49 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1860,22 +1880,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1887,49 +1907,49 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1941,22 +1961,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1968,76 +1988,76 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2049,52 +2069,1672 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>July 27, 2022</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>July 26, 2022</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>July 25, 2022</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>July 24, 2022</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>How to Safely Lend Someone Else Your Phone</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>July 24, 2022</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>How to Safely Lend Someone Else Your Phone</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>July 23, 2022</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>July 23, 2022</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>July 23, 2022</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>July 23, 2022</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>July 22, 2022</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>July 22, 2022</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>July 22, 2022</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>July 22, 2022</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>July 19, 2022</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>July 19, 2022</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>July 18, 2022</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>July 18, 2022</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>July 14, 2022</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>API security moves mainstream</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>July 14, 2022</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>API security moves mainstream</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B120" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C120" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>June 22, 2022</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,22 +492,22 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
+          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -519,27 +519,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
+          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
@@ -550,190 +550,190 @@
         </is>
       </c>
       <c r="B5" t="inlineStr">
+        <is>
+          <t>Securing Your Move to the Hybrid Cloud</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/best-password-managers/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers claim they hacked European missiles maker MBDA
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia adds another VPN to its ban list
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>July 31, 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -745,332 +745,332 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>July 30, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>You Pay More When Companies Get Hacked</t>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>July 31, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>July 30, 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>You Pay More When Companies Get Hacked</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>How to celebrate SysAdmin Day!</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Staying safe online: How to browse the web securely</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia fines Snapchat owner for data law breach
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+US probing federal court records system breach
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers employ Telegram and Discord to peddle malware
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Staying safe online: How to browse the web securely</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia fines Snapchat owner for data law breach
-</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers exploit Atlassian’s hard-coded password bug
-</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-US probing federal court records system breach
-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>How to celebrate SysAdmin Day!</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
-        </is>
-      </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1082,22 +1082,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1109,76 +1109,76 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1190,22 +1190,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1217,22 +1217,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1244,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1271,44 +1271,44 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1320,27 +1320,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1374,49 +1374,49 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1433,17 +1433,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1460,22 +1460,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1487,44 +1487,44 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1536,22 +1536,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1563,22 +1563,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1590,49 +1590,49 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1644,49 +1644,49 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1703,17 +1703,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1730,17 +1730,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1752,22 +1752,22 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1779,22 +1779,22 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1833,22 +1833,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1860,22 +1860,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1887,22 +1887,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1914,22 +1914,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1941,22 +1941,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1968,22 +1968,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1995,76 +1995,76 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2076,25 +2076,79 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,353 +468,353 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Universities Put Email Users at Cyber Risk</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t xml:space="preserve">
 Missile maker MBDA denies being hacked, admits to data loss
 </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Securing Your Move to the Hybrid Cloud</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Two billion people affected by internet restrictions
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia adds another VPN to its ban list
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers claim they hacked European missiles maker MBDA
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers claim they hacked European missiles maker MBDA
-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia adds another VPN to its ban list
-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Ransomware</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Two billion people affected by internet restrictions
-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>July 31, 2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>July 30, 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>You Pay More When Companies Get Hacked</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -826,49 +826,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+          <t>https://www.wired.com/story/best-password-managers/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 31, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -880,27 +880,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 30, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>How to celebrate SysAdmin Day!</t>
+          <t>You Pay More When Companies Get Hacked</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -912,17 +912,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+          <t>Staying safe online: How to browse the web securely</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -939,17 +939,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Staying safe online: How to browse the web securely</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1077,22 +1077,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1104,22 +1104,22 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1131,22 +1131,22 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1163,98 +1163,98 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1271,17 +1271,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1298,22 +1298,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1325,44 +1325,44 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1374,22 +1374,22 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1401,22 +1401,22 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1428,22 +1428,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1455,54 +1455,54 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1514,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1563,49 +1563,49 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1617,22 +1617,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1644,49 +1644,49 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1698,22 +1698,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1725,22 +1725,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1752,27 +1752,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -1784,17 +1784,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1806,22 +1806,22 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1833,22 +1833,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1860,22 +1860,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1887,22 +1887,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1914,22 +1914,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1941,22 +1941,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1968,22 +1968,22 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1995,22 +1995,22 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2022,49 +2022,49 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2076,22 +2076,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2103,52 +2103,133 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="C66" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universities Put Email Users at Cyber Risk</t>
+          <t>VMWare Urges Users to Patch Critical Authentication Bypass Bug</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
+          <t>https://threatpost.com/vmware-patch-critical-bug/180346/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/11/06232507/vmware-patch.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,1014 +490,1032 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
+          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
+          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
+          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
+          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
+          <t>https://www.wired.com/story/microsoft-morse-team/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
+          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+League of Legends players targeted with file-locking malware
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+German semiconductor maker Semikron hit by cyberattack
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Universities Put Email Users at Cyber Risk</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TikTok Music may be in the works, patent filing shows
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+California man facing life for $25m T-Mobile fraud scheme
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Deceased spider inspires new field of "necrobotics"
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+11 people charged in a “massive” Ponzi pyramid scheme
+</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Missile maker MBDA denies being hacked, admits to data loss
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Two billion people affected by internet restrictions
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia adds another VPN to its ban list
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Cyberattack on radiation alert system ends with double arrest
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia adds another VPN to its ban list
-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers claim they hacked European missiles maker MBDA
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/best-password-managers/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Securing Your Move to the Hybrid Cloud</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>July 31, 2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>July 30, 2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>You Pay More When Companies Get Hacked</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cyberattack on radiation alert system ends with double arrest
+US probing federal court records system breach
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>July 31, 2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>July 30, 2022</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>You Pay More When Companies Get Hacked</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Staying safe online: How to browse the web securely</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers employ Telegram and Discord to peddle malware
+</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>How to celebrate SysAdmin Day!</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia fines Snapchat owner for data law breach
 </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers exploit Atlassian’s hard-coded password bug
 </t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-US probing federal court records system breach
-</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers employ Telegram and Discord to peddle malware
-</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>How to celebrate SysAdmin Day!</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>July 26, 2022</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
-        </is>
-      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1509,22 +1527,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>Staying safe online: How to browse the web securely</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1536,22 +1554,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1563,22 +1581,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1590,103 +1608,103 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1698,22 +1716,22 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1725,22 +1743,22 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1752,49 +1770,49 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1806,49 +1824,49 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1860,22 +1878,22 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1887,22 +1905,22 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1914,22 +1932,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1941,22 +1959,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1968,49 +1986,49 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2022,22 +2040,22 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2049,22 +2067,22 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2076,22 +2094,22 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2103,76 +2121,76 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2184,22 +2202,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2211,25 +2229,403 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>July 19, 2022</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>July 18, 2022</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>July 14, 2022</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>API security moves mainstream</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D80" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
+          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
+          <t>https://www.wired.com/story/microsoft-morse-team/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -522,17 +522,19 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
+          <t xml:space="preserve">
+TikTok Music may be in the works, patent filing shows
+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
+          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Semikron-Company-Photo.png</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -549,22 +551,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
+          <t xml:space="preserve">
+German semiconductor maker Semikron hit by cyberattack
+</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/microsoft-morse-team/</t>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/League-Legends-LoL.png</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
@@ -583,12 +587,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+          <t>https://cybernews.com/news/taiwans-presidential-website-hit-by-a-cyberattack-shortly-before-pelosis-visit/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1930019666.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -604,1323 +608,1335 @@
         </is>
       </c>
       <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Taiwan's presidential website hit by a cyberattack shortly before Pelosi's visit
+</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/samsung-launches-self-repair-program/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/samsung_repair.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung launches self-repair program
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nomad knew of a flaw resulting in a $190m heist two months beforehand - report
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reddit awards hero hacker $10k bounty
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/reddit-awards-hero-hacker-10k-bounty/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/RedditRedditReddit.png</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+UK to invest £6m in quantum computing
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/uk-to-invest-6m-in-quantum-computing/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/atominaneye.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t xml:space="preserve">
 German semiconductor maker Semikron hit by cyberattack
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Hacking</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+League of Legends players targeted with file-locking malware
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+11 people charged in a “massive” Ponzi pyramid scheme
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Universities Put Email Users at Cyber Risk</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Two billion people affected by internet restrictions
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Crypto Currency</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Universities Put Email Users at Cyber Risk</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TikTok Music may be in the works, patent filing shows
 </t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Deceased spider inspires new field of "necrobotics"
+</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t xml:space="preserve">
 California man facing life for $25m T-Mobile fraud scheme
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C27" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Deceased spider inspires new field of "necrobotics"
+Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-11 people charged in a “massive” Ponzi pyramid scheme
+Russia adds another VPN to its ban list
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
+Attackers claim they hacked European missiles maker MBDA
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/best-password-managers/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
+Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Securing Your Move to the Hybrid Cloud</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>July 31, 2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>July 30, 2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>You Pay More When Companies Get Hacked</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Staying safe online: How to browse the web securely</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Russia adds another VPN to its ban list
+Attackers exploit Atlassian’s hard-coded password bug
 </t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cyberattack on radiation alert system ends with double arrest
+Russia fines Snapchat owner for data law breach
 </t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
+Attackers employ Telegram and Discord to peddle malware
 </t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Ransomware</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Two billion people affected by internet restrictions
-</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers claim they hacked European missiles maker MBDA
-</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>July 31, 2022</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>July 30, 2022</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>You Pay More When Companies Get Hacked</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>How to celebrate SysAdmin Day!</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 US probing federal court records system breach
 </t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers employ Telegram and Discord to peddle malware
-</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>How to celebrate SysAdmin Day!</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia fines Snapchat owner for data law breach
-</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers exploit Atlassian’s hard-coded password bug
-</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Staying safe online: How to browse the web securely</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>July 28, 2022</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>July 27, 2022</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -1932,49 +1948,49 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -1986,49 +2002,49 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2040,49 +2056,49 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2094,49 +2110,49 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2148,76 +2164,76 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2229,22 +2245,22 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2256,22 +2272,22 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2283,22 +2299,22 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2310,22 +2326,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2337,22 +2353,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2364,49 +2380,49 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2418,22 +2434,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2445,22 +2461,22 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2472,22 +2488,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2499,49 +2515,49 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2553,22 +2569,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2580,22 +2596,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2607,25 +2623,268 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>July 19, 2022</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>July 18, 2022</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>July 14, 2022</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>API security moves mainstream</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D89" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,22 +463,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VMWare Urges Users to Patch Critical Authentication Bypass Bug</t>
+          <t>S3 Ep94: This sort of crypto (graphy), and the other sort of crypto (currency!) [Audio + Text]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/vmware-patch-critical-bug/180346/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/s3-ep94-this-sort-of-crypto-graphy-and-the-other-sort-of-crypto-currency-audio-text/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/11/06232507/vmware-patch.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/s3-ep94-200000000.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,1067 +490,1067 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
+          <t xml:space="preserve">Don’t get singed by scammers while you’re carrying the torch for Tinder </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/microsoft-morse-team/</t>
+          <t>https://www.welivesecurity.com/2022/08/04/protect-yourself-scammers-tinder-dating-app/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/tinder-1080x1080.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>August 04, 2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Scammers Sent Uber to Take Elderly Lady to the Bank</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/08/scammers-sent-uber-to-take-elderly-lady-to-the-bank/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/08/rideawaits.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>August 03, 2022</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>VMWare Urges Users to Patch Critical Authentication Bypass Bug</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/vmware-patch-critical-bug/180346/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/11/06232507/vmware-patch.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Nomad knew of a flaw resulting in a $190m heist two months beforehand - report
+</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+UK to invest £6m in quantum computing
+</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/uk-to-invest-6m-in-quantum-computing/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/atominaneye.jpg</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reddit awards hero hacker $10k bounty
+</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/reddit-awards-hero-hacker-10k-bounty/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/RedditRedditReddit.png</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung launches self-repair program
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/microsoft-morse-team/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Taiwan's presidential website hit by a cyberattack shortly before Pelosi's visit
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/samsung-launches-self-repair-program/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/samsung_repair.jpg</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+League of Legends players targeted with file-locking malware
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/taiwans-presidential-website-hit-by-a-cyberattack-shortly-before-pelosis-visit/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1930019666.jpg</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+German semiconductor maker Semikron hit by cyberattack
+</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/League-Legends-LoL.png</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TikTok Music may be in the works, patent filing shows
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/Semikron-Company-Photo.png</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>August 03, 2022</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
 German semiconductor maker Semikron hit by cyberattack
 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/League-Legends-LoL.png</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Hacking</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>August 03, 2022</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t xml:space="preserve">
 League of Legends players targeted with file-locking malware
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/taiwans-presidential-website-hit-by-a-cyberattack-shortly-before-pelosis-visit/</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1930019666.jpg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>August 03, 2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Taiwan's presidential website hit by a cyberattack shortly before Pelosi's visit
+Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/samsung-launches-self-repair-program/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/samsung_repair.jpg</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Hacking</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Samsung launches self-repair program
-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Nomad knew of a flaw resulting in a $190m heist two months beforehand - report
-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Reddit awards hero hacker $10k bounty
-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/reddit-awards-hero-hacker-10k-bounty/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/RedditRedditReddit.png</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-UK to invest £6m in quantum computing
-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/uk-to-invest-6m-in-quantum-computing/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/atominaneye.jpg</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-German semiconductor maker Semikron hit by cyberattack
-</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Hacking</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-League of Legends players targeted with file-locking malware
-</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
 11 people charged in a “massive” Ponzi pyramid scheme
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C22" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Universities Put Email Users at Cyber Risk</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Deceased spider inspires new field of "necrobotics"
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+California man facing life for $25m T-Mobile fraud scheme
+</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Missile maker MBDA denies being hacked, admits to data loss
 </t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TikTok Music may be in the works, patent filing shows
+</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Universities Put Email Users at Cyber Risk</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Data Breach</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>August 02, 2022</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
+Attackers claim they hacked European missiles maker MBDA
 </t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-TikTok Music may be in the works, patent filing shows
-</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Deceased spider inspires new field of "necrobotics"
-</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-California man facing life for $25m T-Mobile fraud scheme
-</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Securing Your Move to the Hybrid Cloud</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/best-password-managers/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Ransomware</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia adds another VPN to its ban list
 </t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers claim they hacked European missiles maker MBDA
-</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>August 01, 2022</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Two billion people affected by internet restrictions
-</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
-</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Ransomware</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>July 31, 2022</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>July 30, 2022</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>You Pay More When Companies Get Hacked</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1562,22 +1562,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 31, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Staying safe online: How to browse the web securely</t>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1589,305 +1589,305 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>July 30, 2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>You Pay More When Companies Get Hacked</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia fines Snapchat owner for data law breach
+</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+US probing federal court records system breach
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers exploit Atlassian’s hard-coded password bug
 </t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia fines Snapchat owner for data law breach
-</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Attackers employ Telegram and Discord to peddle malware
 </t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>How to celebrate SysAdmin Day!</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-US probing federal court records system breach
-</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
-        </is>
-      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>Staying safe online: How to browse the web securely</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1921,49 +1921,49 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -1975,22 +1975,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2007,22 +2007,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -2034,22 +2034,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -2061,44 +2061,44 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2110,49 +2110,49 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2164,76 +2164,76 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2250,17 +2250,17 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2277,44 +2277,44 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2326,22 +2326,22 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2353,22 +2353,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2380,49 +2380,49 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2434,22 +2434,22 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2461,49 +2461,49 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2520,17 +2520,17 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -2542,22 +2542,22 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2569,22 +2569,22 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2596,22 +2596,22 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2623,22 +2623,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2650,22 +2650,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2677,22 +2677,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2704,22 +2704,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2731,22 +2731,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2758,49 +2758,49 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2812,22 +2812,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2839,52 +2839,133 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B92" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="C92" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D92" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,17 +468,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S3 Ep94: This sort of crypto (graphy), and the other sort of crypto (currency!) [Audio + Text]</t>
+          <t>An Attack on Albanian Government Suggests New Iranian Aggression</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/04/s3-ep94-this-sort-of-crypto-graphy-and-the-other-sort-of-crypto-currency-audio-text/</t>
+          <t>https://www.wired.com/story/iran-cyberattack-albania/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/s3-ep94-200000000.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62ec1b9d08728a31e5d3d1d0/master/pass/Attack-on-Albanian-Government-Security-GettyImages-1132369974.jpg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/tinder-1080x1080.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/wls_tinder-scams_1000x667.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -522,17 +522,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Scammers Sent Uber to Take Elderly Lady to the Bank</t>
+          <t xml:space="preserve">Don’t get singed by scammers while you’re carrying the torch for Tinder </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/08/scammers-sent-uber-to-take-elderly-lady-to-the-bank/</t>
+          <t>https://www.welivesecurity.com/2022/08/04/protect-yourself-scammers-tinder-dating-app/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/08/rideawaits.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/tinder-1080x1080.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,22 +544,22 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>VMWare Urges Users to Patch Critical Authentication Bypass Bug</t>
+          <t>Scammers Sent Uber to Take Elderly Lady to the Bank</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://threatpost.com/vmware-patch-critical-bug/180346/</t>
+          <t>https://krebsonsecurity.com/2022/08/scammers-sent-uber-to-take-elderly-lady-to-the-bank/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/11/06232507/vmware-patch.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/08/rideawaits.jpg</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -571,1013 +571,1013 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>August 04, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S3 Ep94: This sort of crypto (graphy), and the other sort of crypto (currency!) [Audio + Text]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/s3-ep94-this-sort-of-crypto-graphy-and-the-other-sort-of-crypto-currency-audio-text/</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/s3-ep94-200000000.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>August 03, 2022</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>VMWare Urges Users to Patch Critical Authentication Bypass Bug</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/vmware-patch-critical-bug/180346/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/11/06232507/vmware-patch.jpg</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/microsoft-morse-team/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+TikTok Music may be in the works, patent filing shows
+</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Semikron-Company-Photo.png</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+German semiconductor maker Semikron hit by cyberattack
+</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+League of Legends players targeted with file-locking malware
+</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+German semiconductor maker Semikron hit by cyberattack
+</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/League-Legends-LoL.png</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+League of Legends players targeted with file-locking malware
+</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/taiwans-presidential-website-hit-by-a-cyberattack-shortly-before-pelosis-visit/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1930019666.jpg</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Taiwan's presidential website hit by a cyberattack shortly before Pelosi's visit
+</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/samsung-launches-self-repair-program/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/samsung_repair.jpg</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Hacking</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Samsung launches self-repair program
+</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>August 03, 2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nomad knew of a flaw resulting in a $190m heist two months beforehand - report
 </t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Vulnerability</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>August 03, 2022</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Reddit awards hero hacker $10k bounty
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/reddit-awards-hero-hacker-10k-bounty/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/RedditRedditReddit.png</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>August 03, 2022</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
 UK to invest £6m in quantum computing
 </t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C21" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/uk-to-invest-6m-in-quantum-computing/</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/atominaneye.jpg</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reddit awards hero hacker $10k bounty
+California man facing life for $25m T-Mobile fraud scheme
 </t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/reddit-awards-hero-hacker-10k-bounty/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/RedditRedditReddit.png</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Crypto Currency</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Samsung launches self-repair program
+Missile maker MBDA denies being hacked, admits to data loss
 </t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/microsoft-morse-team/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Vulnerability</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Universities Put Email Users at Cyber Risk</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Taiwan's presidential website hit by a cyberattack shortly before Pelosi's visit
+Deceased spider inspires new field of "necrobotics"
 </t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/samsung-launches-self-repair-program/</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/samsung_repair.jpg</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Hacking</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-League of Legends players targeted with file-locking malware
+Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/taiwans-presidential-website-hit-by-a-cyberattack-shortly-before-pelosis-visit/</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1930019666.jpg</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-German semiconductor maker Semikron hit by cyberattack
+11 people charged in a “massive” Ponzi pyramid scheme
 </t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/League-Legends-LoL.png</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Hacking</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Missile maker MBDA denies being hacked, admits to data loss
+</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t xml:space="preserve">
 TikTok Music may be in the works, patent filing shows
 </t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Semikron-Company-Photo.png</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>August 02, 2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-German semiconductor maker Semikron hit by cyberattack
+Ransomware gang says it hit Luxembourg’s energy supplier
 </t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Hacking</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Securing Your Move to the Hybrid Cloud</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-League of Legends players targeted with file-locking malware
+Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>August 03, 2022</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Russia adds another VPN to its ban list
+</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Ransomware</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/best-password-managers/</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers claim they hacked European missiles maker MBDA
+</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>August 01, 2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Two billion people affected by internet restrictions
 </t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-11 people charged in a “massive” Ponzi pyramid scheme
-</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Deceased spider inspires new field of "necrobotics"
-</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-California man facing life for $25m T-Mobile fraud scheme
-</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
-</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-TikTok Music may be in the works, patent filing shows
-</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Universities Put Email Users at Cyber Risk</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
-</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>August 02, 2022</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Two billion people affected by internet restrictions
-</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
+      <c r="C41" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers claim they hacked European missiles maker MBDA
-</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
-</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Ransomware</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
-</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Ransomware</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Russia adds another VPN to its ban list
-</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>Crypto Currency</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>August 01, 2022</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Cyberattack on radiation alert system ends with double arrest
-</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>July 31, 2022</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1589,195 +1589,197 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>July 30, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>You Pay More When Companies Get Hacked</t>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>July 31, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>July 30, 2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>You Pay More When Companies Get Hacked</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
           <t>July 29, 2022</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+US probing federal court records system breach
+</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Data Breach</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Attackers employ Telegram and Discord to peddle malware
+</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>July 29, 2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Russia fines Snapchat owner for data law breach
 </t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-US probing federal court records system breach
-</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>July 29, 2022</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Attackers exploit Atlassian’s hard-coded password bug
-</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1789,24 +1791,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Attackers employ Telegram and Discord to peddle malware
-</t>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -1845,22 +1845,22 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>How to celebrate SysAdmin Day!</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -1872,17 +1872,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1894,54 +1894,54 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1980,76 +1980,76 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -2061,17 +2061,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2088,22 +2088,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
@@ -2115,22 +2115,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -2142,17 +2142,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2164,49 +2164,49 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2245,54 +2245,54 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -2304,17 +2304,17 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2331,17 +2331,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2358,17 +2358,17 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2380,22 +2380,22 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2407,49 +2407,49 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2461,49 +2461,49 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2515,49 +2515,49 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2574,17 +2574,17 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -2601,17 +2601,17 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2623,22 +2623,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2650,22 +2650,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2704,22 +2704,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2731,22 +2731,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 20, 2022</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2758,22 +2758,22 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 19, 2022</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -2785,22 +2785,22 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 18, 2022</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2812,22 +2812,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2839,49 +2839,49 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 15, 2022</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 14, 2022</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>API security moves mainstream</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2893,49 +2893,49 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 13, 2022</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2947,25 +2947,79 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B94" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="C94" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D94" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,76 +463,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>August 04, 2022</t>
+          <t>August 05, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An Attack on Albanian Government Suggests New Iranian Aggression</t>
+          <t>Open Redirect Flaw Snags Amex, Snapchat User Data</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/iran-cyberattack-albania/</t>
+          <t>https://threatpost.com/open-redirect-flaw-snags-amex-snapchat-user-data/180354/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62ec1b9d08728a31e5d3d1d0/master/pass/Attack-on-Albanian-Government-Security-GettyImages-1132369974.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/06100249/email-3249062_1280.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>August 04, 2022</t>
+          <t>August 05, 2022</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Don’t get singed by scammers while you’re carrying the torch for Tinder </t>
+          <t>All the Data Amazon's Ring Cameras Collect About You</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/08/04/protect-yourself-scammers-tinder-dating-app/</t>
+          <t>https://www.wired.com/story/ring-doorbell-camera-amazon-privacy/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/wls_tinder-scams_1000x667.jpg</t>
+          <t>https://media.wired.com/photos/62ec3110e450f63c28dddee6/master/pass/Ring-Doorbell-Camera-Data-Security-shutterstock_1205704129.jpg</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>August 04, 2022</t>
+          <t>August 05, 2022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Don’t get singed by scammers while you’re carrying the torch for Tinder </t>
+          <t xml:space="preserve">
+Tutanota calls for a tighter grip on Big Tech
+</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/08/04/protect-yourself-scammers-tinder-dating-app/</t>
+          <t>https://cybernews.com/news/tutanota-calls-for-a-tighter-grip-on-big-tech/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/tinder-1080x1080.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/MSteamsicons.jpg</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -544,49 +546,51 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>August 04, 2022</t>
+          <t>August 05, 2022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Scammers Sent Uber to Take Elderly Lady to the Bank</t>
+          <t xml:space="preserve">
+Sensitive records of over 280m Indian citizens exposed
+</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/08/scammers-sent-uber-to-take-elderly-lady-to-the-bank/</t>
+          <t>https://cybernews.com/news/sensitive-records-of-over-280m-indian-citizens-exposed/</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/08/rideawaits.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/India-hacker-data.png</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>August 04, 2022</t>
+          <t>August 05, 2022</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S3 Ep94: This sort of crypto (graphy), and the other sort of crypto (currency!) [Audio + Text]</t>
+          <t>Develop a zero‑trust environment to protect your organization – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/04/s3-ep94-this-sort-of-crypto-graphy-and-the-other-sort-of-crypto-currency-audio-text/</t>
+          <t>https://www.welivesecurity.com/videos/develop-a-zero-trust-environment-to-protect-your-organization-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/s3-ep94-200000000.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/0-2.jpg</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -598,22 +602,22 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 05, 2022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VMWare Urges Users to Patch Critical Authentication Bypass Bug</t>
+          <t>Traffic Light Protocol for cybersecurity responders gets a revamp</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://threatpost.com/vmware-patch-critical-bug/180346/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/05/traffic-light-protocol-for-cybersecurity-responders-gets-a-revamp/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/11/06232507/vmware-patch.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/tl-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -625,22 +629,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
+          <t xml:space="preserve">Don’t get singed by scammers while you’re carrying the torch for Tinder </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
+          <t>https://www.welivesecurity.com/2022/08/04/protect-yourself-scammers-tinder-dating-app/</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/tinder-1080x1080.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -652,51 +656,53 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
+          <t xml:space="preserve">
+UK to invest £6m in quantum computing
+</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/microsoft-morse-team/</t>
+          <t>https://cybernews.com/news/robot-to-showcase-its-surgery-skills-on-iss/</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/mira_robot.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
           <t xml:space="preserve">
-TikTok Music may be in the works, patent filing shows
+Robot to showcase its surgery skills on ISS
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
+          <t>https://cybernews.com/news/two-terabytes-of-data-released-as-hackers-strive-to-expose-companies-environmental-damage/</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Semikron-Company-Photo.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1301314369.jpg</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -708,53 +714,51 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
           <t xml:space="preserve">
-German semiconductor maker Semikron hit by cyberattack
+Winamp is back after revamp; nostalgia-inducing looks intact
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
+          <t>https://cybernews.com/news/winamp-is-back-after-revamp-nostalgia-inducing-looks-intact/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/winamp.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-League of Legends players targeted with file-locking malware
-</t>
+          <t xml:space="preserve">Don’t get singed by scammers while you’re carrying the torch for Tinder </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+          <t>https://www.welivesecurity.com/2022/08/04/protect-yourself-scammers-tinder-dating-app/</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/wls_tinder-scams_1000x667.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -766,51 +770,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-German semiconductor maker Semikron hit by cyberattack
-</t>
+          <t>S3 Ep94: This sort of crypto (graphy), and the other sort of crypto (currency!) [Audio + Text]</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/s3-ep94-this-sort-of-crypto-graphy-and-the-other-sort-of-crypto-currency-audio-text/</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/League-Legends-LoL.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/s3-ep94-200000000.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
+          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -822,22 +824,22 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
+          <t>An Attack on Albanian Government Suggests New Iranian Aggression</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
+          <t>https://www.wired.com/story/iran-cyberattack-albania/</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62ec1b9d08728a31e5d3d1d0/master/pass/Attack-on-Albanian-Government-Security-GettyImages-1132369974.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -849,58 +851,56 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
           <t xml:space="preserve">
-League of Legends players targeted with file-locking malware
+Two terabytes of data released as hackers strive to expose companies' environmental damage
 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/taiwans-presidential-website-hit-by-a-cyberattack-shortly-before-pelosis-visit/</t>
+          <t>https://cybernews.com/news/winamp-is-back-after-revamp-nostalgia-inducing-looks-intact/</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1930019666.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/winamp.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>August 03, 2022</t>
+          <t>August 04, 2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Taiwan's presidential website hit by a cyberattack shortly before Pelosi's visit
-</t>
+          <t>Scammers Sent Uber to Take Elderly Lady to the Bank</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/samsung-launches-self-repair-program/</t>
+          <t>https://krebsonsecurity.com/2022/08/scammers-sent-uber-to-take-elderly-lady-to-the-bank/</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/samsung_repair.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/08/rideawaits.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -912,19 +912,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Samsung launches self-repair program
-</t>
+          <t>VMWare Urges Users to Patch Critical Authentication Bypass Bug</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
+          <t>https://threatpost.com/vmware-patch-critical-bug/180346/</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/11/06232507/vmware-patch.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -942,23 +940,23 @@
       <c r="B19" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Nomad knew of a flaw resulting in a $190m heist two months beforehand - report
+League of Legends players targeted with file-locking malware
 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
+          <t>https://cybernews.com/news/taiwans-presidential-website-hit-by-a-cyberattack-shortly-before-pelosis-visit/</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_1930019666.jpg</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -971,7 +969,7 @@
       <c r="B20" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Reddit awards hero hacker $10k bounty
+Nomad: a flaw outlined by the audit firm is not related to a recent hack
 </t>
         </is>
       </c>
@@ -982,12 +980,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/RedditRedditReddit.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/RedditRedditReddit.png</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
@@ -1000,18 +998,18 @@
       <c r="B21" t="inlineStr">
         <is>
           <t xml:space="preserve">
-UK to invest £6m in quantum computing
+Samsung launches self-repair program
 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/uk-to-invest-6m-in-quantum-computing/</t>
+          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/atominaneye.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1023,51 +1021,51 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
           <t xml:space="preserve">
-California man facing life for $25m T-Mobile fraud scheme
+Taiwan's presidential website hit by a cyberattack shortly before Pelosi's visit
 </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+          <t>https://cybernews.com/news/samsung-launches-self-repair-program/</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/samsung_repair.jpg</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
+          <t>GitHub blighted by “researcher” who created thousands of malicious projects</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/04/github-blighted-by-researcher-who-created-thousands-of-malicious-projects/</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/ppcp-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1079,105 +1077,109 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
+          <t xml:space="preserve">
+TikTok Music may be in the works, patent filing shows
+</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
+          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Semikron-Company-Photo.png</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
+          <t xml:space="preserve">
+German semiconductor maker Semikron hit by cyberattack
+</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
+          <t>https://cybernews.com/news/german-semiconductor-maker-semikron-hit-by-cyberattack/</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/Semikron-Company-Photo.png</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
-</t>
+          <t>Post-quantum cryptography – new algorithm “gone in 60 minutes”</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/03/post-quantum-cryptography-new-algorithm-gone-in-60-minutes/</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/cat-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Universities Put Email Users at Cyber Risk</t>
+          <t xml:space="preserve">
+League of Legends players targeted with file-locking malware
+</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/League-Legends-LoL.png</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1189,82 +1191,82 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Deceased spider inspires new field of "necrobotics"
+German semiconductor maker Semikron hit by cyberattack
 </t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
+          <t>https://cybernews.com/news/league-of-legends-players-targeted-with-file-locking-malware/</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/League-Legends-LoL.png</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Two billion people affected by internet restrictions
+Nomad knew of a flaw resulting in a $190m heist two months beforehand - report
 </t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
+          <t>https://cybernews.com/news/nomad-knew-of-a-flaw-resulting-in-a-190m-heist-two-months-beforehand-report/</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/cryptocoinnomadhack.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
           <t xml:space="preserve">
-11 people charged in a “massive” Ponzi pyramid scheme
+Reddit awards hero hacker $10k bounty
 </t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
+          <t>https://cybernews.com/news/reddit-awards-hero-hacker-10k-bounty/</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/RedditRedditReddit.png</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1276,53 +1278,51 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Missile maker MBDA denies being hacked, admits to data loss
+UK to invest £6m in quantum computing
 </t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
+          <t>https://cybernews.com/news/uk-to-invest-6m-in-quantum-computing/</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/atominaneye.jpg</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-TikTok Music may be in the works, patent filing shows
-</t>
+          <t>A New Attack Easily Knocked Out a Potential Encryption Algorithm</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
+          <t>https://www.wired.com/story/new-attack-sike-post-quantum-computing-encryption-algorithm/</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
+          <t>https://media.wired.com/photos/62e9bbe9d7368105da057de2/master/pass/Quantum-Computer-Encryption-Algorithm-Security-GettyImages-1296317448.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1334,78 +1334,78 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>August 02, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
+          <t>The Microsoft Team Racing to Catch Bugs Before They Happen</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
+          <t>https://www.wired.com/story/microsoft-morse-team/</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
+          <t>https://media.wired.com/photos/62eaa3f0a8cfdad40f878cc0/master/pass/Microsoft-Bugs-Security-Alamy-FCE79X.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 03, 2022</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
+Reddit awards hero hacker $10k bounty
 </t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+          <t>https://cybernews.com/news/uk-to-invest-6m-in-quantum-computing/</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/atominaneye.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Securing Your Move to the Hybrid Cloud</t>
+          <t>Start as you mean to go on: the top 10 steps to securing your new computer</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://threatpost.com/secure-move-cloud/180335/</t>
+          <t>https://www.welivesecurity.com/2022/08/02/10-steps-securing-your-new-computer/</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/1200x628-square.png</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1417,24 +1417,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Cyberattack on radiation alert system ends with double arrest
+California man facing life for $25m T-Mobile fraud scheme
 </t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1446,80 +1446,82 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Russia adds another VPN to its ban list
+Missile maker MBDA denies being hacked, admits to data loss
 </t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/MBDA-missile-breach2.png</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Ransomware gang says it hit Luxembourg’s energy supplier
+Deceased spider inspires new field of "necrobotics"
 </t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
+          <t>https://cybernews.com/news/california-man-facing-life-for-25m-t-mobile-fraud-scheme/</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2021/12/shutterstock_1423711565.jpg</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ransomware</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>You Need a Password Manager. Here Are the Best Ones</t>
+          <t xml:space="preserve">
+Two billion people affected by internet restrictions
+</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/best-password-managers/</t>
+          <t>https://cybernews.com/news/missile-maker-mbda-denies-being-hacked-admits-to-data-loss/</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach2.png</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1531,24 +1533,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Attackers claim they hacked European missiles maker MBDA
+11 people charged in a “massive” Ponzi pyramid scheme
 </t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
+          <t>https://cybernews.com/news/deceased-spider-inspires-new-field-of-necrobotics/</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/spider.jpg</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1560,78 +1562,80 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Two billion people affected by internet restrictions
+Missile maker MBDA denies being hacked, admits to data loss
 </t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
+          <t>https://cybernews.com/news/11-people-charged-in-a-massive-ponzi-pyramid-scheme/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Shutterstock_2155625321.jpg</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>August 01, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GnuTLS patches memory mismanagement bug – update now!</t>
+          <t xml:space="preserve">
+TikTok Music may be in the works, patent filing shows
+</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
+          <t>https://cybernews.com/news/tiktok-music-may-be-in-the-works-patent-filing-shows/</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/tiktok.jpg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Crypto Currency</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>July 31, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Apple Just Patched 39 iPhone Security Bugs</t>
+          <t>Universities Put Email Users at Cyber Risk</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
+          <t>https://threatpost.com/universities-email-cyber-risk/180342/</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/02/11095955/Business-Email-Compromise.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1643,22 +1647,22 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>July 30, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>You Pay More When Companies Get Hacked</t>
+          <t>No SOCKS, No Shoes, No Malware Proxy Services!</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
+          <t>https://krebsonsecurity.com/2022/08/no-socks-no-shoes-no-malware-proxy-services/</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/06/proxy.png</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1670,82 +1674,78 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-US probing federal court records system breach
-</t>
+          <t>Cryptocoin “token swapper” Nomad loses $200 million in coding blunder</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/02/cryptocoin-token-swapper-nomad-loses-200-million-in-coding-blunder/</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/nomad-img-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 02, 2022</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Attackers exploit Atlassian’s hard-coded password bug
-</t>
+          <t>Bitcoin Fog Case Could Put Cryptocurrency Tracing on Trial</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
+          <t>https://www.wired.com/story/bitcoin-fog-roman-sterlingov-blockchain-analysis/</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
+          <t>https://media.wired.com/photos/62e95bada1dc74857a858363/master/pass/Bitcoin-Fog-Security-GettyImages-1241143235.jpg</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Attackers employ Telegram and Discord to peddle malware
+Cyberattack on radiation alert system ends with double arrest
 </t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
+          <t>https://cybernews.com/news/attackers-claim-they-hacked-european-missiles-maker-mbda/</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/MBDA-missile-breach.png</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1757,159 +1757,163 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">
-Russia fines Snapchat owner for data law breach
-</t>
+          <t>Securing Your Move to the Hybrid Cloud</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
+          <t>https://threatpost.com/secure-move-cloud/180335/</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/04/29082135/cloud-digital.png</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>911 Proxy Service Implodes After Disclosing Breach</t>
+          <t xml:space="preserve">
+Russia adds another VPN to its ban list
+</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Staying safe online: How to browse the web securely</t>
+          <t>GnuTLS patches memory mismanagement bug – update now!</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
+          <t>https://nakedsecurity.sophos.com/2022/08/01/gnutls-patches-memory-mismanagement-bug-update-now/</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/gnutls-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Crypto Currency</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+          <t>https://cybernews.com/news/ransomware-gang-says-it-hit-luxembourgs-energy-supplier/</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/Gas-Pipeline-Hack.png</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
+          <t xml:space="preserve">
+Ransomware gang says it hit Luxembourg’s energy supplier
+</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/nointernetsignrestrictions.jpg</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Ransomware</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
+          <t>You Need a Password Manager. Here Are the Best Ones</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
+          <t>https://www.wired.com/story/best-password-managers/</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
+          <t>https://media.wired.com/photos/5ce82f0838916bbaffa0c591/master/pass/Managing-Passwords.jpg</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -1921,130 +1925,134 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>July 29, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>How to celebrate SysAdmin Day!</t>
+          <t xml:space="preserve">
+Two billion people affected by internet restrictions
+</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
+          <t>https://cybernews.com/news/two-billion-people-affected-by-internet-restrictions/</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/featured/2022/08/nointernetsignrestrictions.jpg</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>August 01, 2022</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Breach Exposes Users of Microleaves Proxy Service</t>
+          <t xml:space="preserve">
+Attackers claim they hacked European missiles maker MBDA
+</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
+          <t>https://cybernews.com/news/russia-adds-another-vpn-to-its-ban-list/</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/08/AdGuardVPNban.jpg</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 31, 2022</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
+          <t>Apple Just Patched 39 iPhone Security Bugs</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
+          <t>https://www.wired.com/story/apple-ios-google-chrome-security-updates-july-2022/</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e45603d7368105da057d95/master/pass/Apple-Security-Bugs-Patch-Security-GettyImages-946607422.jpg</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 30, 2022</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
+          <t>You Pay More When Companies Get Hacked</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
+          <t>https://www.wired.com/story/cyber-tax-data-breach-cost-security-roundup/</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
+          <t>https://media.wired.com/photos/62e43e598ad26c5c0a000cc9/master/pass/You-Pay-More-Companies-Hacked-Security-GettyImages-1355761959.jpg</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>July 28, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-30.jpg</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2056,157 +2064,165 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Cash App fraud: 10 common scams to watch out for</t>
+          <t xml:space="preserve">
+US probing federal court records system breach
+</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
+          <t>https://cybernews.com/news/attackers-exploit-atlassians-hard-coded-password-bug/</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Atlassian-Confluence-Exploit.png</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
+          <t xml:space="preserve">
+Attackers exploit Atlassian’s hard-coded password bug
+</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
+          <t>https://cybernews.com/news/russia-fines-snapchat-owner-for-data-law-breach/</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/shutterstock_1078509770.png</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
+          <t xml:space="preserve">
+Attackers employ Telegram and Discord to peddle malware
+</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
+          <t>https://cybernews.com/news/us-probing-federal-court-records-system-breach/</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/DoJ-Department-Justice.png</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
+          <t>How to celebrate SysAdmin Day!</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/29/how-to-celebrate-sysadmin-day/</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/heros-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mild monthly security update from Firefox – but update anyway</t>
+          <t xml:space="preserve">
+Russia fines Snapchat owner for data law breach
+</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
+          <t>https://cybernews.com/news/cyberattack-on-radiation-alert-system-ends-with-double-arrest/</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.cybernews.com/images/thumbnail/2022/07/Spain-nuclear-power.png</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>July 27, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
+          <t>Music streaming platform victim of a crypto theft – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
+          <t>https://www.welivesecurity.com/videos/music-nft-platform-victim-of-a-crypto-theft-week-in-security-with-tony-anscombe/</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-28.jpg</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2218,22 +2234,22 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Novel Malware Hijacks Facebook Business Accounts</t>
+          <t>Staying safe online: How to browse the web securely</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
+          <t>https://www.welivesecurity.com/2022/07/29/staying-safe-online-browse-web-securely/</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/Browse-Web-safely-WLS-1-e1658938886483.png</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2245,49 +2261,49 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
+          <t>911 Proxy Service Implodes After Disclosing Breach</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
+          <t>https://krebsonsecurity.com/2022/07/911-proxy-service-implodes-after-disclosing-breach/</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>July 26, 2022</t>
+          <t>July 29, 2022</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
+          <t>Malicious Npm Packages Tapped Again to Target Discord Users</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
+          <t>https://threatpost.com/malicious-npm-discord/180327/</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/07/23172148/discord-game-social.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2299,49 +2315,49 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
+          <t>Breach Exposes Users of Microleaves Proxy Service</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
+          <t>https://krebsonsecurity.com/2022/07/breach-exposes-users-of-microleaves-proxy-service/</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/microleaves.png</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
+          <t>How Tor Is Fighting—and Beating—Russian Censorship</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
+          <t>https://www.wired.com/story/tor-browser-russia-blocks/</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
+          <t>https://media.wired.com/photos/62e29de658719fe5c578ebf6/master/pass/Russia-Tor-Censorship-Security-GettyImages-1145262128.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2353,130 +2369,130 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
+          <t>Threat Actors Pivot Around Microsoft’s Macro-Blocking in Office</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
+          <t>https://threatpost.com/threat-pivot-microsofts-macro/180319/</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/28132103/sl-abstract-office-document.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 28, 2022</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
+          <t>S3 Ep93: Office security, breach costs, and leisurely patches [Audio + Text]</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/28/s3-ep93-office-security-breach-costs-and-leisurely-patches-audio-text/</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/s3-ep93-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>July 25, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
+          <t>Don’t Call the New Federal Gun Law a Gun Law</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
+          <t>https://www.wired.com/story/federal-gun-law-2022-cdc-data/</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62e05e262cb57098241e454e/master/pass/Gun-Data-Senate-Security-GettyImages-677567093.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>July 24, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>How to Safely Lend Someone Else Your Phone</t>
+          <t>Critical Samba bug could let anyone become Domain Admin – patch now!</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/critical-samba-bug-could-let-anyone-become-domain-admin-patch-now/</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/samba-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
+          <t>Mild monthly security update from Firefox – but update anyway</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/27/mild-monthly-security-update-from-firefox-but-update-anyway/</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/03/ff-2100.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2488,22 +2504,22 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>July 23, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
+          <t>Messaging Apps Tapped as Platform for Cybercriminal Activity</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
+          <t>https://threatpost.com/messaging-apps-cybercriminals/180303/</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/03/07000449/shutterstock_182196404.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2515,49 +2531,49 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
+          <t>A Retrospective on the 2015 Ashley Madison Breach</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
+          <t>https://krebsonsecurity.com/2022/07/a-retrospective-on-the-2015-ashley-madison-breach/</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/ashleymadison.png</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Hacking</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>July 22, 2022</t>
+          <t>July 27, 2022</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
+          <t>Cash App fraud: 10 common scams to watch out for</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
+          <t>https://www.welivesecurity.com/2022/07/27/cash-app-fraud-scams-watch-out/</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cashapp-scams-fraud.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2569,49 +2585,49 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
+          <t>Phishing Attacks Skyrocket with Microsoft and Facebook as Most Abused Brands</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
+          <t>https://threatpost.com/popular-bait-in-phishing-attacks/180281/</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2021/09/23070332/phishing-farm.jpg</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Vulnerability</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
+          <t>IoT Botnets Fuels DDoS Attacks – Are You Prepared?</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
+          <t>https://threatpost.com/ddos-attacks-prepared/180273/</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2022/07/25090220/IoT-Botnets-Fuels-DDoS-Attacks-Are-You-Prepared.png</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2623,22 +2639,22 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 26, 2022</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
+          <t>Novel Malware Hijacks Facebook Business Accounts</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
+          <t>https://threatpost.com/malware-hijacks-facebook/180285/</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2018/03/20140155/face-face.jpg</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2650,22 +2666,22 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>July 21, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+          <t>NFT: A new‑fangled trend or also a new‑found treasure?</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+          <t>https://www.welivesecurity.com/2022/07/25/nft-new-fangled-trend-new-found-treasure/</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/nft-non-funglbe-tokens-auctions-scams.jpg</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2677,22 +2693,22 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+          <t>Why Physical Security Maintenance Should Never Be an Afterthought</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+          <t>https://threatpost.com/physical-security-maintenance/180269/</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2016/12/06095327/01_intro_iot-e1520348007355.png</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2704,22 +2720,22 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+          <t>Russia Is Quietly Ramping Up Its Internet Censorship Machine</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+          <t>https://www.wired.com/story/russia-internet-censorship-splinternet/</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+          <t>https://media.wired.com/photos/62db25c3a8cfdad40f878c27/master/pass/Russia-Internet-Censorship-Security-GettyImages-1369183250.jpg</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -2731,22 +2747,22 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>July 20, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+          <t>Interstate Travel Post-Roe Isn’t as Secure as You May Think</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+          <t>https://www.wired.com/story/insterstate-travel-abortion-post-roe/</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+          <t>https://media.wired.com/photos/62dafcc3d7368105da057cde/master/pass/GettyImages-83150480_gear.jpg</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2758,49 +2774,49 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>July 19, 2022</t>
+          <t>July 25, 2022</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+          <t>T-Mobile to cough up $500 million over 2021 data breach</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/25/t-mobile-to-cough-up-500-million-over-2021-data-breach/</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/tm-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Data Breach</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>July 18, 2022</t>
+          <t>July 24, 2022</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+          <t>How to Safely Lend Someone Else Your Phone</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+          <t>https://www.wired.com/story/how-to-safely-lend-someone-else-your-phone/</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+          <t>https://media.wired.com/photos/62db1ab3a1dc74857a8582c1/master/pass/takingphoto_GettyImages-1156016738-Science.jpg</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -2812,22 +2828,22 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+          <t>The January 6 Secret Service Text Scandal Turns Criminal</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+          <t>https://www.wired.com/story/secret-service-jan-6-text-scandal/</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+          <t>https://media.wired.com/photos/62db3603a524e4ef61bb6889/master/pass/January-6-Secret-Service-Security-GettyImages-1230451801.jpg</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -2839,22 +2855,22 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>July 15, 2022</t>
+          <t>July 23, 2022</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+          <t>Office macro security: on-again-off-again feature now BACK ON AGAIN!</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/23/office-macro-security-on-again-off-again-feature-now-back-on-again/</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/05/off-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -2866,76 +2882,76 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>July 14, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>API security moves mainstream</t>
+          <t>The Unsolved Mystery Attack on Internet Cables in Paris</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+          <t>https://www.wired.com/story/france-paris-internet-cable-cuts-attack/</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+          <t>https://media.wired.com/photos/62d9d9bcd0ad4d5c1833c010/master/pass/France-Internet-Cut-Security-GettyImages-898570716.jpg</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Cyber Knowledge</t>
+          <t>Hacking</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 22, 2022</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+          <t>macOS malware: myth vs. reality – Week in security with Tony Anscombe</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+          <t>https://www.welivesecurity.com/videos/macos-malware-myth-vs-reality-week-security-tony-anscombe/</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-25.jpg</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Vulnerability</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>July 13, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+          <t>Hackers for Hire: Adversaries Employ ‘Cyber Mercenaries’</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+          <t>https://threatpost.com/hackers-cyber-mercenaries/180263/</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/06/23135719/insider-threat.png</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -2947,22 +2963,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>July 11, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Experian, You Have Some Explaining to Do</t>
+          <t>S3 Ep92: Log4Shell4Ever, travel tips, and scamminess [Audio + Text]</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/s3-ep92-log4shell4ever-travel-tips-and-scamminess-audio-text/</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/ns-s3-ep92-1200.jpg?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -2974,22 +2990,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>June 28, 2022</t>
+          <t>July 21, 2022</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+          <t>Apple patches “0-day” browser bug fixed 2 weeks ago in Chrome, Edge</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+          <t>https://nakedsecurity.sophos.com/2022/07/21/apple-patches-0-day-browser-bug-fixed-2-weeks-ago-in-chrome-edge/</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/01/apple-1200.png?w=230&amp;h=130&amp;crop=1</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3001,25 +3017,376 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>July 21, 2022</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Massive Losses Define Epidemic of ‘Pig Butchering’</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/massive-losses-define-epidemic-of-pig-butchering/</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/04/cryptopeople.png</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ESET Research Podcast: Hot security topics at RSA or mostly hype?</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/20/eset-research-podcast-hot-security-topics-rsa-or-mostly-hype/</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/eset-research-podcast-rsa.png</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Last member of Gozi malware troika arrives in US for criminal trial</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/2022/07/20/last-member-of-gozi-malware-troika-arrives-in-us-for-criminal-trial/</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/07/troj.jpg?w=230&amp;h=130&amp;crop=1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>July 20, 2022</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Conti’s Reign of Chaos: Costa Rica in the Crosshairs</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://threatpost.com/contis-costa-rica/180258/</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2019/06/20122305/Ransomware.jpg</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>July 19, 2022</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>I see what you did there: A look at the CloudMensis macOS spyware</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/19/i-see-what-you-did-there-look-cloudmensis-macos-spyware/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/cloudmensis-macos-malware-spyware-backdoor.jpg</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>July 18, 2022</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>A Deep Dive Into the Residential Proxy Service ‘911’</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/a-deep-dive-into-the-residential-proxy-service-911/</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/s5now.png</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Why 8kun Went Offline During the January 6 Hearings</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/why-8kun-went-offline-during-the-january-6-hearings/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/j6wide.png</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>July 15, 2022</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Think twice before downloading pirated games – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/think-twice-downloading-pirated-games-week-security-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/0-19.jpg</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>July 14, 2022</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>API security moves mainstream</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/14/api-security-moves-mainstream/</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/07/api-security-software.jpg</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Microsoft Patch Tuesday, July 2022 Edition</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/microsoft-patch-tuesday-july-2022-edition/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/07/winupdatedate.png</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Vulnerability</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>July 13, 2022</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Collaboration and knowledge sharing key to progress in cybersecurity</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/2022/07/13/collaboration-knowledge-sharing-key-progress-cybersecurity/</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/06/colaboración-divulgación-información-ciberseguridad.jpg</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>July 11, 2022</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Experian, You Have Some Explaining to Do</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/07/experian-you-have-some-explaining-to-do/</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2015/07/experian.png</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>June 28, 2022</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>The Link Between AWM Proxy &amp; the Glupteba Botnet</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/2022/06/the-link-between-awm-proxy-the-glupteba-botnet/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2011/09/awmpsite.png</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
           <t>June 22, 2022</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B107" t="inlineStr">
         <is>
           <t>Meet the Administrators of the RSOCKS Proxy Botnet</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="C107" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/2022/06/meet-the-administrators-of-the-rsocks-proxy-botnet/</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D107" t="inlineStr">
         <is>
           <t>https://krebsonsecurity.com/wp-content/uploads/2022/06/rusdotmailer.png</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>Cyber Knowledge</t>
         </is>

--- a/cyber_web/excels/news_categorized.xlsx
+++ b/cyber_web/excels/news_categorized.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>August 05, 2022</t>
+          <t>August 06, 2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Open Redirect Flaw Snags Amex, Snapchat User Data</t>
+          <t>Class Action Targets Experian Over Account Security</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://threatpost.com/open-redirect-flaw-snags-amex-snapchat-user-data/180354/</t>
+          <t>https://krebsonsecurity.com/2022/08/class-action-targets-experian-over-account-security/</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/06100249/email-3249062_1280.png</t>
+          <t>https://krebsonsecurity.com/wp-content/uploads/2022/08/exp-ca.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Data Breach</t>
+          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
@@ -495,17 +495,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>All the Data Amazon's Ring Cameras Collect About You</t>
+          <t>Open Redirect Flaw Snags Amex, Snapchat User Data</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://www.wired.com/story/ring-doorbell-camera-amazon-privacy/</t>
+          <t>https://threatpost.com/open-redirect-flaw-snags-amex-snapchat-user-data/180354/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://media.wired.com/photos/62ec3110e450f63c28dddee6/master/pass/Ring-Doorbell-Camera-Data-Security-shutterstock_1205704129.jpg</t>
+          <t>https://media.kasperskycontenthub.com/wp-content/uploads/sites/103/2020/07/06100249/email-3249062_1280.png</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -521,130 +521,130 @@
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>A Slack Bug Exposed Some Users’ Hashed Passwords for 5 Years</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>https://www.wired.com/story/slack-hashed-passwords-exposed/</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://media.wired.com/photos/62ed370fc899551de612435d/master/pass/Slack_Sec_GettyImages-1229912942.jpg</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>August 05, 2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Develop a zero‑trust environment to protect your organization – Week in security with Tony Anscombe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/videos/develop-a-zero-trust-environment-to-protect-your-organization-week-in-security-with-tony-anscombe/</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/0-2.jpg</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>August 05, 2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tutanota calls for a tighter grip on Big Tech
 </t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/tutanota-calls-for-a-tighter-grip-on-big-tech/</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/MSteamsicons.jpg</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Cyber Knowledge</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>August 05, 2022</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sensitive records of over 280m Indian citizens exposed
 </t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://cybernews.com/news/sensitive-records-of-over-280m-indian-citizens-exposed/</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://media.cybernews.com/images/featured/2022/08/India-hacker-data.png</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Data Breach</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>August 05, 2022</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Develop a zero‑trust environment to protect your organization – Week in security with Tony Anscombe</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/videos/develop-a-zero-trust-environment-to-protect-your-organization-week-in-security-with-tony-anscombe/</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://www.welivesecurity.com/wp-content/uploads/2022/08/0-2.jpg</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>August 05, 2022</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Traffic Light Protocol for cybersecurity responders gets a revamp</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/2022/08/05/traffic-light-protocol-for-cybersecurity-responders-gets-a-revamp/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://nakedsecurity.sophos.com/wp-content/uploads/sites/2/2022/08/tl-1200.png?w=230&amp;h=130&amp;crop=1</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Cyber Knowledge</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>August 04, 2022</t>
+       